--- a/mtor/mTOR56.xlsx
+++ b/mtor/mTOR56.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yassenroussev/Desktop/mTOR/mtor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D33FF58B-7C8D-C54E-B711-EC90DC7B1DB6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E74CB30A-8B7D-FE4B-9C26-23BEDA5CF82E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="256">
   <si>
     <t>!!SBtab TableType='rxnconReactionList' TableName='ReactionList'</t>
   </si>
@@ -805,6 +805,9 @@
   </si>
   <si>
     <t>&lt;PI4&gt;</t>
+  </si>
+  <si>
+    <t>&lt;PI45&gt;</t>
   </si>
 </sst>
 </file>
@@ -840,7 +843,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -964,6 +967,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1105,7 +1114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1223,6 +1232,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1699,7 +1710,7 @@
   </sheetPr>
   <dimension ref="A1:IV48"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="142" zoomScaleSheetLayoutView="1" workbookViewId="0">
+    <sheetView zoomScale="142" zoomScaleSheetLayoutView="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -4159,10 +4170,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV148"/>
+  <dimension ref="A1:IV151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="117" zoomScaleSheetLayoutView="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="139" zoomScaleSheetLayoutView="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -4359,56 +4370,46 @@
       <c r="G10" s="33"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="12">
-        <v>7</v>
-      </c>
+      <c r="A11" s="12"/>
       <c r="B11" s="41" t="str">
         <f>ReactionList!A11</f>
         <v>PI3K_p+_PI_[(3)]</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>25</v>
-      </c>
+      <c r="D11" s="69" t="s">
+        <v>255</v>
+      </c>
+      <c r="E11" s="37"/>
       <c r="F11" s="37"/>
       <c r="G11" s="33"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="12">
-        <v>8</v>
-      </c>
-      <c r="B12" s="41" t="str">
-        <f>ReactionList!A11</f>
-        <v>PI3K_p+_PI_[(3)]</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>98</v>
+      <c r="A12" s="12"/>
+      <c r="B12" s="69" t="s">
+        <v>255</v>
+      </c>
+      <c r="C12" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="69" t="s">
+        <v>254</v>
       </c>
       <c r="E12" s="37"/>
       <c r="F12" s="37"/>
       <c r="G12" s="33"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="12">
-        <v>9</v>
-      </c>
-      <c r="B13" s="41" t="str">
-        <f>ReactionList!A11</f>
-        <v>PI3K_p+_PI_[(3)]</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>99</v>
+      <c r="A13" s="12"/>
+      <c r="B13" s="69" t="s">
+        <v>255</v>
+      </c>
+      <c r="C13" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="70" t="s">
+        <v>98</v>
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="37"/>
@@ -4416,68 +4417,59 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="12">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B14" s="41" t="str">
-        <f>ReactionList!A13</f>
-        <v>AKT2_[PI]_i_PI_[PH]</v>
+        <f>ReactionList!A11</f>
+        <v>PI3K_p+_PI_[(3)]</v>
       </c>
       <c r="C14" s="41" t="s">
         <v>87</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="37"/>
+        <v>96</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>25</v>
+      </c>
       <c r="F14" s="37"/>
       <c r="G14" s="33"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="12">
-        <v>11</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>99</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="37"/>
       <c r="F15" s="37"/>
       <c r="G15" s="33"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="12">
-        <v>12</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>98</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
       <c r="E16" s="37"/>
       <c r="F16" s="37"/>
       <c r="G16" s="33"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="12">
-        <v>13</v>
-      </c>
-      <c r="B17" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="41" t="str">
+        <f>ReactionList!A13</f>
+        <v>AKT2_[PI]_i_PI_[PH]</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="41" t="s">
         <v>100</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>102</v>
       </c>
       <c r="E17" s="37"/>
       <c r="F17" s="37"/>
@@ -4485,17 +4477,16 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="12">
-        <v>14</v>
-      </c>
-      <c r="B18" s="41" t="str">
-        <f>ReactionList!A14</f>
-        <v>PDK1_p+_AKT2_[(T309)]</v>
+        <v>11</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>100</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="53" t="s">
-        <v>103</v>
+        <v>101</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>99</v>
       </c>
       <c r="E18" s="37"/>
       <c r="F18" s="37"/>
@@ -4503,17 +4494,16 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="12">
-        <v>15</v>
-      </c>
-      <c r="B19" s="41" t="str">
-        <f>ReactionList!A15</f>
-        <v>mTORC2_p+_AKT2_[(S474)]</v>
+        <v>12</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>100</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="53" t="s">
-        <v>103</v>
+        <v>101</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>98</v>
       </c>
       <c r="E19" s="37"/>
       <c r="F19" s="37"/>
@@ -4521,17 +4511,16 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="12">
-        <v>16</v>
-      </c>
-      <c r="B20" s="41" t="str">
-        <f>ReactionList!A18</f>
-        <v>AKT2_p+_TSC2_[(Ser939)]</v>
+        <v>13</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>100</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="53" t="s">
-        <v>104</v>
+        <v>101</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>102</v>
       </c>
       <c r="E20" s="37"/>
       <c r="F20" s="37"/>
@@ -4539,17 +4528,17 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="12">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B21" s="41" t="str">
-        <f>ReactionList!A19</f>
-        <v>AKT2_p+_TSC2_[(Thr1462)]</v>
+        <f>ReactionList!A14</f>
+        <v>PDK1_p+_AKT2_[(T309)]</v>
       </c>
       <c r="C21" s="41" t="s">
         <v>87</v>
       </c>
       <c r="D21" s="53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E21" s="37"/>
       <c r="F21" s="37"/>
@@ -4557,17 +4546,17 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="12">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B22" s="41" t="str">
-        <f>ReactionList!A20</f>
-        <v>AKT2_p+_TSC2_[(Ser981)]</v>
+        <f>ReactionList!A15</f>
+        <v>mTORC2_p+_AKT2_[(S474)]</v>
       </c>
       <c r="C22" s="41" t="s">
         <v>87</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E22" s="37"/>
       <c r="F22" s="37"/>
@@ -4575,11 +4564,11 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="12">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B23" s="41" t="str">
-        <f>ReactionList!A21</f>
-        <v>AKT2_p+_TSC2_[(Ser1130)]</v>
+        <f>ReactionList!A18</f>
+        <v>AKT2_p+_TSC2_[(Ser939)]</v>
       </c>
       <c r="C23" s="41" t="s">
         <v>87</v>
@@ -4592,102 +4581,103 @@
       <c r="G23" s="33"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="12"/>
-      <c r="B24" s="61" t="str">
-        <f>ReactionList!A22</f>
-        <v>AKT2_p+_PPM1G_[(AKT2)]</v>
-      </c>
-      <c r="C24" s="61" t="s">
+      <c r="A24" s="12">
+        <v>17</v>
+      </c>
+      <c r="B24" s="41" t="str">
+        <f>ReactionList!A19</f>
+        <v>AKT2_p+_TSC2_[(Thr1462)]</v>
+      </c>
+      <c r="C24" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="63" t="s">
+      <c r="D24" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="36"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="33"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="12"/>
-      <c r="B25" s="61" t="str">
-        <f>ReactionList!A23</f>
-        <v>un_p-_PPM1G_[(AKT2)]</v>
-      </c>
-      <c r="C25" s="61" t="s">
-        <v>110</v>
-      </c>
-      <c r="D25" s="63" t="s">
+      <c r="A25" s="12">
+        <v>18</v>
+      </c>
+      <c r="B25" s="41" t="str">
+        <f>ReactionList!A20</f>
+        <v>AKT2_p+_TSC2_[(Ser981)]</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="36"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="12">
-        <v>20</v>
-      </c>
-      <c r="B26" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="41" t="str">
+        <f>ReactionList!A21</f>
+        <v>AKT2_p+_TSC2_[(Ser1130)]</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="53" t="s">
         <v>104</v>
-      </c>
-      <c r="C26" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="D26" s="53" t="s">
-        <v>105</v>
       </c>
       <c r="E26" s="37"/>
       <c r="F26" s="37"/>
       <c r="G26" s="33"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="12">
-        <v>21</v>
-      </c>
-      <c r="B27" s="53" t="s">
+      <c r="A27" s="12"/>
+      <c r="B27" s="61" t="str">
+        <f>ReactionList!A22</f>
+        <v>AKT2_p+_PPM1G_[(AKT2)]</v>
+      </c>
+      <c r="C27" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="D27" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="33"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="36"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="12">
-        <v>23</v>
-      </c>
-      <c r="B28" s="42" t="str">
-        <f>ReactionList!A32</f>
-        <v>RHEB_[switch1]_ppi_mTOR_[Mheatmα2mα3mα4]</v>
-      </c>
-      <c r="C28" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="33"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="61" t="str">
+        <f>ReactionList!A23</f>
+        <v>un_p-_PPM1G_[(AKT2)]</v>
+      </c>
+      <c r="C28" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="34"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="36"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="12">
-        <v>24</v>
-      </c>
-      <c r="B29" s="42" t="str">
-        <f>ReactionList!A33</f>
-        <v>RHEB_[switch2GQDEYSIFPQTYSIDIN]_ppi_mTOR_[Nheatnα3tonα7]</v>
-      </c>
-      <c r="C29" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" s="42" t="s">
-        <v>107</v>
+        <v>20</v>
+      </c>
+      <c r="B29" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="53" t="s">
+        <v>105</v>
       </c>
       <c r="E29" s="37"/>
       <c r="F29" s="37"/>
@@ -4695,17 +4685,16 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="12">
-        <v>25</v>
-      </c>
-      <c r="B30" s="44" t="str">
-        <f>ReactionList!A34</f>
-        <v>RHEB_[switch1DSYDPTIEN]_ppi_mTOR_[FATfα2fα3]</v>
-      </c>
-      <c r="C30" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="D30" s="42" t="s">
-        <v>107</v>
+        <v>21</v>
+      </c>
+      <c r="B30" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="53" t="s">
+        <v>106</v>
       </c>
       <c r="E30" s="37"/>
       <c r="F30" s="37"/>
@@ -4713,16 +4702,17 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="12">
-        <v>26</v>
-      </c>
-      <c r="B31" s="44" t="s">
-        <v>108</v>
+        <v>23</v>
+      </c>
+      <c r="B31" s="42" t="str">
+        <f>ReactionList!A32</f>
+        <v>RHEB_[switch1]_ppi_mTOR_[Mheatmα2mα3mα4]</v>
       </c>
       <c r="C31" s="55" t="s">
         <v>87</v>
       </c>
       <c r="D31" s="42" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E31" s="37"/>
       <c r="F31" s="37"/>
@@ -4730,39 +4720,35 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="12">
-        <v>27</v>
-      </c>
-      <c r="B32" s="44" t="str">
-        <f>ReactionList!A28</f>
-        <v>TSC1_[Cterminus]_ppi+_TSC2_[Nterminus]</v>
+        <v>24</v>
+      </c>
+      <c r="B32" s="42" t="str">
+        <f>ReactionList!A33</f>
+        <v>RHEB_[switch2GQDEYSIFPQTYSIDIN]_ppi_mTOR_[Nheatnα3tonα7]</v>
       </c>
       <c r="C32" s="55" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="D32" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E32" s="37" t="s">
-        <v>112</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="E32" s="37"/>
       <c r="F32" s="37"/>
-      <c r="G32" s="33" t="s">
-        <v>113</v>
-      </c>
+      <c r="G32" s="33"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="12">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B33" s="44" t="str">
-        <f>ReactionList!A29</f>
-        <v>TSC1_[Cterminus]_ppi-_TSC2_[Nterminus]</v>
+        <f>ReactionList!A34</f>
+        <v>RHEB_[switch1DSYDPTIEN]_ppi_mTOR_[FATfα2fα3]</v>
       </c>
       <c r="C33" s="55" t="s">
         <v>87</v>
       </c>
       <c r="D33" s="42" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E33" s="37"/>
       <c r="F33" s="37"/>
@@ -4770,17 +4756,16 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="12">
-        <v>29</v>
-      </c>
-      <c r="B34" s="44" t="str">
-        <f>ReactionList!A30</f>
-        <v>GTP_gef_RHEB_[(G)]</v>
+        <v>26</v>
+      </c>
+      <c r="B34" s="44" t="s">
+        <v>108</v>
       </c>
       <c r="C34" s="55" t="s">
         <v>87</v>
       </c>
       <c r="D34" s="42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E34" s="37"/>
       <c r="F34" s="37"/>
@@ -4788,33 +4773,39 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="12">
-        <v>30</v>
-      </c>
-      <c r="B35" s="44" t="s">
-        <v>114</v>
+        <v>27</v>
+      </c>
+      <c r="B35" s="44" t="str">
+        <f>ReactionList!A28</f>
+        <v>TSC1_[Cterminus]_ppi+_TSC2_[Nterminus]</v>
       </c>
       <c r="C35" s="55" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D35" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="E35" s="37"/>
+        <v>111</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>112</v>
+      </c>
       <c r="F35" s="37"/>
-      <c r="G35" s="33"/>
+      <c r="G35" s="33" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="12">
-        <v>31</v>
-      </c>
-      <c r="B36" s="44" t="s">
-        <v>114</v>
+        <v>28</v>
+      </c>
+      <c r="B36" s="44" t="str">
+        <f>ReactionList!A29</f>
+        <v>TSC1_[Cterminus]_ppi-_TSC2_[Nterminus]</v>
       </c>
       <c r="C36" s="55" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D36" s="42" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E36" s="37"/>
       <c r="F36" s="37"/>
@@ -4822,16 +4813,17 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="12">
-        <v>32</v>
-      </c>
-      <c r="B37" s="44" t="s">
-        <v>114</v>
+        <v>29</v>
+      </c>
+      <c r="B37" s="44" t="str">
+        <f>ReactionList!A30</f>
+        <v>GTP_gef_RHEB_[(G)]</v>
       </c>
       <c r="C37" s="55" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D37" s="42" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E37" s="37"/>
       <c r="F37" s="37"/>
@@ -4839,7 +4831,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="12">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B38" s="44" t="s">
         <v>114</v>
@@ -4848,7 +4840,7 @@
         <v>101</v>
       </c>
       <c r="D38" s="42" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E38" s="37"/>
       <c r="F38" s="37"/>
@@ -4856,59 +4848,50 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="12">
-        <v>34</v>
-      </c>
-      <c r="B39" s="38" t="str">
-        <f>ReactionList!A35</f>
-        <v>mTOR_ppi+_Raptor</v>
-      </c>
-      <c r="C39" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="D39" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="E39" s="37" t="s">
-        <v>120</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B39" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="E39" s="37"/>
       <c r="F39" s="37"/>
-      <c r="G39" s="33" t="s">
-        <v>121</v>
-      </c>
+      <c r="G39" s="33"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="12">
-        <v>35</v>
-      </c>
-      <c r="B40" s="38" t="str">
-        <f>ReactionList!A35</f>
-        <v>mTOR_ppi+_Raptor</v>
-      </c>
-      <c r="C40" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="D40" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="E40" s="37" t="s">
-        <v>120</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B40" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" s="37"/>
       <c r="F40" s="37"/>
       <c r="G40" s="33"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="12">
-        <v>39</v>
-      </c>
-      <c r="B41" s="57" t="str">
-        <f>ReactionList!A38</f>
-        <v>mTORC1_p+_EIF4EBP1_[(Thr37)]</v>
-      </c>
-      <c r="C41" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="D41" s="32" t="s">
-        <v>123</v>
+        <v>33</v>
+      </c>
+      <c r="B41" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" s="42" t="s">
+        <v>118</v>
       </c>
       <c r="E41" s="37"/>
       <c r="F41" s="37"/>
@@ -4916,43 +4899,53 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="12">
-        <v>40</v>
-      </c>
-      <c r="B42" s="57" t="str">
-        <f>ReactionList!A39</f>
-        <v>mTORC1_p+_EIF4EBP1_[(Thr46)]</v>
-      </c>
-      <c r="C42" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="38" t="str">
+        <f>ReactionList!A35</f>
+        <v>mTOR_ppi+_Raptor</v>
+      </c>
+      <c r="C42" s="38" t="s">
         <v>87</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="E42" s="37"/>
+        <v>119</v>
+      </c>
+      <c r="E42" s="37" t="s">
+        <v>120</v>
+      </c>
       <c r="F42" s="37"/>
-      <c r="G42" s="33"/>
+      <c r="G42" s="33" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="12"/>
-      <c r="B43" s="57" t="str">
-        <f>ReactionList!A40</f>
-        <v>mTORC1_p+_EIF4EBP1_[(Ser65)]</v>
-      </c>
-      <c r="C43" s="57" t="s">
+      <c r="A43" s="12">
+        <v>35</v>
+      </c>
+      <c r="B43" s="38" t="str">
+        <f>ReactionList!A35</f>
+        <v>mTOR_ppi+_Raptor</v>
+      </c>
+      <c r="C43" s="38" t="s">
         <v>87</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="E43" s="37"/>
+        <v>122</v>
+      </c>
+      <c r="E43" s="37" t="s">
+        <v>120</v>
+      </c>
       <c r="F43" s="37"/>
       <c r="G43" s="33"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="12"/>
+      <c r="A44" s="12">
+        <v>39</v>
+      </c>
       <c r="B44" s="57" t="str">
-        <f>ReactionList!A41</f>
-        <v>mTORC1_p+_EIF4EBP1_[(Thr70)]</v>
+        <f>ReactionList!A38</f>
+        <v>mTORC1_p+_EIF4EBP1_[(Thr37)]</v>
       </c>
       <c r="C44" s="57" t="s">
         <v>87</v>
@@ -4965,15 +4958,18 @@
       <c r="G44" s="33"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="12"/>
-      <c r="B45" s="32" t="s">
+      <c r="A45" s="12">
+        <v>40</v>
+      </c>
+      <c r="B45" s="57" t="str">
+        <f>ReactionList!A39</f>
+        <v>mTORC1_p+_EIF4EBP1_[(Thr46)]</v>
+      </c>
+      <c r="C45" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" s="32" t="s">
         <v>123</v>
-      </c>
-      <c r="C45" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="D45" s="32" t="s">
-        <v>124</v>
       </c>
       <c r="E45" s="37"/>
       <c r="F45" s="37"/>
@@ -4981,14 +4977,15 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="12"/>
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="57" t="str">
+        <f>ReactionList!A40</f>
+        <v>mTORC1_p+_EIF4EBP1_[(Ser65)]</v>
+      </c>
+      <c r="C46" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" s="32" t="s">
         <v>123</v>
-      </c>
-      <c r="C46" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="D46" s="46" t="s">
-        <v>125</v>
       </c>
       <c r="E46" s="37"/>
       <c r="F46" s="37"/>
@@ -4996,14 +4993,15 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="12"/>
-      <c r="B47" s="32" t="s">
+      <c r="B47" s="57" t="str">
+        <f>ReactionList!A41</f>
+        <v>mTORC1_p+_EIF4EBP1_[(Thr70)]</v>
+      </c>
+      <c r="C47" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" s="32" t="s">
         <v>123</v>
-      </c>
-      <c r="C47" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="D47" s="46" t="s">
-        <v>126</v>
       </c>
       <c r="E47" s="37"/>
       <c r="F47" s="37"/>
@@ -5017,178 +5015,169 @@
       <c r="C48" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="D48" s="43" t="s">
-        <v>127</v>
+      <c r="D48" s="32" t="s">
+        <v>124</v>
       </c>
       <c r="E48" s="37"/>
       <c r="F48" s="37"/>
       <c r="G48" s="33"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="12">
+      <c r="A49" s="12"/>
+      <c r="B49" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="33"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="12"/>
+      <c r="B50" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="D50" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="33"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="12"/>
+      <c r="B51" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="33"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="12">
         <v>41</v>
       </c>
-      <c r="B49" s="35" t="str">
+      <c r="B52" s="35" t="str">
         <f>ReactionList!A41</f>
         <v>mTORC1_p+_EIF4EBP1_[(Thr70)]</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="C52" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D49" s="40" t="s">
+      <c r="D52" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="E49" s="34" t="s">
+      <c r="E52" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="F49" s="51"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="1" t="str">
+      <c r="F52" s="51"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="1" t="str">
         <f>""</f>
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="12">
+    <row r="53" spans="1:8">
+      <c r="A53" s="12">
         <v>42</v>
       </c>
-      <c r="B50" s="35" t="str">
+      <c r="B53" s="35" t="str">
         <f>ReactionList!A41</f>
         <v>mTORC1_p+_EIF4EBP1_[(Thr70)]</v>
       </c>
-      <c r="C50" s="35" t="s">
+      <c r="C53" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D50" s="40" t="s">
+      <c r="D53" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="E50" s="34" t="s">
+      <c r="E53" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="F50" s="51"/>
-      <c r="G50" s="36"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="12">
+      <c r="F53" s="51"/>
+      <c r="G53" s="36"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="12">
         <v>43</v>
       </c>
-      <c r="B51" s="35" t="str">
+      <c r="B54" s="35" t="str">
         <f>ReactionList!A40</f>
         <v>mTORC1_p+_EIF4EBP1_[(Ser65)]</v>
       </c>
-      <c r="C51" s="35" t="s">
+      <c r="C54" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D51" s="40" t="s">
+      <c r="D54" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="E51" s="34" t="s">
+      <c r="E54" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="F51" s="51"/>
-      <c r="G51" s="36"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="12">
+      <c r="F54" s="51"/>
+      <c r="G54" s="36"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="12">
         <v>44</v>
       </c>
-      <c r="B52" s="35" t="str">
+      <c r="B55" s="35" t="str">
         <f>ReactionList!A40</f>
         <v>mTORC1_p+_EIF4EBP1_[(Ser65)]</v>
       </c>
-      <c r="C52" s="35" t="s">
+      <c r="C55" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D52" s="40" t="s">
+      <c r="D55" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="E52" s="34" t="s">
+      <c r="E55" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="F52" s="51"/>
-      <c r="G52" s="36"/>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="12">
+      <c r="F55" s="51"/>
+      <c r="G55" s="36"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="12">
         <v>45</v>
       </c>
-      <c r="B53" s="35" t="str">
+      <c r="B56" s="35" t="str">
         <f>ReactionList!A40</f>
         <v>mTORC1_p+_EIF4EBP1_[(Ser65)]</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="C56" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D53" s="40" t="s">
+      <c r="D56" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="E53" s="34" t="s">
+      <c r="E56" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="F53" s="51"/>
-      <c r="G53" s="36"/>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="12">
+      <c r="F56" s="51"/>
+      <c r="G56" s="36"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="12">
         <v>46</v>
       </c>
-      <c r="B54" s="35" t="str">
+      <c r="B57" s="35" t="str">
         <f>ReactionList!A38</f>
         <v>mTORC1_p+_EIF4EBP1_[(Thr37)]</v>
-      </c>
-      <c r="C54" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="D54" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="E54" s="34"/>
-      <c r="F54" s="51"/>
-      <c r="G54" s="36"/>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="12">
-        <v>47</v>
-      </c>
-      <c r="B55" s="35" t="str">
-        <f>ReactionList!A39</f>
-        <v>mTORC1_p+_EIF4EBP1_[(Thr46)]</v>
-      </c>
-      <c r="C55" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="D55" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="E55" s="34"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="36"/>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="12">
-        <v>48</v>
-      </c>
-      <c r="B56" s="35" t="str">
-        <f>ReactionList!A41</f>
-        <v>mTORC1_p+_EIF4EBP1_[(Thr70)]</v>
-      </c>
-      <c r="C56" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="D56" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="E56" s="34"/>
-      <c r="F56" s="51"/>
-      <c r="G56" s="36"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="12">
-        <v>49</v>
-      </c>
-      <c r="B57" s="35" t="str">
-        <f>ReactionList!A40</f>
-        <v>mTORC1_p+_EIF4EBP1_[(Ser65)]</v>
       </c>
       <c r="C57" s="35" t="s">
         <v>87</v>
@@ -5201,135 +5190,144 @@
       <c r="G57" s="36"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="12"/>
-      <c r="B58" s="61" t="str">
-        <f>ReactionList!A42</f>
-        <v>PPM1G_p-_EIF4EBP1_[(Thr37)]</v>
-      </c>
-      <c r="C58" s="61" t="s">
-        <v>110</v>
-      </c>
-      <c r="D58" s="62" t="s">
-        <v>242</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>244</v>
-      </c>
+      <c r="A58" s="12">
+        <v>47</v>
+      </c>
+      <c r="B58" s="35" t="str">
+        <f>ReactionList!A39</f>
+        <v>mTORC1_p+_EIF4EBP1_[(Thr46)]</v>
+      </c>
+      <c r="C58" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D58" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="E58" s="34"/>
       <c r="F58" s="51"/>
       <c r="G58" s="36"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="12"/>
-      <c r="B59" s="61" t="str">
-        <f>ReactionList!A43</f>
-        <v>PPM1G_p-_EIF4EBP1_[(Thr46)]</v>
-      </c>
-      <c r="C59" s="61" t="s">
-        <v>110</v>
-      </c>
-      <c r="D59" s="62" t="s">
-        <v>242</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>244</v>
-      </c>
+      <c r="A59" s="12">
+        <v>48</v>
+      </c>
+      <c r="B59" s="35" t="str">
+        <f>ReactionList!A41</f>
+        <v>mTORC1_p+_EIF4EBP1_[(Thr70)]</v>
+      </c>
+      <c r="C59" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D59" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="E59" s="34"/>
       <c r="F59" s="51"/>
       <c r="G59" s="36"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="12"/>
-      <c r="B60" s="61" t="str">
-        <f>ReactionList!A44</f>
-        <v>PPM1G_p-_EIF4EBP1_[(Ser65)]</v>
-      </c>
-      <c r="C60" s="61" t="s">
-        <v>110</v>
-      </c>
-      <c r="D60" s="62" t="s">
-        <v>242</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>244</v>
-      </c>
+      <c r="A60" s="12">
+        <v>49</v>
+      </c>
+      <c r="B60" s="35" t="str">
+        <f>ReactionList!A40</f>
+        <v>mTORC1_p+_EIF4EBP1_[(Ser65)]</v>
+      </c>
+      <c r="C60" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D60" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="E60" s="34"/>
       <c r="F60" s="51"/>
       <c r="G60" s="36"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="12"/>
       <c r="B61" s="61" t="str">
+        <f>ReactionList!A42</f>
+        <v>PPM1G_p-_EIF4EBP1_[(Thr37)]</v>
+      </c>
+      <c r="C61" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="D61" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="F61" s="51"/>
+      <c r="G61" s="36"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="12"/>
+      <c r="B62" s="61" t="str">
+        <f>ReactionList!A43</f>
+        <v>PPM1G_p-_EIF4EBP1_[(Thr46)]</v>
+      </c>
+      <c r="C62" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="D62" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F62" s="51"/>
+      <c r="G62" s="36"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="12"/>
+      <c r="B63" s="61" t="str">
+        <f>ReactionList!A44</f>
+        <v>PPM1G_p-_EIF4EBP1_[(Ser65)]</v>
+      </c>
+      <c r="C63" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="D63" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F63" s="51"/>
+      <c r="G63" s="36"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="12"/>
+      <c r="B64" s="61" t="str">
         <f>ReactionList!A45</f>
         <v>PPM1G_p-_EIF4EBP1_[(Thr70)]</v>
       </c>
-      <c r="C61" s="61" t="s">
+      <c r="C64" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="D61" s="62" t="s">
+      <c r="D64" s="62" t="s">
         <v>242</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E64" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="F61" s="51"/>
-      <c r="G61" s="36"/>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="12">
+      <c r="F64" s="51"/>
+      <c r="G64" s="36"/>
+    </row>
+    <row r="65" spans="1:256">
+      <c r="A65" s="12">
         <v>54</v>
       </c>
-      <c r="B62" s="30" t="str">
+      <c r="B65" s="30" t="str">
         <f>ReactionList!A37</f>
         <v>eIF4E_[A001]_ppi-_EIF4EBP1_[A001]</v>
       </c>
-      <c r="C62" s="30" t="s">
+      <c r="C65" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="D62" s="47" t="s">
+      <c r="D65" s="47" t="s">
         <v>133</v>
-      </c>
-      <c r="E62" s="34"/>
-      <c r="F62" s="51"/>
-      <c r="G62" s="36"/>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="12"/>
-      <c r="B63" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="C63" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="D63" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="E63" s="34"/>
-      <c r="F63" s="51"/>
-      <c r="G63" s="36"/>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="12"/>
-      <c r="B64" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="C64" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="D64" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="E64" s="34"/>
-      <c r="F64" s="51"/>
-      <c r="G64" s="36"/>
-    </row>
-    <row r="65" spans="1:256">
-      <c r="A65" s="12"/>
-      <c r="B65" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="C65" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="D65" s="29" t="s">
-        <v>137</v>
       </c>
       <c r="E65" s="34"/>
       <c r="F65" s="51"/>
@@ -5337,14 +5335,14 @@
     </row>
     <row r="66" spans="1:256">
       <c r="A66" s="12"/>
-      <c r="B66" s="48" t="s">
+      <c r="B66" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="C66" s="48" t="s">
+      <c r="C66" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="D66" s="29" t="s">
-        <v>138</v>
+      <c r="D66" s="31" t="s">
+        <v>135</v>
       </c>
       <c r="E66" s="34"/>
       <c r="F66" s="51"/>
@@ -5352,41 +5350,36 @@
     </row>
     <row r="67" spans="1:256">
       <c r="A67" s="12"/>
-      <c r="B67" s="30" t="str">
-        <f>ReactionList!A46</f>
-        <v>eIF4E_[A001]_ppi_eIF4G_[A002]</v>
-      </c>
-      <c r="C67" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="D67" s="47" t="s">
-        <v>133</v>
+      <c r="B67" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="D67" s="29" t="s">
+        <v>136</v>
       </c>
       <c r="E67" s="34"/>
       <c r="F67" s="51"/>
       <c r="G67" s="36"/>
     </row>
     <row r="68" spans="1:256">
-      <c r="A68" s="12">
-        <v>55</v>
-      </c>
-      <c r="B68" s="56" t="s">
+      <c r="A68" s="12"/>
+      <c r="B68" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="C68" s="56" t="s">
+      <c r="C68" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="D68" s="31" t="s">
-        <v>135</v>
+      <c r="D68" s="29" t="s">
+        <v>137</v>
       </c>
       <c r="E68" s="34"/>
       <c r="F68" s="51"/>
       <c r="G68" s="36"/>
     </row>
     <row r="69" spans="1:256">
-      <c r="A69" s="12">
-        <v>56</v>
-      </c>
+      <c r="A69" s="12"/>
       <c r="B69" s="48" t="s">
         <v>134</v>
       </c>
@@ -5394,24 +5387,23 @@
         <v>101</v>
       </c>
       <c r="D69" s="29" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E69" s="34"/>
       <c r="F69" s="51"/>
       <c r="G69" s="36"/>
     </row>
     <row r="70" spans="1:256">
-      <c r="A70" s="12">
-        <v>57</v>
-      </c>
-      <c r="B70" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="C70" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="D70" s="29" t="s">
-        <v>137</v>
+      <c r="A70" s="12"/>
+      <c r="B70" s="30" t="str">
+        <f>ReactionList!A46</f>
+        <v>eIF4E_[A001]_ppi_eIF4G_[A002]</v>
+      </c>
+      <c r="C70" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D70" s="47" t="s">
+        <v>133</v>
       </c>
       <c r="E70" s="34"/>
       <c r="F70" s="51"/>
@@ -5419,885 +5411,141 @@
     </row>
     <row r="71" spans="1:256">
       <c r="A71" s="12">
+        <v>55</v>
+      </c>
+      <c r="B71" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C71" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="D71" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="E71" s="34"/>
+      <c r="F71" s="51"/>
+      <c r="G71" s="36"/>
+    </row>
+    <row r="72" spans="1:256">
+      <c r="A72" s="12">
+        <v>56</v>
+      </c>
+      <c r="B72" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="C72" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="D72" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="E72" s="34"/>
+      <c r="F72" s="51"/>
+      <c r="G72" s="36"/>
+    </row>
+    <row r="73" spans="1:256">
+      <c r="A73" s="12">
+        <v>57</v>
+      </c>
+      <c r="B73" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="C73" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="D73" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="E73" s="34"/>
+      <c r="F73" s="51"/>
+      <c r="G73" s="36"/>
+    </row>
+    <row r="74" spans="1:256">
+      <c r="A74" s="12">
         <v>58</v>
       </c>
-      <c r="B71" s="48" t="s">
+      <c r="B74" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="C71" s="48" t="s">
+      <c r="C74" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="D71" s="29" t="s">
+      <c r="D74" s="29" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="1:256">
-      <c r="A72" s="12"/>
-      <c r="B72" s="52" t="str">
+    <row r="75" spans="1:256">
+      <c r="A75" s="12"/>
+      <c r="B75" s="52" t="str">
         <f>ReactionList!A36</f>
         <v>eIF4E_[A001]_ppi+_EIF4EBP1_[A001]</v>
       </c>
-      <c r="C72" s="49" t="s">
+      <c r="C75" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="D72" s="47" t="s">
+      <c r="D75" s="47" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="73" spans="1:256">
-      <c r="A73" s="12"/>
-      <c r="B73" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="C73" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="D73" s="31" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="74" spans="1:256">
-      <c r="A74" s="12"/>
-      <c r="B74" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="C74" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="D74" s="29" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="75" spans="1:256">
-      <c r="A75" s="12"/>
-      <c r="B75" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="C75" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="D75" s="29" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="76" spans="1:256">
       <c r="A76" s="12"/>
-      <c r="B76" s="48" t="s">
+      <c r="B76" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="C76" s="48" t="s">
+      <c r="C76" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="D76" s="29" t="s">
-        <v>138</v>
+      <c r="D76" s="31" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="77" spans="1:256">
       <c r="A77" s="12"/>
-      <c r="B77" s="48" t="str">
-        <f>ReactionList!A36</f>
-        <v>eIF4E_[A001]_ppi+_EIF4EBP1_[A001]</v>
-      </c>
-      <c r="C77" s="45" t="s">
-        <v>87</v>
+      <c r="B77" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C77" s="48" t="s">
+        <v>101</v>
       </c>
       <c r="D77" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
-      <c r="M77" s="6"/>
-      <c r="N77" s="6"/>
-      <c r="O77" s="6"/>
-      <c r="P77" s="6"/>
-      <c r="Q77" s="6"/>
-      <c r="R77" s="6"/>
-      <c r="S77" s="6"/>
-      <c r="T77" s="6"/>
-      <c r="U77" s="6"/>
-      <c r="V77" s="6"/>
-      <c r="W77" s="6"/>
-      <c r="X77" s="6"/>
-      <c r="Y77" s="6"/>
-      <c r="Z77" s="6"/>
-      <c r="AA77" s="6"/>
-      <c r="AB77" s="6"/>
-      <c r="AC77" s="6"/>
-      <c r="AD77" s="6"/>
-      <c r="AE77" s="6"/>
-      <c r="AF77" s="6"/>
-      <c r="AG77" s="6"/>
-      <c r="AH77" s="6"/>
-      <c r="AI77" s="6"/>
-      <c r="AJ77" s="6"/>
-      <c r="AK77" s="6"/>
-      <c r="AL77" s="6"/>
-      <c r="AM77" s="6"/>
-      <c r="AN77" s="6"/>
-      <c r="AO77" s="6"/>
-      <c r="AP77" s="6"/>
-      <c r="AQ77" s="6"/>
-      <c r="AR77" s="6"/>
-      <c r="AS77" s="6"/>
-      <c r="AT77" s="6"/>
-      <c r="AU77" s="6"/>
-      <c r="AV77" s="6"/>
-      <c r="AW77" s="6"/>
-      <c r="AX77" s="6"/>
-      <c r="AY77" s="6"/>
-      <c r="AZ77" s="6"/>
-      <c r="BA77" s="6"/>
-      <c r="BB77" s="6"/>
-      <c r="BC77" s="6"/>
-      <c r="BD77" s="6"/>
-      <c r="BE77" s="6"/>
-      <c r="BF77" s="6"/>
-      <c r="BG77" s="6"/>
-      <c r="BH77" s="6"/>
-      <c r="BI77" s="6"/>
-      <c r="BJ77" s="6"/>
-      <c r="BK77" s="6"/>
-      <c r="BL77" s="6"/>
-      <c r="BM77" s="6"/>
-      <c r="BN77" s="6"/>
-      <c r="BO77" s="6"/>
-      <c r="BP77" s="6"/>
-      <c r="BQ77" s="6"/>
-      <c r="BR77" s="6"/>
-      <c r="BS77" s="6"/>
-      <c r="BT77" s="6"/>
-      <c r="BU77" s="6"/>
-      <c r="BV77" s="6"/>
-      <c r="BW77" s="6"/>
-      <c r="BX77" s="6"/>
-      <c r="BY77" s="6"/>
-      <c r="BZ77" s="6"/>
-      <c r="CA77" s="6"/>
-      <c r="CB77" s="6"/>
-      <c r="CC77" s="6"/>
-      <c r="CD77" s="6"/>
-      <c r="CE77" s="6"/>
-      <c r="CF77" s="6"/>
-      <c r="CG77" s="6"/>
-      <c r="CH77" s="6"/>
-      <c r="CI77" s="6"/>
-      <c r="CJ77" s="6"/>
-      <c r="CK77" s="6"/>
-      <c r="CL77" s="6"/>
-      <c r="CM77" s="6"/>
-      <c r="CN77" s="6"/>
-      <c r="CO77" s="6"/>
-      <c r="CP77" s="6"/>
-      <c r="CQ77" s="6"/>
-      <c r="CR77" s="6"/>
-      <c r="CS77" s="6"/>
-      <c r="CT77" s="6"/>
-      <c r="CU77" s="6"/>
-      <c r="CV77" s="6"/>
-      <c r="CW77" s="6"/>
-      <c r="CX77" s="6"/>
-      <c r="CY77" s="6"/>
-      <c r="CZ77" s="6"/>
-      <c r="DA77" s="6"/>
-      <c r="DB77" s="6"/>
-      <c r="DC77" s="6"/>
-      <c r="DD77" s="6"/>
-      <c r="DE77" s="6"/>
-      <c r="DF77" s="6"/>
-      <c r="DG77" s="6"/>
-      <c r="DH77" s="6"/>
-      <c r="DI77" s="6"/>
-      <c r="DJ77" s="6"/>
-      <c r="DK77" s="6"/>
-      <c r="DL77" s="6"/>
-      <c r="DM77" s="6"/>
-      <c r="DN77" s="6"/>
-      <c r="DO77" s="6"/>
-      <c r="DP77" s="6"/>
-      <c r="DQ77" s="6"/>
-      <c r="DR77" s="6"/>
-      <c r="DS77" s="6"/>
-      <c r="DT77" s="6"/>
-      <c r="DU77" s="6"/>
-      <c r="DV77" s="6"/>
-      <c r="DW77" s="6"/>
-      <c r="DX77" s="6"/>
-      <c r="DY77" s="6"/>
-      <c r="DZ77" s="6"/>
-      <c r="EA77" s="6"/>
-      <c r="EB77" s="6"/>
-      <c r="EC77" s="6"/>
-      <c r="ED77" s="6"/>
-      <c r="EE77" s="6"/>
-      <c r="EF77" s="6"/>
-      <c r="EG77" s="6"/>
-      <c r="EH77" s="6"/>
-      <c r="EI77" s="6"/>
-      <c r="EJ77" s="6"/>
-      <c r="EK77" s="6"/>
-      <c r="EL77" s="6"/>
-      <c r="EM77" s="6"/>
-      <c r="EN77" s="6"/>
-      <c r="EO77" s="6"/>
-      <c r="EP77" s="6"/>
-      <c r="EQ77" s="6"/>
-      <c r="ER77" s="6"/>
-      <c r="ES77" s="6"/>
-      <c r="ET77" s="6"/>
-      <c r="EU77" s="6"/>
-      <c r="EV77" s="6"/>
-      <c r="EW77" s="6"/>
-      <c r="EX77" s="6"/>
-      <c r="EY77" s="6"/>
-      <c r="EZ77" s="6"/>
-      <c r="FA77" s="6"/>
-      <c r="FB77" s="6"/>
-      <c r="FC77" s="6"/>
-      <c r="FD77" s="6"/>
-      <c r="FE77" s="6"/>
-      <c r="FF77" s="6"/>
-      <c r="FG77" s="6"/>
-      <c r="FH77" s="6"/>
-      <c r="FI77" s="6"/>
-      <c r="FJ77" s="6"/>
-      <c r="FK77" s="6"/>
-      <c r="FL77" s="6"/>
-      <c r="FM77" s="6"/>
-      <c r="FN77" s="6"/>
-      <c r="FO77" s="6"/>
-      <c r="FP77" s="6"/>
-      <c r="FQ77" s="6"/>
-      <c r="FR77" s="6"/>
-      <c r="FS77" s="6"/>
-      <c r="FT77" s="6"/>
-      <c r="FU77" s="6"/>
-      <c r="FV77" s="6"/>
-      <c r="FW77" s="6"/>
-      <c r="FX77" s="6"/>
-      <c r="FY77" s="6"/>
-      <c r="FZ77" s="6"/>
-      <c r="GA77" s="6"/>
-      <c r="GB77" s="6"/>
-      <c r="GC77" s="6"/>
-      <c r="GD77" s="6"/>
-      <c r="GE77" s="6"/>
-      <c r="GF77" s="6"/>
-      <c r="GG77" s="6"/>
-      <c r="GH77" s="6"/>
-      <c r="GI77" s="6"/>
-      <c r="GJ77" s="6"/>
-      <c r="GK77" s="6"/>
-      <c r="GL77" s="6"/>
-      <c r="GM77" s="6"/>
-      <c r="GN77" s="6"/>
-      <c r="GO77" s="6"/>
-      <c r="GP77" s="6"/>
-      <c r="GQ77" s="6"/>
-      <c r="GR77" s="6"/>
-      <c r="GS77" s="6"/>
-      <c r="GT77" s="6"/>
-      <c r="GU77" s="6"/>
-      <c r="GV77" s="6"/>
-      <c r="GW77" s="6"/>
-      <c r="GX77" s="6"/>
-      <c r="GY77" s="6"/>
-      <c r="GZ77" s="6"/>
-      <c r="HA77" s="6"/>
-      <c r="HB77" s="6"/>
-      <c r="HC77" s="6"/>
-      <c r="HD77" s="6"/>
-      <c r="HE77" s="6"/>
-      <c r="HF77" s="6"/>
-      <c r="HG77" s="6"/>
-      <c r="HH77" s="6"/>
-      <c r="HI77" s="6"/>
-      <c r="HJ77" s="6"/>
-      <c r="HK77" s="6"/>
-      <c r="HL77" s="6"/>
-      <c r="HM77" s="6"/>
-      <c r="HN77" s="6"/>
-      <c r="HO77" s="6"/>
-      <c r="HP77" s="6"/>
-      <c r="HQ77" s="6"/>
-      <c r="HR77" s="6"/>
-      <c r="HS77" s="6"/>
-      <c r="HT77" s="6"/>
-      <c r="HU77" s="6"/>
-      <c r="HV77" s="6"/>
-      <c r="HW77" s="6"/>
-      <c r="HX77" s="6"/>
-      <c r="HY77" s="6"/>
-      <c r="HZ77" s="6"/>
-      <c r="IA77" s="6"/>
-      <c r="IB77" s="6"/>
-      <c r="IC77" s="6"/>
-      <c r="ID77" s="6"/>
-      <c r="IE77" s="6"/>
-      <c r="IF77" s="6"/>
-      <c r="IG77" s="6"/>
-      <c r="IH77" s="6"/>
-      <c r="II77" s="6"/>
-      <c r="IJ77" s="6"/>
-      <c r="IK77" s="6"/>
-      <c r="IL77" s="6"/>
-      <c r="IM77" s="6"/>
-      <c r="IN77" s="6"/>
-      <c r="IO77" s="6"/>
-      <c r="IP77" s="6"/>
-      <c r="IQ77" s="6"/>
-      <c r="IR77" s="6"/>
-      <c r="IS77" s="6"/>
-      <c r="IT77" s="6"/>
-      <c r="IU77" s="6"/>
-      <c r="IV77" s="6"/>
+        <v>136</v>
+      </c>
     </row>
     <row r="78" spans="1:256">
       <c r="A78" s="12"/>
-      <c r="B78" s="48" t="str">
-        <f>ReactionList!A36</f>
-        <v>eIF4E_[A001]_ppi+_EIF4EBP1_[A001]</v>
-      </c>
-      <c r="C78" s="45" t="s">
-        <v>87</v>
+      <c r="B78" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="C78" s="48" t="s">
+        <v>101</v>
       </c>
       <c r="D78" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
-      <c r="M78" s="6"/>
-      <c r="N78" s="6"/>
-      <c r="O78" s="6"/>
-      <c r="P78" s="6"/>
-      <c r="Q78" s="6"/>
-      <c r="R78" s="6"/>
-      <c r="S78" s="6"/>
-      <c r="T78" s="6"/>
-      <c r="U78" s="6"/>
-      <c r="V78" s="6"/>
-      <c r="W78" s="6"/>
-      <c r="X78" s="6"/>
-      <c r="Y78" s="6"/>
-      <c r="Z78" s="6"/>
-      <c r="AA78" s="6"/>
-      <c r="AB78" s="6"/>
-      <c r="AC78" s="6"/>
-      <c r="AD78" s="6"/>
-      <c r="AE78" s="6"/>
-      <c r="AF78" s="6"/>
-      <c r="AG78" s="6"/>
-      <c r="AH78" s="6"/>
-      <c r="AI78" s="6"/>
-      <c r="AJ78" s="6"/>
-      <c r="AK78" s="6"/>
-      <c r="AL78" s="6"/>
-      <c r="AM78" s="6"/>
-      <c r="AN78" s="6"/>
-      <c r="AO78" s="6"/>
-      <c r="AP78" s="6"/>
-      <c r="AQ78" s="6"/>
-      <c r="AR78" s="6"/>
-      <c r="AS78" s="6"/>
-      <c r="AT78" s="6"/>
-      <c r="AU78" s="6"/>
-      <c r="AV78" s="6"/>
-      <c r="AW78" s="6"/>
-      <c r="AX78" s="6"/>
-      <c r="AY78" s="6"/>
-      <c r="AZ78" s="6"/>
-      <c r="BA78" s="6"/>
-      <c r="BB78" s="6"/>
-      <c r="BC78" s="6"/>
-      <c r="BD78" s="6"/>
-      <c r="BE78" s="6"/>
-      <c r="BF78" s="6"/>
-      <c r="BG78" s="6"/>
-      <c r="BH78" s="6"/>
-      <c r="BI78" s="6"/>
-      <c r="BJ78" s="6"/>
-      <c r="BK78" s="6"/>
-      <c r="BL78" s="6"/>
-      <c r="BM78" s="6"/>
-      <c r="BN78" s="6"/>
-      <c r="BO78" s="6"/>
-      <c r="BP78" s="6"/>
-      <c r="BQ78" s="6"/>
-      <c r="BR78" s="6"/>
-      <c r="BS78" s="6"/>
-      <c r="BT78" s="6"/>
-      <c r="BU78" s="6"/>
-      <c r="BV78" s="6"/>
-      <c r="BW78" s="6"/>
-      <c r="BX78" s="6"/>
-      <c r="BY78" s="6"/>
-      <c r="BZ78" s="6"/>
-      <c r="CA78" s="6"/>
-      <c r="CB78" s="6"/>
-      <c r="CC78" s="6"/>
-      <c r="CD78" s="6"/>
-      <c r="CE78" s="6"/>
-      <c r="CF78" s="6"/>
-      <c r="CG78" s="6"/>
-      <c r="CH78" s="6"/>
-      <c r="CI78" s="6"/>
-      <c r="CJ78" s="6"/>
-      <c r="CK78" s="6"/>
-      <c r="CL78" s="6"/>
-      <c r="CM78" s="6"/>
-      <c r="CN78" s="6"/>
-      <c r="CO78" s="6"/>
-      <c r="CP78" s="6"/>
-      <c r="CQ78" s="6"/>
-      <c r="CR78" s="6"/>
-      <c r="CS78" s="6"/>
-      <c r="CT78" s="6"/>
-      <c r="CU78" s="6"/>
-      <c r="CV78" s="6"/>
-      <c r="CW78" s="6"/>
-      <c r="CX78" s="6"/>
-      <c r="CY78" s="6"/>
-      <c r="CZ78" s="6"/>
-      <c r="DA78" s="6"/>
-      <c r="DB78" s="6"/>
-      <c r="DC78" s="6"/>
-      <c r="DD78" s="6"/>
-      <c r="DE78" s="6"/>
-      <c r="DF78" s="6"/>
-      <c r="DG78" s="6"/>
-      <c r="DH78" s="6"/>
-      <c r="DI78" s="6"/>
-      <c r="DJ78" s="6"/>
-      <c r="DK78" s="6"/>
-      <c r="DL78" s="6"/>
-      <c r="DM78" s="6"/>
-      <c r="DN78" s="6"/>
-      <c r="DO78" s="6"/>
-      <c r="DP78" s="6"/>
-      <c r="DQ78" s="6"/>
-      <c r="DR78" s="6"/>
-      <c r="DS78" s="6"/>
-      <c r="DT78" s="6"/>
-      <c r="DU78" s="6"/>
-      <c r="DV78" s="6"/>
-      <c r="DW78" s="6"/>
-      <c r="DX78" s="6"/>
-      <c r="DY78" s="6"/>
-      <c r="DZ78" s="6"/>
-      <c r="EA78" s="6"/>
-      <c r="EB78" s="6"/>
-      <c r="EC78" s="6"/>
-      <c r="ED78" s="6"/>
-      <c r="EE78" s="6"/>
-      <c r="EF78" s="6"/>
-      <c r="EG78" s="6"/>
-      <c r="EH78" s="6"/>
-      <c r="EI78" s="6"/>
-      <c r="EJ78" s="6"/>
-      <c r="EK78" s="6"/>
-      <c r="EL78" s="6"/>
-      <c r="EM78" s="6"/>
-      <c r="EN78" s="6"/>
-      <c r="EO78" s="6"/>
-      <c r="EP78" s="6"/>
-      <c r="EQ78" s="6"/>
-      <c r="ER78" s="6"/>
-      <c r="ES78" s="6"/>
-      <c r="ET78" s="6"/>
-      <c r="EU78" s="6"/>
-      <c r="EV78" s="6"/>
-      <c r="EW78" s="6"/>
-      <c r="EX78" s="6"/>
-      <c r="EY78" s="6"/>
-      <c r="EZ78" s="6"/>
-      <c r="FA78" s="6"/>
-      <c r="FB78" s="6"/>
-      <c r="FC78" s="6"/>
-      <c r="FD78" s="6"/>
-      <c r="FE78" s="6"/>
-      <c r="FF78" s="6"/>
-      <c r="FG78" s="6"/>
-      <c r="FH78" s="6"/>
-      <c r="FI78" s="6"/>
-      <c r="FJ78" s="6"/>
-      <c r="FK78" s="6"/>
-      <c r="FL78" s="6"/>
-      <c r="FM78" s="6"/>
-      <c r="FN78" s="6"/>
-      <c r="FO78" s="6"/>
-      <c r="FP78" s="6"/>
-      <c r="FQ78" s="6"/>
-      <c r="FR78" s="6"/>
-      <c r="FS78" s="6"/>
-      <c r="FT78" s="6"/>
-      <c r="FU78" s="6"/>
-      <c r="FV78" s="6"/>
-      <c r="FW78" s="6"/>
-      <c r="FX78" s="6"/>
-      <c r="FY78" s="6"/>
-      <c r="FZ78" s="6"/>
-      <c r="GA78" s="6"/>
-      <c r="GB78" s="6"/>
-      <c r="GC78" s="6"/>
-      <c r="GD78" s="6"/>
-      <c r="GE78" s="6"/>
-      <c r="GF78" s="6"/>
-      <c r="GG78" s="6"/>
-      <c r="GH78" s="6"/>
-      <c r="GI78" s="6"/>
-      <c r="GJ78" s="6"/>
-      <c r="GK78" s="6"/>
-      <c r="GL78" s="6"/>
-      <c r="GM78" s="6"/>
-      <c r="GN78" s="6"/>
-      <c r="GO78" s="6"/>
-      <c r="GP78" s="6"/>
-      <c r="GQ78" s="6"/>
-      <c r="GR78" s="6"/>
-      <c r="GS78" s="6"/>
-      <c r="GT78" s="6"/>
-      <c r="GU78" s="6"/>
-      <c r="GV78" s="6"/>
-      <c r="GW78" s="6"/>
-      <c r="GX78" s="6"/>
-      <c r="GY78" s="6"/>
-      <c r="GZ78" s="6"/>
-      <c r="HA78" s="6"/>
-      <c r="HB78" s="6"/>
-      <c r="HC78" s="6"/>
-      <c r="HD78" s="6"/>
-      <c r="HE78" s="6"/>
-      <c r="HF78" s="6"/>
-      <c r="HG78" s="6"/>
-      <c r="HH78" s="6"/>
-      <c r="HI78" s="6"/>
-      <c r="HJ78" s="6"/>
-      <c r="HK78" s="6"/>
-      <c r="HL78" s="6"/>
-      <c r="HM78" s="6"/>
-      <c r="HN78" s="6"/>
-      <c r="HO78" s="6"/>
-      <c r="HP78" s="6"/>
-      <c r="HQ78" s="6"/>
-      <c r="HR78" s="6"/>
-      <c r="HS78" s="6"/>
-      <c r="HT78" s="6"/>
-      <c r="HU78" s="6"/>
-      <c r="HV78" s="6"/>
-      <c r="HW78" s="6"/>
-      <c r="HX78" s="6"/>
-      <c r="HY78" s="6"/>
-      <c r="HZ78" s="6"/>
-      <c r="IA78" s="6"/>
-      <c r="IB78" s="6"/>
-      <c r="IC78" s="6"/>
-      <c r="ID78" s="6"/>
-      <c r="IE78" s="6"/>
-      <c r="IF78" s="6"/>
-      <c r="IG78" s="6"/>
-      <c r="IH78" s="6"/>
-      <c r="II78" s="6"/>
-      <c r="IJ78" s="6"/>
-      <c r="IK78" s="6"/>
-      <c r="IL78" s="6"/>
-      <c r="IM78" s="6"/>
-      <c r="IN78" s="6"/>
-      <c r="IO78" s="6"/>
-      <c r="IP78" s="6"/>
-      <c r="IQ78" s="6"/>
-      <c r="IR78" s="6"/>
-      <c r="IS78" s="6"/>
-      <c r="IT78" s="6"/>
-      <c r="IU78" s="6"/>
-      <c r="IV78" s="6"/>
+        <v>137</v>
+      </c>
     </row>
     <row r="79" spans="1:256">
       <c r="A79" s="12"/>
-      <c r="B79" s="48" t="str">
-        <f>ReactionList!A46</f>
-        <v>eIF4E_[A001]_ppi_eIF4G_[A002]</v>
-      </c>
-      <c r="C79" s="54" t="s">
-        <v>87</v>
+      <c r="B79" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="C79" s="48" t="s">
+        <v>101</v>
       </c>
       <c r="D79" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
-      <c r="L79" s="6"/>
-      <c r="M79" s="6"/>
-      <c r="N79" s="6"/>
-      <c r="O79" s="6"/>
-      <c r="P79" s="6"/>
-      <c r="Q79" s="6"/>
-      <c r="R79" s="6"/>
-      <c r="S79" s="6"/>
-      <c r="T79" s="6"/>
-      <c r="U79" s="6"/>
-      <c r="V79" s="6"/>
-      <c r="W79" s="6"/>
-      <c r="X79" s="6"/>
-      <c r="Y79" s="6"/>
-      <c r="Z79" s="6"/>
-      <c r="AA79" s="6"/>
-      <c r="AB79" s="6"/>
-      <c r="AC79" s="6"/>
-      <c r="AD79" s="6"/>
-      <c r="AE79" s="6"/>
-      <c r="AF79" s="6"/>
-      <c r="AG79" s="6"/>
-      <c r="AH79" s="6"/>
-      <c r="AI79" s="6"/>
-      <c r="AJ79" s="6"/>
-      <c r="AK79" s="6"/>
-      <c r="AL79" s="6"/>
-      <c r="AM79" s="6"/>
-      <c r="AN79" s="6"/>
-      <c r="AO79" s="6"/>
-      <c r="AP79" s="6"/>
-      <c r="AQ79" s="6"/>
-      <c r="AR79" s="6"/>
-      <c r="AS79" s="6"/>
-      <c r="AT79" s="6"/>
-      <c r="AU79" s="6"/>
-      <c r="AV79" s="6"/>
-      <c r="AW79" s="6"/>
-      <c r="AX79" s="6"/>
-      <c r="AY79" s="6"/>
-      <c r="AZ79" s="6"/>
-      <c r="BA79" s="6"/>
-      <c r="BB79" s="6"/>
-      <c r="BC79" s="6"/>
-      <c r="BD79" s="6"/>
-      <c r="BE79" s="6"/>
-      <c r="BF79" s="6"/>
-      <c r="BG79" s="6"/>
-      <c r="BH79" s="6"/>
-      <c r="BI79" s="6"/>
-      <c r="BJ79" s="6"/>
-      <c r="BK79" s="6"/>
-      <c r="BL79" s="6"/>
-      <c r="BM79" s="6"/>
-      <c r="BN79" s="6"/>
-      <c r="BO79" s="6"/>
-      <c r="BP79" s="6"/>
-      <c r="BQ79" s="6"/>
-      <c r="BR79" s="6"/>
-      <c r="BS79" s="6"/>
-      <c r="BT79" s="6"/>
-      <c r="BU79" s="6"/>
-      <c r="BV79" s="6"/>
-      <c r="BW79" s="6"/>
-      <c r="BX79" s="6"/>
-      <c r="BY79" s="6"/>
-      <c r="BZ79" s="6"/>
-      <c r="CA79" s="6"/>
-      <c r="CB79" s="6"/>
-      <c r="CC79" s="6"/>
-      <c r="CD79" s="6"/>
-      <c r="CE79" s="6"/>
-      <c r="CF79" s="6"/>
-      <c r="CG79" s="6"/>
-      <c r="CH79" s="6"/>
-      <c r="CI79" s="6"/>
-      <c r="CJ79" s="6"/>
-      <c r="CK79" s="6"/>
-      <c r="CL79" s="6"/>
-      <c r="CM79" s="6"/>
-      <c r="CN79" s="6"/>
-      <c r="CO79" s="6"/>
-      <c r="CP79" s="6"/>
-      <c r="CQ79" s="6"/>
-      <c r="CR79" s="6"/>
-      <c r="CS79" s="6"/>
-      <c r="CT79" s="6"/>
-      <c r="CU79" s="6"/>
-      <c r="CV79" s="6"/>
-      <c r="CW79" s="6"/>
-      <c r="CX79" s="6"/>
-      <c r="CY79" s="6"/>
-      <c r="CZ79" s="6"/>
-      <c r="DA79" s="6"/>
-      <c r="DB79" s="6"/>
-      <c r="DC79" s="6"/>
-      <c r="DD79" s="6"/>
-      <c r="DE79" s="6"/>
-      <c r="DF79" s="6"/>
-      <c r="DG79" s="6"/>
-      <c r="DH79" s="6"/>
-      <c r="DI79" s="6"/>
-      <c r="DJ79" s="6"/>
-      <c r="DK79" s="6"/>
-      <c r="DL79" s="6"/>
-      <c r="DM79" s="6"/>
-      <c r="DN79" s="6"/>
-      <c r="DO79" s="6"/>
-      <c r="DP79" s="6"/>
-      <c r="DQ79" s="6"/>
-      <c r="DR79" s="6"/>
-      <c r="DS79" s="6"/>
-      <c r="DT79" s="6"/>
-      <c r="DU79" s="6"/>
-      <c r="DV79" s="6"/>
-      <c r="DW79" s="6"/>
-      <c r="DX79" s="6"/>
-      <c r="DY79" s="6"/>
-      <c r="DZ79" s="6"/>
-      <c r="EA79" s="6"/>
-      <c r="EB79" s="6"/>
-      <c r="EC79" s="6"/>
-      <c r="ED79" s="6"/>
-      <c r="EE79" s="6"/>
-      <c r="EF79" s="6"/>
-      <c r="EG79" s="6"/>
-      <c r="EH79" s="6"/>
-      <c r="EI79" s="6"/>
-      <c r="EJ79" s="6"/>
-      <c r="EK79" s="6"/>
-      <c r="EL79" s="6"/>
-      <c r="EM79" s="6"/>
-      <c r="EN79" s="6"/>
-      <c r="EO79" s="6"/>
-      <c r="EP79" s="6"/>
-      <c r="EQ79" s="6"/>
-      <c r="ER79" s="6"/>
-      <c r="ES79" s="6"/>
-      <c r="ET79" s="6"/>
-      <c r="EU79" s="6"/>
-      <c r="EV79" s="6"/>
-      <c r="EW79" s="6"/>
-      <c r="EX79" s="6"/>
-      <c r="EY79" s="6"/>
-      <c r="EZ79" s="6"/>
-      <c r="FA79" s="6"/>
-      <c r="FB79" s="6"/>
-      <c r="FC79" s="6"/>
-      <c r="FD79" s="6"/>
-      <c r="FE79" s="6"/>
-      <c r="FF79" s="6"/>
-      <c r="FG79" s="6"/>
-      <c r="FH79" s="6"/>
-      <c r="FI79" s="6"/>
-      <c r="FJ79" s="6"/>
-      <c r="FK79" s="6"/>
-      <c r="FL79" s="6"/>
-      <c r="FM79" s="6"/>
-      <c r="FN79" s="6"/>
-      <c r="FO79" s="6"/>
-      <c r="FP79" s="6"/>
-      <c r="FQ79" s="6"/>
-      <c r="FR79" s="6"/>
-      <c r="FS79" s="6"/>
-      <c r="FT79" s="6"/>
-      <c r="FU79" s="6"/>
-      <c r="FV79" s="6"/>
-      <c r="FW79" s="6"/>
-      <c r="FX79" s="6"/>
-      <c r="FY79" s="6"/>
-      <c r="FZ79" s="6"/>
-      <c r="GA79" s="6"/>
-      <c r="GB79" s="6"/>
-      <c r="GC79" s="6"/>
-      <c r="GD79" s="6"/>
-      <c r="GE79" s="6"/>
-      <c r="GF79" s="6"/>
-      <c r="GG79" s="6"/>
-      <c r="GH79" s="6"/>
-      <c r="GI79" s="6"/>
-      <c r="GJ79" s="6"/>
-      <c r="GK79" s="6"/>
-      <c r="GL79" s="6"/>
-      <c r="GM79" s="6"/>
-      <c r="GN79" s="6"/>
-      <c r="GO79" s="6"/>
-      <c r="GP79" s="6"/>
-      <c r="GQ79" s="6"/>
-      <c r="GR79" s="6"/>
-      <c r="GS79" s="6"/>
-      <c r="GT79" s="6"/>
-      <c r="GU79" s="6"/>
-      <c r="GV79" s="6"/>
-      <c r="GW79" s="6"/>
-      <c r="GX79" s="6"/>
-      <c r="GY79" s="6"/>
-      <c r="GZ79" s="6"/>
-      <c r="HA79" s="6"/>
-      <c r="HB79" s="6"/>
-      <c r="HC79" s="6"/>
-      <c r="HD79" s="6"/>
-      <c r="HE79" s="6"/>
-      <c r="HF79" s="6"/>
-      <c r="HG79" s="6"/>
-      <c r="HH79" s="6"/>
-      <c r="HI79" s="6"/>
-      <c r="HJ79" s="6"/>
-      <c r="HK79" s="6"/>
-      <c r="HL79" s="6"/>
-      <c r="HM79" s="6"/>
-      <c r="HN79" s="6"/>
-      <c r="HO79" s="6"/>
-      <c r="HP79" s="6"/>
-      <c r="HQ79" s="6"/>
-      <c r="HR79" s="6"/>
-      <c r="HS79" s="6"/>
-      <c r="HT79" s="6"/>
-      <c r="HU79" s="6"/>
-      <c r="HV79" s="6"/>
-      <c r="HW79" s="6"/>
-      <c r="HX79" s="6"/>
-      <c r="HY79" s="6"/>
-      <c r="HZ79" s="6"/>
-      <c r="IA79" s="6"/>
-      <c r="IB79" s="6"/>
-      <c r="IC79" s="6"/>
-      <c r="ID79" s="6"/>
-      <c r="IE79" s="6"/>
-      <c r="IF79" s="6"/>
-      <c r="IG79" s="6"/>
-      <c r="IH79" s="6"/>
-      <c r="II79" s="6"/>
-      <c r="IJ79" s="6"/>
-      <c r="IK79" s="6"/>
-      <c r="IL79" s="6"/>
-      <c r="IM79" s="6"/>
-      <c r="IN79" s="6"/>
-      <c r="IO79" s="6"/>
-      <c r="IP79" s="6"/>
-      <c r="IQ79" s="6"/>
-      <c r="IR79" s="6"/>
-      <c r="IS79" s="6"/>
-      <c r="IT79" s="6"/>
-      <c r="IU79" s="6"/>
-      <c r="IV79" s="6"/>
+        <v>138</v>
+      </c>
     </row>
     <row r="80" spans="1:256">
       <c r="A80" s="12"/>
       <c r="B80" s="48" t="str">
-        <f>ReactionList!A46</f>
-        <v>eIF4E_[A001]_ppi_eIF4G_[A002]</v>
+        <f>ReactionList!A36</f>
+        <v>eIF4E_[A001]_ppi+_EIF4EBP1_[A001]</v>
       </c>
       <c r="C80" s="45" t="s">
         <v>87</v>
       </c>
       <c r="D80" s="29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
@@ -6552,71 +5800,857 @@
       <c r="IU80" s="6"/>
       <c r="IV80" s="6"/>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:256">
       <c r="A81" s="12"/>
       <c r="B81" s="48" t="str">
+        <f>ReactionList!A36</f>
+        <v>eIF4E_[A001]_ppi+_EIF4EBP1_[A001]</v>
+      </c>
+      <c r="C81" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="D81" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="6"/>
+      <c r="R81" s="6"/>
+      <c r="S81" s="6"/>
+      <c r="T81" s="6"/>
+      <c r="U81" s="6"/>
+      <c r="V81" s="6"/>
+      <c r="W81" s="6"/>
+      <c r="X81" s="6"/>
+      <c r="Y81" s="6"/>
+      <c r="Z81" s="6"/>
+      <c r="AA81" s="6"/>
+      <c r="AB81" s="6"/>
+      <c r="AC81" s="6"/>
+      <c r="AD81" s="6"/>
+      <c r="AE81" s="6"/>
+      <c r="AF81" s="6"/>
+      <c r="AG81" s="6"/>
+      <c r="AH81" s="6"/>
+      <c r="AI81" s="6"/>
+      <c r="AJ81" s="6"/>
+      <c r="AK81" s="6"/>
+      <c r="AL81" s="6"/>
+      <c r="AM81" s="6"/>
+      <c r="AN81" s="6"/>
+      <c r="AO81" s="6"/>
+      <c r="AP81" s="6"/>
+      <c r="AQ81" s="6"/>
+      <c r="AR81" s="6"/>
+      <c r="AS81" s="6"/>
+      <c r="AT81" s="6"/>
+      <c r="AU81" s="6"/>
+      <c r="AV81" s="6"/>
+      <c r="AW81" s="6"/>
+      <c r="AX81" s="6"/>
+      <c r="AY81" s="6"/>
+      <c r="AZ81" s="6"/>
+      <c r="BA81" s="6"/>
+      <c r="BB81" s="6"/>
+      <c r="BC81" s="6"/>
+      <c r="BD81" s="6"/>
+      <c r="BE81" s="6"/>
+      <c r="BF81" s="6"/>
+      <c r="BG81" s="6"/>
+      <c r="BH81" s="6"/>
+      <c r="BI81" s="6"/>
+      <c r="BJ81" s="6"/>
+      <c r="BK81" s="6"/>
+      <c r="BL81" s="6"/>
+      <c r="BM81" s="6"/>
+      <c r="BN81" s="6"/>
+      <c r="BO81" s="6"/>
+      <c r="BP81" s="6"/>
+      <c r="BQ81" s="6"/>
+      <c r="BR81" s="6"/>
+      <c r="BS81" s="6"/>
+      <c r="BT81" s="6"/>
+      <c r="BU81" s="6"/>
+      <c r="BV81" s="6"/>
+      <c r="BW81" s="6"/>
+      <c r="BX81" s="6"/>
+      <c r="BY81" s="6"/>
+      <c r="BZ81" s="6"/>
+      <c r="CA81" s="6"/>
+      <c r="CB81" s="6"/>
+      <c r="CC81" s="6"/>
+      <c r="CD81" s="6"/>
+      <c r="CE81" s="6"/>
+      <c r="CF81" s="6"/>
+      <c r="CG81" s="6"/>
+      <c r="CH81" s="6"/>
+      <c r="CI81" s="6"/>
+      <c r="CJ81" s="6"/>
+      <c r="CK81" s="6"/>
+      <c r="CL81" s="6"/>
+      <c r="CM81" s="6"/>
+      <c r="CN81" s="6"/>
+      <c r="CO81" s="6"/>
+      <c r="CP81" s="6"/>
+      <c r="CQ81" s="6"/>
+      <c r="CR81" s="6"/>
+      <c r="CS81" s="6"/>
+      <c r="CT81" s="6"/>
+      <c r="CU81" s="6"/>
+      <c r="CV81" s="6"/>
+      <c r="CW81" s="6"/>
+      <c r="CX81" s="6"/>
+      <c r="CY81" s="6"/>
+      <c r="CZ81" s="6"/>
+      <c r="DA81" s="6"/>
+      <c r="DB81" s="6"/>
+      <c r="DC81" s="6"/>
+      <c r="DD81" s="6"/>
+      <c r="DE81" s="6"/>
+      <c r="DF81" s="6"/>
+      <c r="DG81" s="6"/>
+      <c r="DH81" s="6"/>
+      <c r="DI81" s="6"/>
+      <c r="DJ81" s="6"/>
+      <c r="DK81" s="6"/>
+      <c r="DL81" s="6"/>
+      <c r="DM81" s="6"/>
+      <c r="DN81" s="6"/>
+      <c r="DO81" s="6"/>
+      <c r="DP81" s="6"/>
+      <c r="DQ81" s="6"/>
+      <c r="DR81" s="6"/>
+      <c r="DS81" s="6"/>
+      <c r="DT81" s="6"/>
+      <c r="DU81" s="6"/>
+      <c r="DV81" s="6"/>
+      <c r="DW81" s="6"/>
+      <c r="DX81" s="6"/>
+      <c r="DY81" s="6"/>
+      <c r="DZ81" s="6"/>
+      <c r="EA81" s="6"/>
+      <c r="EB81" s="6"/>
+      <c r="EC81" s="6"/>
+      <c r="ED81" s="6"/>
+      <c r="EE81" s="6"/>
+      <c r="EF81" s="6"/>
+      <c r="EG81" s="6"/>
+      <c r="EH81" s="6"/>
+      <c r="EI81" s="6"/>
+      <c r="EJ81" s="6"/>
+      <c r="EK81" s="6"/>
+      <c r="EL81" s="6"/>
+      <c r="EM81" s="6"/>
+      <c r="EN81" s="6"/>
+      <c r="EO81" s="6"/>
+      <c r="EP81" s="6"/>
+      <c r="EQ81" s="6"/>
+      <c r="ER81" s="6"/>
+      <c r="ES81" s="6"/>
+      <c r="ET81" s="6"/>
+      <c r="EU81" s="6"/>
+      <c r="EV81" s="6"/>
+      <c r="EW81" s="6"/>
+      <c r="EX81" s="6"/>
+      <c r="EY81" s="6"/>
+      <c r="EZ81" s="6"/>
+      <c r="FA81" s="6"/>
+      <c r="FB81" s="6"/>
+      <c r="FC81" s="6"/>
+      <c r="FD81" s="6"/>
+      <c r="FE81" s="6"/>
+      <c r="FF81" s="6"/>
+      <c r="FG81" s="6"/>
+      <c r="FH81" s="6"/>
+      <c r="FI81" s="6"/>
+      <c r="FJ81" s="6"/>
+      <c r="FK81" s="6"/>
+      <c r="FL81" s="6"/>
+      <c r="FM81" s="6"/>
+      <c r="FN81" s="6"/>
+      <c r="FO81" s="6"/>
+      <c r="FP81" s="6"/>
+      <c r="FQ81" s="6"/>
+      <c r="FR81" s="6"/>
+      <c r="FS81" s="6"/>
+      <c r="FT81" s="6"/>
+      <c r="FU81" s="6"/>
+      <c r="FV81" s="6"/>
+      <c r="FW81" s="6"/>
+      <c r="FX81" s="6"/>
+      <c r="FY81" s="6"/>
+      <c r="FZ81" s="6"/>
+      <c r="GA81" s="6"/>
+      <c r="GB81" s="6"/>
+      <c r="GC81" s="6"/>
+      <c r="GD81" s="6"/>
+      <c r="GE81" s="6"/>
+      <c r="GF81" s="6"/>
+      <c r="GG81" s="6"/>
+      <c r="GH81" s="6"/>
+      <c r="GI81" s="6"/>
+      <c r="GJ81" s="6"/>
+      <c r="GK81" s="6"/>
+      <c r="GL81" s="6"/>
+      <c r="GM81" s="6"/>
+      <c r="GN81" s="6"/>
+      <c r="GO81" s="6"/>
+      <c r="GP81" s="6"/>
+      <c r="GQ81" s="6"/>
+      <c r="GR81" s="6"/>
+      <c r="GS81" s="6"/>
+      <c r="GT81" s="6"/>
+      <c r="GU81" s="6"/>
+      <c r="GV81" s="6"/>
+      <c r="GW81" s="6"/>
+      <c r="GX81" s="6"/>
+      <c r="GY81" s="6"/>
+      <c r="GZ81" s="6"/>
+      <c r="HA81" s="6"/>
+      <c r="HB81" s="6"/>
+      <c r="HC81" s="6"/>
+      <c r="HD81" s="6"/>
+      <c r="HE81" s="6"/>
+      <c r="HF81" s="6"/>
+      <c r="HG81" s="6"/>
+      <c r="HH81" s="6"/>
+      <c r="HI81" s="6"/>
+      <c r="HJ81" s="6"/>
+      <c r="HK81" s="6"/>
+      <c r="HL81" s="6"/>
+      <c r="HM81" s="6"/>
+      <c r="HN81" s="6"/>
+      <c r="HO81" s="6"/>
+      <c r="HP81" s="6"/>
+      <c r="HQ81" s="6"/>
+      <c r="HR81" s="6"/>
+      <c r="HS81" s="6"/>
+      <c r="HT81" s="6"/>
+      <c r="HU81" s="6"/>
+      <c r="HV81" s="6"/>
+      <c r="HW81" s="6"/>
+      <c r="HX81" s="6"/>
+      <c r="HY81" s="6"/>
+      <c r="HZ81" s="6"/>
+      <c r="IA81" s="6"/>
+      <c r="IB81" s="6"/>
+      <c r="IC81" s="6"/>
+      <c r="ID81" s="6"/>
+      <c r="IE81" s="6"/>
+      <c r="IF81" s="6"/>
+      <c r="IG81" s="6"/>
+      <c r="IH81" s="6"/>
+      <c r="II81" s="6"/>
+      <c r="IJ81" s="6"/>
+      <c r="IK81" s="6"/>
+      <c r="IL81" s="6"/>
+      <c r="IM81" s="6"/>
+      <c r="IN81" s="6"/>
+      <c r="IO81" s="6"/>
+      <c r="IP81" s="6"/>
+      <c r="IQ81" s="6"/>
+      <c r="IR81" s="6"/>
+      <c r="IS81" s="6"/>
+      <c r="IT81" s="6"/>
+      <c r="IU81" s="6"/>
+      <c r="IV81" s="6"/>
+    </row>
+    <row r="82" spans="1:256">
+      <c r="A82" s="12"/>
+      <c r="B82" s="48" t="str">
         <f>ReactionList!A46</f>
         <v>eIF4E_[A001]_ppi_eIF4G_[A002]</v>
       </c>
-      <c r="C81" s="48" t="s">
+      <c r="C82" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="D82" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6"/>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="6"/>
+      <c r="S82" s="6"/>
+      <c r="T82" s="6"/>
+      <c r="U82" s="6"/>
+      <c r="V82" s="6"/>
+      <c r="W82" s="6"/>
+      <c r="X82" s="6"/>
+      <c r="Y82" s="6"/>
+      <c r="Z82" s="6"/>
+      <c r="AA82" s="6"/>
+      <c r="AB82" s="6"/>
+      <c r="AC82" s="6"/>
+      <c r="AD82" s="6"/>
+      <c r="AE82" s="6"/>
+      <c r="AF82" s="6"/>
+      <c r="AG82" s="6"/>
+      <c r="AH82" s="6"/>
+      <c r="AI82" s="6"/>
+      <c r="AJ82" s="6"/>
+      <c r="AK82" s="6"/>
+      <c r="AL82" s="6"/>
+      <c r="AM82" s="6"/>
+      <c r="AN82" s="6"/>
+      <c r="AO82" s="6"/>
+      <c r="AP82" s="6"/>
+      <c r="AQ82" s="6"/>
+      <c r="AR82" s="6"/>
+      <c r="AS82" s="6"/>
+      <c r="AT82" s="6"/>
+      <c r="AU82" s="6"/>
+      <c r="AV82" s="6"/>
+      <c r="AW82" s="6"/>
+      <c r="AX82" s="6"/>
+      <c r="AY82" s="6"/>
+      <c r="AZ82" s="6"/>
+      <c r="BA82" s="6"/>
+      <c r="BB82" s="6"/>
+      <c r="BC82" s="6"/>
+      <c r="BD82" s="6"/>
+      <c r="BE82" s="6"/>
+      <c r="BF82" s="6"/>
+      <c r="BG82" s="6"/>
+      <c r="BH82" s="6"/>
+      <c r="BI82" s="6"/>
+      <c r="BJ82" s="6"/>
+      <c r="BK82" s="6"/>
+      <c r="BL82" s="6"/>
+      <c r="BM82" s="6"/>
+      <c r="BN82" s="6"/>
+      <c r="BO82" s="6"/>
+      <c r="BP82" s="6"/>
+      <c r="BQ82" s="6"/>
+      <c r="BR82" s="6"/>
+      <c r="BS82" s="6"/>
+      <c r="BT82" s="6"/>
+      <c r="BU82" s="6"/>
+      <c r="BV82" s="6"/>
+      <c r="BW82" s="6"/>
+      <c r="BX82" s="6"/>
+      <c r="BY82" s="6"/>
+      <c r="BZ82" s="6"/>
+      <c r="CA82" s="6"/>
+      <c r="CB82" s="6"/>
+      <c r="CC82" s="6"/>
+      <c r="CD82" s="6"/>
+      <c r="CE82" s="6"/>
+      <c r="CF82" s="6"/>
+      <c r="CG82" s="6"/>
+      <c r="CH82" s="6"/>
+      <c r="CI82" s="6"/>
+      <c r="CJ82" s="6"/>
+      <c r="CK82" s="6"/>
+      <c r="CL82" s="6"/>
+      <c r="CM82" s="6"/>
+      <c r="CN82" s="6"/>
+      <c r="CO82" s="6"/>
+      <c r="CP82" s="6"/>
+      <c r="CQ82" s="6"/>
+      <c r="CR82" s="6"/>
+      <c r="CS82" s="6"/>
+      <c r="CT82" s="6"/>
+      <c r="CU82" s="6"/>
+      <c r="CV82" s="6"/>
+      <c r="CW82" s="6"/>
+      <c r="CX82" s="6"/>
+      <c r="CY82" s="6"/>
+      <c r="CZ82" s="6"/>
+      <c r="DA82" s="6"/>
+      <c r="DB82" s="6"/>
+      <c r="DC82" s="6"/>
+      <c r="DD82" s="6"/>
+      <c r="DE82" s="6"/>
+      <c r="DF82" s="6"/>
+      <c r="DG82" s="6"/>
+      <c r="DH82" s="6"/>
+      <c r="DI82" s="6"/>
+      <c r="DJ82" s="6"/>
+      <c r="DK82" s="6"/>
+      <c r="DL82" s="6"/>
+      <c r="DM82" s="6"/>
+      <c r="DN82" s="6"/>
+      <c r="DO82" s="6"/>
+      <c r="DP82" s="6"/>
+      <c r="DQ82" s="6"/>
+      <c r="DR82" s="6"/>
+      <c r="DS82" s="6"/>
+      <c r="DT82" s="6"/>
+      <c r="DU82" s="6"/>
+      <c r="DV82" s="6"/>
+      <c r="DW82" s="6"/>
+      <c r="DX82" s="6"/>
+      <c r="DY82" s="6"/>
+      <c r="DZ82" s="6"/>
+      <c r="EA82" s="6"/>
+      <c r="EB82" s="6"/>
+      <c r="EC82" s="6"/>
+      <c r="ED82" s="6"/>
+      <c r="EE82" s="6"/>
+      <c r="EF82" s="6"/>
+      <c r="EG82" s="6"/>
+      <c r="EH82" s="6"/>
+      <c r="EI82" s="6"/>
+      <c r="EJ82" s="6"/>
+      <c r="EK82" s="6"/>
+      <c r="EL82" s="6"/>
+      <c r="EM82" s="6"/>
+      <c r="EN82" s="6"/>
+      <c r="EO82" s="6"/>
+      <c r="EP82" s="6"/>
+      <c r="EQ82" s="6"/>
+      <c r="ER82" s="6"/>
+      <c r="ES82" s="6"/>
+      <c r="ET82" s="6"/>
+      <c r="EU82" s="6"/>
+      <c r="EV82" s="6"/>
+      <c r="EW82" s="6"/>
+      <c r="EX82" s="6"/>
+      <c r="EY82" s="6"/>
+      <c r="EZ82" s="6"/>
+      <c r="FA82" s="6"/>
+      <c r="FB82" s="6"/>
+      <c r="FC82" s="6"/>
+      <c r="FD82" s="6"/>
+      <c r="FE82" s="6"/>
+      <c r="FF82" s="6"/>
+      <c r="FG82" s="6"/>
+      <c r="FH82" s="6"/>
+      <c r="FI82" s="6"/>
+      <c r="FJ82" s="6"/>
+      <c r="FK82" s="6"/>
+      <c r="FL82" s="6"/>
+      <c r="FM82" s="6"/>
+      <c r="FN82" s="6"/>
+      <c r="FO82" s="6"/>
+      <c r="FP82" s="6"/>
+      <c r="FQ82" s="6"/>
+      <c r="FR82" s="6"/>
+      <c r="FS82" s="6"/>
+      <c r="FT82" s="6"/>
+      <c r="FU82" s="6"/>
+      <c r="FV82" s="6"/>
+      <c r="FW82" s="6"/>
+      <c r="FX82" s="6"/>
+      <c r="FY82" s="6"/>
+      <c r="FZ82" s="6"/>
+      <c r="GA82" s="6"/>
+      <c r="GB82" s="6"/>
+      <c r="GC82" s="6"/>
+      <c r="GD82" s="6"/>
+      <c r="GE82" s="6"/>
+      <c r="GF82" s="6"/>
+      <c r="GG82" s="6"/>
+      <c r="GH82" s="6"/>
+      <c r="GI82" s="6"/>
+      <c r="GJ82" s="6"/>
+      <c r="GK82" s="6"/>
+      <c r="GL82" s="6"/>
+      <c r="GM82" s="6"/>
+      <c r="GN82" s="6"/>
+      <c r="GO82" s="6"/>
+      <c r="GP82" s="6"/>
+      <c r="GQ82" s="6"/>
+      <c r="GR82" s="6"/>
+      <c r="GS82" s="6"/>
+      <c r="GT82" s="6"/>
+      <c r="GU82" s="6"/>
+      <c r="GV82" s="6"/>
+      <c r="GW82" s="6"/>
+      <c r="GX82" s="6"/>
+      <c r="GY82" s="6"/>
+      <c r="GZ82" s="6"/>
+      <c r="HA82" s="6"/>
+      <c r="HB82" s="6"/>
+      <c r="HC82" s="6"/>
+      <c r="HD82" s="6"/>
+      <c r="HE82" s="6"/>
+      <c r="HF82" s="6"/>
+      <c r="HG82" s="6"/>
+      <c r="HH82" s="6"/>
+      <c r="HI82" s="6"/>
+      <c r="HJ82" s="6"/>
+      <c r="HK82" s="6"/>
+      <c r="HL82" s="6"/>
+      <c r="HM82" s="6"/>
+      <c r="HN82" s="6"/>
+      <c r="HO82" s="6"/>
+      <c r="HP82" s="6"/>
+      <c r="HQ82" s="6"/>
+      <c r="HR82" s="6"/>
+      <c r="HS82" s="6"/>
+      <c r="HT82" s="6"/>
+      <c r="HU82" s="6"/>
+      <c r="HV82" s="6"/>
+      <c r="HW82" s="6"/>
+      <c r="HX82" s="6"/>
+      <c r="HY82" s="6"/>
+      <c r="HZ82" s="6"/>
+      <c r="IA82" s="6"/>
+      <c r="IB82" s="6"/>
+      <c r="IC82" s="6"/>
+      <c r="ID82" s="6"/>
+      <c r="IE82" s="6"/>
+      <c r="IF82" s="6"/>
+      <c r="IG82" s="6"/>
+      <c r="IH82" s="6"/>
+      <c r="II82" s="6"/>
+      <c r="IJ82" s="6"/>
+      <c r="IK82" s="6"/>
+      <c r="IL82" s="6"/>
+      <c r="IM82" s="6"/>
+      <c r="IN82" s="6"/>
+      <c r="IO82" s="6"/>
+      <c r="IP82" s="6"/>
+      <c r="IQ82" s="6"/>
+      <c r="IR82" s="6"/>
+      <c r="IS82" s="6"/>
+      <c r="IT82" s="6"/>
+      <c r="IU82" s="6"/>
+      <c r="IV82" s="6"/>
+    </row>
+    <row r="83" spans="1:256">
+      <c r="A83" s="12"/>
+      <c r="B83" s="48" t="str">
+        <f>ReactionList!A46</f>
+        <v>eIF4E_[A001]_ppi_eIF4G_[A002]</v>
+      </c>
+      <c r="C83" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="D83" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
+      <c r="O83" s="6"/>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="6"/>
+      <c r="R83" s="6"/>
+      <c r="S83" s="6"/>
+      <c r="T83" s="6"/>
+      <c r="U83" s="6"/>
+      <c r="V83" s="6"/>
+      <c r="W83" s="6"/>
+      <c r="X83" s="6"/>
+      <c r="Y83" s="6"/>
+      <c r="Z83" s="6"/>
+      <c r="AA83" s="6"/>
+      <c r="AB83" s="6"/>
+      <c r="AC83" s="6"/>
+      <c r="AD83" s="6"/>
+      <c r="AE83" s="6"/>
+      <c r="AF83" s="6"/>
+      <c r="AG83" s="6"/>
+      <c r="AH83" s="6"/>
+      <c r="AI83" s="6"/>
+      <c r="AJ83" s="6"/>
+      <c r="AK83" s="6"/>
+      <c r="AL83" s="6"/>
+      <c r="AM83" s="6"/>
+      <c r="AN83" s="6"/>
+      <c r="AO83" s="6"/>
+      <c r="AP83" s="6"/>
+      <c r="AQ83" s="6"/>
+      <c r="AR83" s="6"/>
+      <c r="AS83" s="6"/>
+      <c r="AT83" s="6"/>
+      <c r="AU83" s="6"/>
+      <c r="AV83" s="6"/>
+      <c r="AW83" s="6"/>
+      <c r="AX83" s="6"/>
+      <c r="AY83" s="6"/>
+      <c r="AZ83" s="6"/>
+      <c r="BA83" s="6"/>
+      <c r="BB83" s="6"/>
+      <c r="BC83" s="6"/>
+      <c r="BD83" s="6"/>
+      <c r="BE83" s="6"/>
+      <c r="BF83" s="6"/>
+      <c r="BG83" s="6"/>
+      <c r="BH83" s="6"/>
+      <c r="BI83" s="6"/>
+      <c r="BJ83" s="6"/>
+      <c r="BK83" s="6"/>
+      <c r="BL83" s="6"/>
+      <c r="BM83" s="6"/>
+      <c r="BN83" s="6"/>
+      <c r="BO83" s="6"/>
+      <c r="BP83" s="6"/>
+      <c r="BQ83" s="6"/>
+      <c r="BR83" s="6"/>
+      <c r="BS83" s="6"/>
+      <c r="BT83" s="6"/>
+      <c r="BU83" s="6"/>
+      <c r="BV83" s="6"/>
+      <c r="BW83" s="6"/>
+      <c r="BX83" s="6"/>
+      <c r="BY83" s="6"/>
+      <c r="BZ83" s="6"/>
+      <c r="CA83" s="6"/>
+      <c r="CB83" s="6"/>
+      <c r="CC83" s="6"/>
+      <c r="CD83" s="6"/>
+      <c r="CE83" s="6"/>
+      <c r="CF83" s="6"/>
+      <c r="CG83" s="6"/>
+      <c r="CH83" s="6"/>
+      <c r="CI83" s="6"/>
+      <c r="CJ83" s="6"/>
+      <c r="CK83" s="6"/>
+      <c r="CL83" s="6"/>
+      <c r="CM83" s="6"/>
+      <c r="CN83" s="6"/>
+      <c r="CO83" s="6"/>
+      <c r="CP83" s="6"/>
+      <c r="CQ83" s="6"/>
+      <c r="CR83" s="6"/>
+      <c r="CS83" s="6"/>
+      <c r="CT83" s="6"/>
+      <c r="CU83" s="6"/>
+      <c r="CV83" s="6"/>
+      <c r="CW83" s="6"/>
+      <c r="CX83" s="6"/>
+      <c r="CY83" s="6"/>
+      <c r="CZ83" s="6"/>
+      <c r="DA83" s="6"/>
+      <c r="DB83" s="6"/>
+      <c r="DC83" s="6"/>
+      <c r="DD83" s="6"/>
+      <c r="DE83" s="6"/>
+      <c r="DF83" s="6"/>
+      <c r="DG83" s="6"/>
+      <c r="DH83" s="6"/>
+      <c r="DI83" s="6"/>
+      <c r="DJ83" s="6"/>
+      <c r="DK83" s="6"/>
+      <c r="DL83" s="6"/>
+      <c r="DM83" s="6"/>
+      <c r="DN83" s="6"/>
+      <c r="DO83" s="6"/>
+      <c r="DP83" s="6"/>
+      <c r="DQ83" s="6"/>
+      <c r="DR83" s="6"/>
+      <c r="DS83" s="6"/>
+      <c r="DT83" s="6"/>
+      <c r="DU83" s="6"/>
+      <c r="DV83" s="6"/>
+      <c r="DW83" s="6"/>
+      <c r="DX83" s="6"/>
+      <c r="DY83" s="6"/>
+      <c r="DZ83" s="6"/>
+      <c r="EA83" s="6"/>
+      <c r="EB83" s="6"/>
+      <c r="EC83" s="6"/>
+      <c r="ED83" s="6"/>
+      <c r="EE83" s="6"/>
+      <c r="EF83" s="6"/>
+      <c r="EG83" s="6"/>
+      <c r="EH83" s="6"/>
+      <c r="EI83" s="6"/>
+      <c r="EJ83" s="6"/>
+      <c r="EK83" s="6"/>
+      <c r="EL83" s="6"/>
+      <c r="EM83" s="6"/>
+      <c r="EN83" s="6"/>
+      <c r="EO83" s="6"/>
+      <c r="EP83" s="6"/>
+      <c r="EQ83" s="6"/>
+      <c r="ER83" s="6"/>
+      <c r="ES83" s="6"/>
+      <c r="ET83" s="6"/>
+      <c r="EU83" s="6"/>
+      <c r="EV83" s="6"/>
+      <c r="EW83" s="6"/>
+      <c r="EX83" s="6"/>
+      <c r="EY83" s="6"/>
+      <c r="EZ83" s="6"/>
+      <c r="FA83" s="6"/>
+      <c r="FB83" s="6"/>
+      <c r="FC83" s="6"/>
+      <c r="FD83" s="6"/>
+      <c r="FE83" s="6"/>
+      <c r="FF83" s="6"/>
+      <c r="FG83" s="6"/>
+      <c r="FH83" s="6"/>
+      <c r="FI83" s="6"/>
+      <c r="FJ83" s="6"/>
+      <c r="FK83" s="6"/>
+      <c r="FL83" s="6"/>
+      <c r="FM83" s="6"/>
+      <c r="FN83" s="6"/>
+      <c r="FO83" s="6"/>
+      <c r="FP83" s="6"/>
+      <c r="FQ83" s="6"/>
+      <c r="FR83" s="6"/>
+      <c r="FS83" s="6"/>
+      <c r="FT83" s="6"/>
+      <c r="FU83" s="6"/>
+      <c r="FV83" s="6"/>
+      <c r="FW83" s="6"/>
+      <c r="FX83" s="6"/>
+      <c r="FY83" s="6"/>
+      <c r="FZ83" s="6"/>
+      <c r="GA83" s="6"/>
+      <c r="GB83" s="6"/>
+      <c r="GC83" s="6"/>
+      <c r="GD83" s="6"/>
+      <c r="GE83" s="6"/>
+      <c r="GF83" s="6"/>
+      <c r="GG83" s="6"/>
+      <c r="GH83" s="6"/>
+      <c r="GI83" s="6"/>
+      <c r="GJ83" s="6"/>
+      <c r="GK83" s="6"/>
+      <c r="GL83" s="6"/>
+      <c r="GM83" s="6"/>
+      <c r="GN83" s="6"/>
+      <c r="GO83" s="6"/>
+      <c r="GP83" s="6"/>
+      <c r="GQ83" s="6"/>
+      <c r="GR83" s="6"/>
+      <c r="GS83" s="6"/>
+      <c r="GT83" s="6"/>
+      <c r="GU83" s="6"/>
+      <c r="GV83" s="6"/>
+      <c r="GW83" s="6"/>
+      <c r="GX83" s="6"/>
+      <c r="GY83" s="6"/>
+      <c r="GZ83" s="6"/>
+      <c r="HA83" s="6"/>
+      <c r="HB83" s="6"/>
+      <c r="HC83" s="6"/>
+      <c r="HD83" s="6"/>
+      <c r="HE83" s="6"/>
+      <c r="HF83" s="6"/>
+      <c r="HG83" s="6"/>
+      <c r="HH83" s="6"/>
+      <c r="HI83" s="6"/>
+      <c r="HJ83" s="6"/>
+      <c r="HK83" s="6"/>
+      <c r="HL83" s="6"/>
+      <c r="HM83" s="6"/>
+      <c r="HN83" s="6"/>
+      <c r="HO83" s="6"/>
+      <c r="HP83" s="6"/>
+      <c r="HQ83" s="6"/>
+      <c r="HR83" s="6"/>
+      <c r="HS83" s="6"/>
+      <c r="HT83" s="6"/>
+      <c r="HU83" s="6"/>
+      <c r="HV83" s="6"/>
+      <c r="HW83" s="6"/>
+      <c r="HX83" s="6"/>
+      <c r="HY83" s="6"/>
+      <c r="HZ83" s="6"/>
+      <c r="IA83" s="6"/>
+      <c r="IB83" s="6"/>
+      <c r="IC83" s="6"/>
+      <c r="ID83" s="6"/>
+      <c r="IE83" s="6"/>
+      <c r="IF83" s="6"/>
+      <c r="IG83" s="6"/>
+      <c r="IH83" s="6"/>
+      <c r="II83" s="6"/>
+      <c r="IJ83" s="6"/>
+      <c r="IK83" s="6"/>
+      <c r="IL83" s="6"/>
+      <c r="IM83" s="6"/>
+      <c r="IN83" s="6"/>
+      <c r="IO83" s="6"/>
+      <c r="IP83" s="6"/>
+      <c r="IQ83" s="6"/>
+      <c r="IR83" s="6"/>
+      <c r="IS83" s="6"/>
+      <c r="IT83" s="6"/>
+      <c r="IU83" s="6"/>
+      <c r="IV83" s="6"/>
+    </row>
+    <row r="84" spans="1:256">
+      <c r="A84" s="12"/>
+      <c r="B84" s="48" t="str">
+        <f>ReactionList!A46</f>
+        <v>eIF4E_[A001]_ppi_eIF4G_[A002]</v>
+      </c>
+      <c r="C84" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="D81" s="29" t="s">
+      <c r="D84" s="29" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="12"/>
-      <c r="B82" s="39" t="s">
+    <row r="85" spans="1:256">
+      <c r="A85" s="12"/>
+      <c r="B85" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="C82" s="30" t="s">
+      <c r="C85" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="D82" s="47" t="s">
+      <c r="D85" s="47" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="12"/>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="12"/>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="12"/>
-    </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:256">
       <c r="A86" s="12"/>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:256">
       <c r="A87" s="12"/>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:256">
       <c r="A88" s="12"/>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:256">
       <c r="A89" s="12"/>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:256">
       <c r="A90" s="12"/>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:256">
       <c r="A91" s="12"/>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:256">
       <c r="A92" s="12"/>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:256">
       <c r="A93" s="12"/>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:256">
       <c r="A94" s="12"/>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:256">
       <c r="A95" s="12"/>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:256">
       <c r="A96" s="12"/>
     </row>
     <row r="97" spans="1:1">
@@ -6775,26 +6809,35 @@
     <row r="148" spans="1:1">
       <c r="A148" s="12"/>
     </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="12"/>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="12"/>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="12"/>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <conditionalFormatting sqref="D48 B30:B38">
+  <conditionalFormatting sqref="D51 B33:B41">
     <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("Error",B30)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Error",B33)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H64851:H64861 H2:H23 E71:H82 C71:C82 C66 B83:H148 A149:H64850 H26:H70">
+  <conditionalFormatting sqref="H64854:H64864 H2:H26 E74:H85 C74:C85 C69 B86:H151 A152:H64853 H29:H73">
     <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
       <formula>ISERROR(A2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24:H25">
+  <conditionalFormatting sqref="H27:H28">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>ISERROR(H24)</formula>
+      <formula>ISERROR(H27)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
+  <conditionalFormatting sqref="E61">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("Error",E58)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Error",E61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>

--- a/mtor/mTOR56.xlsx
+++ b/mtor/mTOR56.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yassenroussev/Desktop/mTOR/mtor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E74CB30A-8B7D-FE4B-9C26-23BEDA5CF82E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318AEDF8-E2C9-F14A-B839-F39E5C447BEB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4170,10 +4170,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV151"/>
+  <dimension ref="A1:IV149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="139" zoomScaleSheetLayoutView="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="139" zoomScaleSheetLayoutView="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -4371,7 +4371,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="12"/>
-      <c r="B11" s="41" t="str">
+      <c r="B11" s="70" t="str">
         <f>ReactionList!A11</f>
         <v>PI3K_p+_PI_[(3)]</v>
       </c>
@@ -4437,39 +4437,51 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="12">
-        <v>8</v>
-      </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
+        <v>10</v>
+      </c>
+      <c r="B15" s="41" t="str">
+        <f>ReactionList!A13</f>
+        <v>AKT2_[PI]_i_PI_[PH]</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>100</v>
+      </c>
       <c r="E15" s="37"/>
       <c r="F15" s="37"/>
       <c r="G15" s="33"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="12">
-        <v>9</v>
-      </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
+        <v>11</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>99</v>
+      </c>
       <c r="E16" s="37"/>
       <c r="F16" s="37"/>
       <c r="G16" s="33"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="12">
-        <v>10</v>
-      </c>
-      <c r="B17" s="41" t="str">
-        <f>ReactionList!A13</f>
-        <v>AKT2_[PI]_i_PI_[PH]</v>
+        <v>12</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>100</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E17" s="37"/>
       <c r="F17" s="37"/>
@@ -4477,7 +4489,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B18" s="41" t="s">
         <v>100</v>
@@ -4486,7 +4498,7 @@
         <v>101</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E18" s="37"/>
       <c r="F18" s="37"/>
@@ -4494,16 +4506,17 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="12">
-        <v>12</v>
-      </c>
-      <c r="B19" s="41" t="s">
-        <v>100</v>
+        <v>14</v>
+      </c>
+      <c r="B19" s="41" t="str">
+        <f>ReactionList!A14</f>
+        <v>PDK1_p+_AKT2_[(T309)]</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="41" t="s">
-        <v>98</v>
+        <v>87</v>
+      </c>
+      <c r="D19" s="53" t="s">
+        <v>103</v>
       </c>
       <c r="E19" s="37"/>
       <c r="F19" s="37"/>
@@ -4511,16 +4524,17 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="12">
-        <v>13</v>
-      </c>
-      <c r="B20" s="41" t="s">
-        <v>100</v>
+        <v>15</v>
+      </c>
+      <c r="B20" s="41" t="str">
+        <f>ReactionList!A15</f>
+        <v>mTORC2_p+_AKT2_[(S474)]</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="D20" s="41" t="s">
-        <v>102</v>
+        <v>87</v>
+      </c>
+      <c r="D20" s="53" t="s">
+        <v>103</v>
       </c>
       <c r="E20" s="37"/>
       <c r="F20" s="37"/>
@@ -4528,17 +4542,17 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="12">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B21" s="41" t="str">
-        <f>ReactionList!A14</f>
-        <v>PDK1_p+_AKT2_[(T309)]</v>
+        <f>ReactionList!A18</f>
+        <v>AKT2_p+_TSC2_[(Ser939)]</v>
       </c>
       <c r="C21" s="41" t="s">
         <v>87</v>
       </c>
       <c r="D21" s="53" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E21" s="37"/>
       <c r="F21" s="37"/>
@@ -4546,17 +4560,17 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B22" s="41" t="str">
-        <f>ReactionList!A15</f>
-        <v>mTORC2_p+_AKT2_[(S474)]</v>
+        <f>ReactionList!A19</f>
+        <v>AKT2_p+_TSC2_[(Thr1462)]</v>
       </c>
       <c r="C22" s="41" t="s">
         <v>87</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E22" s="37"/>
       <c r="F22" s="37"/>
@@ -4564,11 +4578,11 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B23" s="41" t="str">
-        <f>ReactionList!A18</f>
-        <v>AKT2_p+_TSC2_[(Ser939)]</v>
+        <f>ReactionList!A20</f>
+        <v>AKT2_p+_TSC2_[(Ser981)]</v>
       </c>
       <c r="C23" s="41" t="s">
         <v>87</v>
@@ -4582,11 +4596,11 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="12">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B24" s="41" t="str">
-        <f>ReactionList!A19</f>
-        <v>AKT2_p+_TSC2_[(Thr1462)]</v>
+        <f>ReactionList!A21</f>
+        <v>AKT2_p+_TSC2_[(Ser1130)]</v>
       </c>
       <c r="C24" s="41" t="s">
         <v>87</v>
@@ -4599,85 +4613,84 @@
       <c r="G24" s="33"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="12">
-        <v>18</v>
-      </c>
-      <c r="B25" s="41" t="str">
-        <f>ReactionList!A20</f>
-        <v>AKT2_p+_TSC2_[(Ser981)]</v>
-      </c>
-      <c r="C25" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="33"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="12">
-        <v>19</v>
-      </c>
-      <c r="B26" s="41" t="str">
-        <f>ReactionList!A21</f>
-        <v>AKT2_p+_TSC2_[(Ser1130)]</v>
-      </c>
-      <c r="C26" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="33"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="12"/>
-      <c r="B27" s="61" t="str">
+      <c r="A25" s="12"/>
+      <c r="B25" s="61" t="str">
         <f>ReactionList!A22</f>
         <v>AKT2_p+_PPM1G_[(AKT2)]</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C25" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="63" t="s">
+      <c r="D25" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="36"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="12"/>
-      <c r="B28" s="61" t="str">
+      <c r="E25" s="34"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="36"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="12"/>
+      <c r="B26" s="61" t="str">
         <f>ReactionList!A23</f>
         <v>un_p-_PPM1G_[(AKT2)]</v>
       </c>
-      <c r="C28" s="61" t="s">
+      <c r="C26" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="D28" s="63" t="s">
+      <c r="D26" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="36"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="36"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="12">
+        <v>20</v>
+      </c>
+      <c r="B27" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="33"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="12">
+        <v>21</v>
+      </c>
+      <c r="B28" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="33"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="12">
-        <v>20</v>
-      </c>
-      <c r="B29" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="C29" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29" s="53" t="s">
-        <v>105</v>
+        <v>23</v>
+      </c>
+      <c r="B29" s="42" t="str">
+        <f>ReactionList!A32</f>
+        <v>RHEB_[switch1]_ppi_mTOR_[Mheatmα2mα3mα4]</v>
+      </c>
+      <c r="C29" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>107</v>
       </c>
       <c r="E29" s="37"/>
       <c r="F29" s="37"/>
@@ -4685,16 +4698,17 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="12">
-        <v>21</v>
-      </c>
-      <c r="B30" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="C30" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="D30" s="53" t="s">
-        <v>106</v>
+        <v>24</v>
+      </c>
+      <c r="B30" s="42" t="str">
+        <f>ReactionList!A33</f>
+        <v>RHEB_[switch2GQDEYSIFPQTYSIDIN]_ppi_mTOR_[Nheatnα3tonα7]</v>
+      </c>
+      <c r="C30" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>107</v>
       </c>
       <c r="E30" s="37"/>
       <c r="F30" s="37"/>
@@ -4702,11 +4716,11 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="12">
-        <v>23</v>
-      </c>
-      <c r="B31" s="42" t="str">
-        <f>ReactionList!A32</f>
-        <v>RHEB_[switch1]_ppi_mTOR_[Mheatmα2mα3mα4]</v>
+        <v>25</v>
+      </c>
+      <c r="B31" s="44" t="str">
+        <f>ReactionList!A34</f>
+        <v>RHEB_[switch1DSYDPTIEN]_ppi_mTOR_[FATfα2fα3]</v>
       </c>
       <c r="C31" s="55" t="s">
         <v>87</v>
@@ -4720,17 +4734,16 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="12">
-        <v>24</v>
-      </c>
-      <c r="B32" s="42" t="str">
-        <f>ReactionList!A33</f>
-        <v>RHEB_[switch2GQDEYSIFPQTYSIDIN]_ppi_mTOR_[Nheatnα3tonα7]</v>
+        <v>26</v>
+      </c>
+      <c r="B32" s="44" t="s">
+        <v>108</v>
       </c>
       <c r="C32" s="55" t="s">
         <v>87</v>
       </c>
       <c r="D32" s="42" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E32" s="37"/>
       <c r="F32" s="37"/>
@@ -4738,34 +4751,39 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B33" s="44" t="str">
-        <f>ReactionList!A34</f>
-        <v>RHEB_[switch1DSYDPTIEN]_ppi_mTOR_[FATfα2fα3]</v>
+        <f>ReactionList!A28</f>
+        <v>TSC1_[Cterminus]_ppi+_TSC2_[Nterminus]</v>
       </c>
       <c r="C33" s="55" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="D33" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="E33" s="37"/>
+        <v>111</v>
+      </c>
+      <c r="E33" s="37" t="s">
+        <v>112</v>
+      </c>
       <c r="F33" s="37"/>
-      <c r="G33" s="33"/>
+      <c r="G33" s="33" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="12">
-        <v>26</v>
-      </c>
-      <c r="B34" s="44" t="s">
-        <v>108</v>
+        <v>28</v>
+      </c>
+      <c r="B34" s="44" t="str">
+        <f>ReactionList!A29</f>
+        <v>TSC1_[Cterminus]_ppi-_TSC2_[Nterminus]</v>
       </c>
       <c r="C34" s="55" t="s">
         <v>87</v>
       </c>
       <c r="D34" s="42" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E34" s="37"/>
       <c r="F34" s="37"/>
@@ -4773,39 +4791,34 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="12">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B35" s="44" t="str">
-        <f>ReactionList!A28</f>
-        <v>TSC1_[Cterminus]_ppi+_TSC2_[Nterminus]</v>
+        <f>ReactionList!A30</f>
+        <v>GTP_gef_RHEB_[(G)]</v>
       </c>
       <c r="C35" s="55" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="D35" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="E35" s="37" t="s">
-        <v>112</v>
-      </c>
+      <c r="E35" s="37"/>
       <c r="F35" s="37"/>
-      <c r="G35" s="33" t="s">
-        <v>113</v>
-      </c>
+      <c r="G35" s="33"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="12">
-        <v>28</v>
-      </c>
-      <c r="B36" s="44" t="str">
-        <f>ReactionList!A29</f>
-        <v>TSC1_[Cterminus]_ppi-_TSC2_[Nterminus]</v>
+        <v>30</v>
+      </c>
+      <c r="B36" s="44" t="s">
+        <v>114</v>
       </c>
       <c r="C36" s="55" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D36" s="42" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E36" s="37"/>
       <c r="F36" s="37"/>
@@ -4813,17 +4826,16 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="12">
-        <v>29</v>
-      </c>
-      <c r="B37" s="44" t="str">
-        <f>ReactionList!A30</f>
-        <v>GTP_gef_RHEB_[(G)]</v>
+        <v>31</v>
+      </c>
+      <c r="B37" s="44" t="s">
+        <v>114</v>
       </c>
       <c r="C37" s="55" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D37" s="42" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E37" s="37"/>
       <c r="F37" s="37"/>
@@ -4831,7 +4843,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="12">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B38" s="44" t="s">
         <v>114</v>
@@ -4840,7 +4852,7 @@
         <v>101</v>
       </c>
       <c r="D38" s="42" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E38" s="37"/>
       <c r="F38" s="37"/>
@@ -4848,7 +4860,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="12">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B39" s="44" t="s">
         <v>114</v>
@@ -4857,7 +4869,7 @@
         <v>101</v>
       </c>
       <c r="D39" s="42" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E39" s="37"/>
       <c r="F39" s="37"/>
@@ -4865,87 +4877,87 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="12">
-        <v>32</v>
-      </c>
-      <c r="B40" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="C40" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="D40" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="E40" s="37"/>
+        <v>34</v>
+      </c>
+      <c r="B40" s="38" t="str">
+        <f>ReactionList!A35</f>
+        <v>mTOR_ppi+_Raptor</v>
+      </c>
+      <c r="C40" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="E40" s="37" t="s">
+        <v>120</v>
+      </c>
       <c r="F40" s="37"/>
-      <c r="G40" s="33"/>
+      <c r="G40" s="33" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="12">
-        <v>33</v>
-      </c>
-      <c r="B41" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="C41" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="D41" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="E41" s="37"/>
+        <v>35</v>
+      </c>
+      <c r="B41" s="38" t="str">
+        <f>ReactionList!A35</f>
+        <v>mTOR_ppi+_Raptor</v>
+      </c>
+      <c r="C41" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="E41" s="37" t="s">
+        <v>120</v>
+      </c>
       <c r="F41" s="37"/>
       <c r="G41" s="33"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="12">
-        <v>34</v>
-      </c>
-      <c r="B42" s="38" t="str">
-        <f>ReactionList!A35</f>
-        <v>mTOR_ppi+_Raptor</v>
-      </c>
-      <c r="C42" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="57" t="str">
+        <f>ReactionList!A38</f>
+        <v>mTORC1_p+_EIF4EBP1_[(Thr37)]</v>
+      </c>
+      <c r="C42" s="57" t="s">
         <v>87</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="E42" s="37" t="s">
-        <v>120</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="E42" s="37"/>
       <c r="F42" s="37"/>
-      <c r="G42" s="33" t="s">
-        <v>121</v>
-      </c>
+      <c r="G42" s="33"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="12">
-        <v>35</v>
-      </c>
-      <c r="B43" s="38" t="str">
-        <f>ReactionList!A35</f>
-        <v>mTOR_ppi+_Raptor</v>
-      </c>
-      <c r="C43" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="57" t="str">
+        <f>ReactionList!A39</f>
+        <v>mTORC1_p+_EIF4EBP1_[(Thr46)]</v>
+      </c>
+      <c r="C43" s="57" t="s">
         <v>87</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="E43" s="37" t="s">
-        <v>120</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="E43" s="37"/>
       <c r="F43" s="37"/>
       <c r="G43" s="33"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="12">
-        <v>39</v>
-      </c>
+      <c r="A44" s="12"/>
       <c r="B44" s="57" t="str">
-        <f>ReactionList!A38</f>
-        <v>mTORC1_p+_EIF4EBP1_[(Thr37)]</v>
+        <f>ReactionList!A40</f>
+        <v>mTORC1_p+_EIF4EBP1_[(Ser65)]</v>
       </c>
       <c r="C44" s="57" t="s">
         <v>87</v>
@@ -4958,12 +4970,10 @@
       <c r="G44" s="33"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="12">
-        <v>40</v>
-      </c>
+      <c r="A45" s="12"/>
       <c r="B45" s="57" t="str">
-        <f>ReactionList!A39</f>
-        <v>mTORC1_p+_EIF4EBP1_[(Thr46)]</v>
+        <f>ReactionList!A41</f>
+        <v>mTORC1_p+_EIF4EBP1_[(Thr70)]</v>
       </c>
       <c r="C45" s="57" t="s">
         <v>87</v>
@@ -4977,15 +4987,14 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="12"/>
-      <c r="B46" s="57" t="str">
-        <f>ReactionList!A40</f>
-        <v>mTORC1_p+_EIF4EBP1_[(Ser65)]</v>
+      <c r="B46" s="32" t="s">
+        <v>123</v>
       </c>
       <c r="C46" s="57" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E46" s="37"/>
       <c r="F46" s="37"/>
@@ -4993,15 +5002,14 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="12"/>
-      <c r="B47" s="57" t="str">
-        <f>ReactionList!A41</f>
-        <v>mTORC1_p+_EIF4EBP1_[(Thr70)]</v>
+      <c r="B47" s="32" t="s">
+        <v>123</v>
       </c>
       <c r="C47" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="D47" s="32" t="s">
-        <v>123</v>
+        <v>101</v>
+      </c>
+      <c r="D47" s="46" t="s">
+        <v>125</v>
       </c>
       <c r="E47" s="37"/>
       <c r="F47" s="37"/>
@@ -5015,8 +5023,8 @@
       <c r="C48" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="D48" s="32" t="s">
-        <v>124</v>
+      <c r="D48" s="46" t="s">
+        <v>126</v>
       </c>
       <c r="E48" s="37"/>
       <c r="F48" s="37"/>
@@ -5030,50 +5038,64 @@
       <c r="C49" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="D49" s="46" t="s">
-        <v>125</v>
+      <c r="D49" s="43" t="s">
+        <v>127</v>
       </c>
       <c r="E49" s="37"/>
       <c r="F49" s="37"/>
       <c r="G49" s="33"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="12"/>
-      <c r="B50" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="C50" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="D50" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="33"/>
+      <c r="A50" s="12">
+        <v>41</v>
+      </c>
+      <c r="B50" s="35" t="str">
+        <f>ReactionList!A41</f>
+        <v>mTORC1_p+_EIF4EBP1_[(Thr70)]</v>
+      </c>
+      <c r="C50" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="E50" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="F50" s="51"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="1" t="str">
+        <f>""</f>
+        <v/>
+      </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="12"/>
-      <c r="B51" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="C51" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="D51" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="33"/>
+      <c r="A51" s="12">
+        <v>42</v>
+      </c>
+      <c r="B51" s="35" t="str">
+        <f>ReactionList!A41</f>
+        <v>mTORC1_p+_EIF4EBP1_[(Thr70)]</v>
+      </c>
+      <c r="C51" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="E51" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="F51" s="51"/>
+      <c r="G51" s="36"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="12">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B52" s="35" t="str">
-        <f>ReactionList!A41</f>
-        <v>mTORC1_p+_EIF4EBP1_[(Thr70)]</v>
+        <f>ReactionList!A40</f>
+        <v>mTORC1_p+_EIF4EBP1_[(Ser65)]</v>
       </c>
       <c r="C52" s="35" t="s">
         <v>87</v>
@@ -5086,18 +5108,14 @@
       </c>
       <c r="F52" s="51"/>
       <c r="G52" s="36"/>
-      <c r="H52" s="1" t="str">
-        <f>""</f>
-        <v/>
-      </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="12">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B53" s="35" t="str">
-        <f>ReactionList!A41</f>
-        <v>mTORC1_p+_EIF4EBP1_[(Thr70)]</v>
+        <f>ReactionList!A40</f>
+        <v>mTORC1_p+_EIF4EBP1_[(Ser65)]</v>
       </c>
       <c r="C53" s="35" t="s">
         <v>87</v>
@@ -5113,7 +5131,7 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="12">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B54" s="35" t="str">
         <f>ReactionList!A40</f>
@@ -5123,7 +5141,7 @@
         <v>87</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E54" s="34" t="s">
         <v>129</v>
@@ -5133,51 +5151,47 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="12">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B55" s="35" t="str">
-        <f>ReactionList!A40</f>
-        <v>mTORC1_p+_EIF4EBP1_[(Ser65)]</v>
+        <f>ReactionList!A38</f>
+        <v>mTORC1_p+_EIF4EBP1_[(Thr37)]</v>
       </c>
       <c r="C55" s="35" t="s">
         <v>87</v>
       </c>
       <c r="D55" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="E55" s="34" t="s">
-        <v>129</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="E55" s="34"/>
       <c r="F55" s="51"/>
       <c r="G55" s="36"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="12">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B56" s="35" t="str">
-        <f>ReactionList!A40</f>
-        <v>mTORC1_p+_EIF4EBP1_[(Ser65)]</v>
+        <f>ReactionList!A39</f>
+        <v>mTORC1_p+_EIF4EBP1_[(Thr46)]</v>
       </c>
       <c r="C56" s="35" t="s">
         <v>87</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="E56" s="34" t="s">
-        <v>129</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="E56" s="34"/>
       <c r="F56" s="51"/>
       <c r="G56" s="36"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="12">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B57" s="35" t="str">
-        <f>ReactionList!A38</f>
-        <v>mTORC1_p+_EIF4EBP1_[(Thr37)]</v>
+        <f>ReactionList!A41</f>
+        <v>mTORC1_p+_EIF4EBP1_[(Thr70)]</v>
       </c>
       <c r="C57" s="35" t="s">
         <v>87</v>
@@ -5191,11 +5205,11 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="12">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B58" s="35" t="str">
-        <f>ReactionList!A39</f>
-        <v>mTORC1_p+_EIF4EBP1_[(Thr46)]</v>
+        <f>ReactionList!A40</f>
+        <v>mTORC1_p+_EIF4EBP1_[(Ser65)]</v>
       </c>
       <c r="C58" s="35" t="s">
         <v>87</v>
@@ -5208,46 +5222,46 @@
       <c r="G58" s="36"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="12">
-        <v>48</v>
-      </c>
-      <c r="B59" s="35" t="str">
-        <f>ReactionList!A41</f>
-        <v>mTORC1_p+_EIF4EBP1_[(Thr70)]</v>
-      </c>
-      <c r="C59" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="D59" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="E59" s="34"/>
+      <c r="A59" s="12"/>
+      <c r="B59" s="61" t="str">
+        <f>ReactionList!A42</f>
+        <v>PPM1G_p-_EIF4EBP1_[(Thr37)]</v>
+      </c>
+      <c r="C59" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="D59" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>244</v>
+      </c>
       <c r="F59" s="51"/>
       <c r="G59" s="36"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="12">
-        <v>49</v>
-      </c>
-      <c r="B60" s="35" t="str">
-        <f>ReactionList!A40</f>
-        <v>mTORC1_p+_EIF4EBP1_[(Ser65)]</v>
-      </c>
-      <c r="C60" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="D60" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="E60" s="34"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="61" t="str">
+        <f>ReactionList!A43</f>
+        <v>PPM1G_p-_EIF4EBP1_[(Thr46)]</v>
+      </c>
+      <c r="C60" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="D60" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>244</v>
+      </c>
       <c r="F60" s="51"/>
       <c r="G60" s="36"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="12"/>
       <c r="B61" s="61" t="str">
-        <f>ReactionList!A42</f>
-        <v>PPM1G_p-_EIF4EBP1_[(Thr37)]</v>
+        <f>ReactionList!A44</f>
+        <v>PPM1G_p-_EIF4EBP1_[(Ser65)]</v>
       </c>
       <c r="C61" s="61" t="s">
         <v>110</v>
@@ -5255,7 +5269,7 @@
       <c r="D61" s="62" t="s">
         <v>242</v>
       </c>
-      <c r="E61" s="13" t="s">
+      <c r="E61" s="3" t="s">
         <v>244</v>
       </c>
       <c r="F61" s="51"/>
@@ -5264,8 +5278,8 @@
     <row r="62" spans="1:8">
       <c r="A62" s="12"/>
       <c r="B62" s="61" t="str">
-        <f>ReactionList!A43</f>
-        <v>PPM1G_p-_EIF4EBP1_[(Thr46)]</v>
+        <f>ReactionList!A45</f>
+        <v>PPM1G_p-_EIF4EBP1_[(Thr70)]</v>
       </c>
       <c r="C62" s="61" t="s">
         <v>110</v>
@@ -5280,54 +5294,48 @@
       <c r="G62" s="36"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="12"/>
-      <c r="B63" s="61" t="str">
-        <f>ReactionList!A44</f>
-        <v>PPM1G_p-_EIF4EBP1_[(Ser65)]</v>
-      </c>
-      <c r="C63" s="61" t="s">
-        <v>110</v>
-      </c>
-      <c r="D63" s="62" t="s">
-        <v>242</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>244</v>
-      </c>
+      <c r="A63" s="12">
+        <v>54</v>
+      </c>
+      <c r="B63" s="30" t="str">
+        <f>ReactionList!A37</f>
+        <v>eIF4E_[A001]_ppi-_EIF4EBP1_[A001]</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D63" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="E63" s="34"/>
       <c r="F63" s="51"/>
       <c r="G63" s="36"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="12"/>
-      <c r="B64" s="61" t="str">
-        <f>ReactionList!A45</f>
-        <v>PPM1G_p-_EIF4EBP1_[(Thr70)]</v>
-      </c>
-      <c r="C64" s="61" t="s">
-        <v>110</v>
-      </c>
-      <c r="D64" s="62" t="s">
-        <v>242</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>244</v>
-      </c>
+      <c r="B64" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C64" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="D64" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="E64" s="34"/>
       <c r="F64" s="51"/>
       <c r="G64" s="36"/>
     </row>
     <row r="65" spans="1:256">
-      <c r="A65" s="12">
-        <v>54</v>
-      </c>
-      <c r="B65" s="30" t="str">
-        <f>ReactionList!A37</f>
-        <v>eIF4E_[A001]_ppi-_EIF4EBP1_[A001]</v>
-      </c>
-      <c r="C65" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="D65" s="47" t="s">
-        <v>133</v>
+      <c r="A65" s="12"/>
+      <c r="B65" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="C65" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="D65" s="29" t="s">
+        <v>136</v>
       </c>
       <c r="E65" s="34"/>
       <c r="F65" s="51"/>
@@ -5335,14 +5343,14 @@
     </row>
     <row r="66" spans="1:256">
       <c r="A66" s="12"/>
-      <c r="B66" s="56" t="s">
+      <c r="B66" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="C66" s="56" t="s">
+      <c r="C66" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="D66" s="31" t="s">
-        <v>135</v>
+      <c r="D66" s="29" t="s">
+        <v>137</v>
       </c>
       <c r="E66" s="34"/>
       <c r="F66" s="51"/>
@@ -5357,7 +5365,7 @@
         <v>101</v>
       </c>
       <c r="D67" s="29" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E67" s="34"/>
       <c r="F67" s="51"/>
@@ -5365,45 +5373,49 @@
     </row>
     <row r="68" spans="1:256">
       <c r="A68" s="12"/>
-      <c r="B68" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="C68" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="D68" s="29" t="s">
-        <v>137</v>
+      <c r="B68" s="30" t="str">
+        <f>ReactionList!A46</f>
+        <v>eIF4E_[A001]_ppi_eIF4G_[A002]</v>
+      </c>
+      <c r="C68" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D68" s="47" t="s">
+        <v>133</v>
       </c>
       <c r="E68" s="34"/>
       <c r="F68" s="51"/>
       <c r="G68" s="36"/>
     </row>
     <row r="69" spans="1:256">
-      <c r="A69" s="12"/>
-      <c r="B69" s="48" t="s">
+      <c r="A69" s="12">
+        <v>55</v>
+      </c>
+      <c r="B69" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="C69" s="48" t="s">
+      <c r="C69" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="D69" s="29" t="s">
-        <v>138</v>
+      <c r="D69" s="31" t="s">
+        <v>135</v>
       </c>
       <c r="E69" s="34"/>
       <c r="F69" s="51"/>
       <c r="G69" s="36"/>
     </row>
     <row r="70" spans="1:256">
-      <c r="A70" s="12"/>
-      <c r="B70" s="30" t="str">
-        <f>ReactionList!A46</f>
-        <v>eIF4E_[A001]_ppi_eIF4G_[A002]</v>
-      </c>
-      <c r="C70" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="D70" s="47" t="s">
-        <v>133</v>
+      <c r="A70" s="12">
+        <v>56</v>
+      </c>
+      <c r="B70" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="C70" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="D70" s="29" t="s">
+        <v>136</v>
       </c>
       <c r="E70" s="34"/>
       <c r="F70" s="51"/>
@@ -5411,16 +5423,16 @@
     </row>
     <row r="71" spans="1:256">
       <c r="A71" s="12">
-        <v>55</v>
-      </c>
-      <c r="B71" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B71" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="C71" s="56" t="s">
+      <c r="C71" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="D71" s="31" t="s">
-        <v>135</v>
+      <c r="D71" s="29" t="s">
+        <v>137</v>
       </c>
       <c r="E71" s="34"/>
       <c r="F71" s="51"/>
@@ -5428,7 +5440,7 @@
     </row>
     <row r="72" spans="1:256">
       <c r="A72" s="12">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B72" s="48" t="s">
         <v>134</v>
@@ -5437,111 +5449,607 @@
         <v>101</v>
       </c>
       <c r="D72" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="E72" s="34"/>
-      <c r="F72" s="51"/>
-      <c r="G72" s="36"/>
+        <v>138</v>
+      </c>
     </row>
     <row r="73" spans="1:256">
-      <c r="A73" s="12">
-        <v>57</v>
-      </c>
-      <c r="B73" s="48" t="s">
+      <c r="A73" s="12"/>
+      <c r="B73" s="52" t="str">
+        <f>ReactionList!A36</f>
+        <v>eIF4E_[A001]_ppi+_EIF4EBP1_[A001]</v>
+      </c>
+      <c r="C73" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="D73" s="47" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="1:256">
+      <c r="A74" s="12"/>
+      <c r="B74" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="C73" s="48" t="s">
+      <c r="C74" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="E73" s="34"/>
-      <c r="F73" s="51"/>
-      <c r="G73" s="36"/>
-    </row>
-    <row r="74" spans="1:256">
-      <c r="A74" s="12">
-        <v>58</v>
-      </c>
-      <c r="B74" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="C74" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="D74" s="29" t="s">
-        <v>138</v>
+      <c r="D74" s="31" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="75" spans="1:256">
       <c r="A75" s="12"/>
-      <c r="B75" s="52" t="str">
+      <c r="B75" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C75" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="D75" s="29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="76" spans="1:256">
+      <c r="A76" s="12"/>
+      <c r="B76" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="C76" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="D76" s="29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="77" spans="1:256">
+      <c r="A77" s="12"/>
+      <c r="B77" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="C77" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="D77" s="29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="78" spans="1:256">
+      <c r="A78" s="12"/>
+      <c r="B78" s="48" t="str">
         <f>ReactionList!A36</f>
         <v>eIF4E_[A001]_ppi+_EIF4EBP1_[A001]</v>
       </c>
-      <c r="C75" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="D75" s="47" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="76" spans="1:256">
-      <c r="A76" s="12"/>
-      <c r="B76" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="C76" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="D76" s="31" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="77" spans="1:256">
-      <c r="A77" s="12"/>
-      <c r="B77" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="C77" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="D77" s="29" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="78" spans="1:256">
-      <c r="A78" s="12"/>
-      <c r="B78" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="C78" s="48" t="s">
-        <v>101</v>
+      <c r="C78" s="45" t="s">
+        <v>87</v>
       </c>
       <c r="D78" s="29" t="s">
-        <v>137</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="6"/>
+      <c r="R78" s="6"/>
+      <c r="S78" s="6"/>
+      <c r="T78" s="6"/>
+      <c r="U78" s="6"/>
+      <c r="V78" s="6"/>
+      <c r="W78" s="6"/>
+      <c r="X78" s="6"/>
+      <c r="Y78" s="6"/>
+      <c r="Z78" s="6"/>
+      <c r="AA78" s="6"/>
+      <c r="AB78" s="6"/>
+      <c r="AC78" s="6"/>
+      <c r="AD78" s="6"/>
+      <c r="AE78" s="6"/>
+      <c r="AF78" s="6"/>
+      <c r="AG78" s="6"/>
+      <c r="AH78" s="6"/>
+      <c r="AI78" s="6"/>
+      <c r="AJ78" s="6"/>
+      <c r="AK78" s="6"/>
+      <c r="AL78" s="6"/>
+      <c r="AM78" s="6"/>
+      <c r="AN78" s="6"/>
+      <c r="AO78" s="6"/>
+      <c r="AP78" s="6"/>
+      <c r="AQ78" s="6"/>
+      <c r="AR78" s="6"/>
+      <c r="AS78" s="6"/>
+      <c r="AT78" s="6"/>
+      <c r="AU78" s="6"/>
+      <c r="AV78" s="6"/>
+      <c r="AW78" s="6"/>
+      <c r="AX78" s="6"/>
+      <c r="AY78" s="6"/>
+      <c r="AZ78" s="6"/>
+      <c r="BA78" s="6"/>
+      <c r="BB78" s="6"/>
+      <c r="BC78" s="6"/>
+      <c r="BD78" s="6"/>
+      <c r="BE78" s="6"/>
+      <c r="BF78" s="6"/>
+      <c r="BG78" s="6"/>
+      <c r="BH78" s="6"/>
+      <c r="BI78" s="6"/>
+      <c r="BJ78" s="6"/>
+      <c r="BK78" s="6"/>
+      <c r="BL78" s="6"/>
+      <c r="BM78" s="6"/>
+      <c r="BN78" s="6"/>
+      <c r="BO78" s="6"/>
+      <c r="BP78" s="6"/>
+      <c r="BQ78" s="6"/>
+      <c r="BR78" s="6"/>
+      <c r="BS78" s="6"/>
+      <c r="BT78" s="6"/>
+      <c r="BU78" s="6"/>
+      <c r="BV78" s="6"/>
+      <c r="BW78" s="6"/>
+      <c r="BX78" s="6"/>
+      <c r="BY78" s="6"/>
+      <c r="BZ78" s="6"/>
+      <c r="CA78" s="6"/>
+      <c r="CB78" s="6"/>
+      <c r="CC78" s="6"/>
+      <c r="CD78" s="6"/>
+      <c r="CE78" s="6"/>
+      <c r="CF78" s="6"/>
+      <c r="CG78" s="6"/>
+      <c r="CH78" s="6"/>
+      <c r="CI78" s="6"/>
+      <c r="CJ78" s="6"/>
+      <c r="CK78" s="6"/>
+      <c r="CL78" s="6"/>
+      <c r="CM78" s="6"/>
+      <c r="CN78" s="6"/>
+      <c r="CO78" s="6"/>
+      <c r="CP78" s="6"/>
+      <c r="CQ78" s="6"/>
+      <c r="CR78" s="6"/>
+      <c r="CS78" s="6"/>
+      <c r="CT78" s="6"/>
+      <c r="CU78" s="6"/>
+      <c r="CV78" s="6"/>
+      <c r="CW78" s="6"/>
+      <c r="CX78" s="6"/>
+      <c r="CY78" s="6"/>
+      <c r="CZ78" s="6"/>
+      <c r="DA78" s="6"/>
+      <c r="DB78" s="6"/>
+      <c r="DC78" s="6"/>
+      <c r="DD78" s="6"/>
+      <c r="DE78" s="6"/>
+      <c r="DF78" s="6"/>
+      <c r="DG78" s="6"/>
+      <c r="DH78" s="6"/>
+      <c r="DI78" s="6"/>
+      <c r="DJ78" s="6"/>
+      <c r="DK78" s="6"/>
+      <c r="DL78" s="6"/>
+      <c r="DM78" s="6"/>
+      <c r="DN78" s="6"/>
+      <c r="DO78" s="6"/>
+      <c r="DP78" s="6"/>
+      <c r="DQ78" s="6"/>
+      <c r="DR78" s="6"/>
+      <c r="DS78" s="6"/>
+      <c r="DT78" s="6"/>
+      <c r="DU78" s="6"/>
+      <c r="DV78" s="6"/>
+      <c r="DW78" s="6"/>
+      <c r="DX78" s="6"/>
+      <c r="DY78" s="6"/>
+      <c r="DZ78" s="6"/>
+      <c r="EA78" s="6"/>
+      <c r="EB78" s="6"/>
+      <c r="EC78" s="6"/>
+      <c r="ED78" s="6"/>
+      <c r="EE78" s="6"/>
+      <c r="EF78" s="6"/>
+      <c r="EG78" s="6"/>
+      <c r="EH78" s="6"/>
+      <c r="EI78" s="6"/>
+      <c r="EJ78" s="6"/>
+      <c r="EK78" s="6"/>
+      <c r="EL78" s="6"/>
+      <c r="EM78" s="6"/>
+      <c r="EN78" s="6"/>
+      <c r="EO78" s="6"/>
+      <c r="EP78" s="6"/>
+      <c r="EQ78" s="6"/>
+      <c r="ER78" s="6"/>
+      <c r="ES78" s="6"/>
+      <c r="ET78" s="6"/>
+      <c r="EU78" s="6"/>
+      <c r="EV78" s="6"/>
+      <c r="EW78" s="6"/>
+      <c r="EX78" s="6"/>
+      <c r="EY78" s="6"/>
+      <c r="EZ78" s="6"/>
+      <c r="FA78" s="6"/>
+      <c r="FB78" s="6"/>
+      <c r="FC78" s="6"/>
+      <c r="FD78" s="6"/>
+      <c r="FE78" s="6"/>
+      <c r="FF78" s="6"/>
+      <c r="FG78" s="6"/>
+      <c r="FH78" s="6"/>
+      <c r="FI78" s="6"/>
+      <c r="FJ78" s="6"/>
+      <c r="FK78" s="6"/>
+      <c r="FL78" s="6"/>
+      <c r="FM78" s="6"/>
+      <c r="FN78" s="6"/>
+      <c r="FO78" s="6"/>
+      <c r="FP78" s="6"/>
+      <c r="FQ78" s="6"/>
+      <c r="FR78" s="6"/>
+      <c r="FS78" s="6"/>
+      <c r="FT78" s="6"/>
+      <c r="FU78" s="6"/>
+      <c r="FV78" s="6"/>
+      <c r="FW78" s="6"/>
+      <c r="FX78" s="6"/>
+      <c r="FY78" s="6"/>
+      <c r="FZ78" s="6"/>
+      <c r="GA78" s="6"/>
+      <c r="GB78" s="6"/>
+      <c r="GC78" s="6"/>
+      <c r="GD78" s="6"/>
+      <c r="GE78" s="6"/>
+      <c r="GF78" s="6"/>
+      <c r="GG78" s="6"/>
+      <c r="GH78" s="6"/>
+      <c r="GI78" s="6"/>
+      <c r="GJ78" s="6"/>
+      <c r="GK78" s="6"/>
+      <c r="GL78" s="6"/>
+      <c r="GM78" s="6"/>
+      <c r="GN78" s="6"/>
+      <c r="GO78" s="6"/>
+      <c r="GP78" s="6"/>
+      <c r="GQ78" s="6"/>
+      <c r="GR78" s="6"/>
+      <c r="GS78" s="6"/>
+      <c r="GT78" s="6"/>
+      <c r="GU78" s="6"/>
+      <c r="GV78" s="6"/>
+      <c r="GW78" s="6"/>
+      <c r="GX78" s="6"/>
+      <c r="GY78" s="6"/>
+      <c r="GZ78" s="6"/>
+      <c r="HA78" s="6"/>
+      <c r="HB78" s="6"/>
+      <c r="HC78" s="6"/>
+      <c r="HD78" s="6"/>
+      <c r="HE78" s="6"/>
+      <c r="HF78" s="6"/>
+      <c r="HG78" s="6"/>
+      <c r="HH78" s="6"/>
+      <c r="HI78" s="6"/>
+      <c r="HJ78" s="6"/>
+      <c r="HK78" s="6"/>
+      <c r="HL78" s="6"/>
+      <c r="HM78" s="6"/>
+      <c r="HN78" s="6"/>
+      <c r="HO78" s="6"/>
+      <c r="HP78" s="6"/>
+      <c r="HQ78" s="6"/>
+      <c r="HR78" s="6"/>
+      <c r="HS78" s="6"/>
+      <c r="HT78" s="6"/>
+      <c r="HU78" s="6"/>
+      <c r="HV78" s="6"/>
+      <c r="HW78" s="6"/>
+      <c r="HX78" s="6"/>
+      <c r="HY78" s="6"/>
+      <c r="HZ78" s="6"/>
+      <c r="IA78" s="6"/>
+      <c r="IB78" s="6"/>
+      <c r="IC78" s="6"/>
+      <c r="ID78" s="6"/>
+      <c r="IE78" s="6"/>
+      <c r="IF78" s="6"/>
+      <c r="IG78" s="6"/>
+      <c r="IH78" s="6"/>
+      <c r="II78" s="6"/>
+      <c r="IJ78" s="6"/>
+      <c r="IK78" s="6"/>
+      <c r="IL78" s="6"/>
+      <c r="IM78" s="6"/>
+      <c r="IN78" s="6"/>
+      <c r="IO78" s="6"/>
+      <c r="IP78" s="6"/>
+      <c r="IQ78" s="6"/>
+      <c r="IR78" s="6"/>
+      <c r="IS78" s="6"/>
+      <c r="IT78" s="6"/>
+      <c r="IU78" s="6"/>
+      <c r="IV78" s="6"/>
     </row>
     <row r="79" spans="1:256">
       <c r="A79" s="12"/>
-      <c r="B79" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="C79" s="48" t="s">
-        <v>101</v>
+      <c r="B79" s="48" t="str">
+        <f>ReactionList!A36</f>
+        <v>eIF4E_[A001]_ppi+_EIF4EBP1_[A001]</v>
+      </c>
+      <c r="C79" s="45" t="s">
+        <v>87</v>
       </c>
       <c r="D79" s="29" t="s">
-        <v>138</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
+      <c r="P79" s="6"/>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="6"/>
+      <c r="T79" s="6"/>
+      <c r="U79" s="6"/>
+      <c r="V79" s="6"/>
+      <c r="W79" s="6"/>
+      <c r="X79" s="6"/>
+      <c r="Y79" s="6"/>
+      <c r="Z79" s="6"/>
+      <c r="AA79" s="6"/>
+      <c r="AB79" s="6"/>
+      <c r="AC79" s="6"/>
+      <c r="AD79" s="6"/>
+      <c r="AE79" s="6"/>
+      <c r="AF79" s="6"/>
+      <c r="AG79" s="6"/>
+      <c r="AH79" s="6"/>
+      <c r="AI79" s="6"/>
+      <c r="AJ79" s="6"/>
+      <c r="AK79" s="6"/>
+      <c r="AL79" s="6"/>
+      <c r="AM79" s="6"/>
+      <c r="AN79" s="6"/>
+      <c r="AO79" s="6"/>
+      <c r="AP79" s="6"/>
+      <c r="AQ79" s="6"/>
+      <c r="AR79" s="6"/>
+      <c r="AS79" s="6"/>
+      <c r="AT79" s="6"/>
+      <c r="AU79" s="6"/>
+      <c r="AV79" s="6"/>
+      <c r="AW79" s="6"/>
+      <c r="AX79" s="6"/>
+      <c r="AY79" s="6"/>
+      <c r="AZ79" s="6"/>
+      <c r="BA79" s="6"/>
+      <c r="BB79" s="6"/>
+      <c r="BC79" s="6"/>
+      <c r="BD79" s="6"/>
+      <c r="BE79" s="6"/>
+      <c r="BF79" s="6"/>
+      <c r="BG79" s="6"/>
+      <c r="BH79" s="6"/>
+      <c r="BI79" s="6"/>
+      <c r="BJ79" s="6"/>
+      <c r="BK79" s="6"/>
+      <c r="BL79" s="6"/>
+      <c r="BM79" s="6"/>
+      <c r="BN79" s="6"/>
+      <c r="BO79" s="6"/>
+      <c r="BP79" s="6"/>
+      <c r="BQ79" s="6"/>
+      <c r="BR79" s="6"/>
+      <c r="BS79" s="6"/>
+      <c r="BT79" s="6"/>
+      <c r="BU79" s="6"/>
+      <c r="BV79" s="6"/>
+      <c r="BW79" s="6"/>
+      <c r="BX79" s="6"/>
+      <c r="BY79" s="6"/>
+      <c r="BZ79" s="6"/>
+      <c r="CA79" s="6"/>
+      <c r="CB79" s="6"/>
+      <c r="CC79" s="6"/>
+      <c r="CD79" s="6"/>
+      <c r="CE79" s="6"/>
+      <c r="CF79" s="6"/>
+      <c r="CG79" s="6"/>
+      <c r="CH79" s="6"/>
+      <c r="CI79" s="6"/>
+      <c r="CJ79" s="6"/>
+      <c r="CK79" s="6"/>
+      <c r="CL79" s="6"/>
+      <c r="CM79" s="6"/>
+      <c r="CN79" s="6"/>
+      <c r="CO79" s="6"/>
+      <c r="CP79" s="6"/>
+      <c r="CQ79" s="6"/>
+      <c r="CR79" s="6"/>
+      <c r="CS79" s="6"/>
+      <c r="CT79" s="6"/>
+      <c r="CU79" s="6"/>
+      <c r="CV79" s="6"/>
+      <c r="CW79" s="6"/>
+      <c r="CX79" s="6"/>
+      <c r="CY79" s="6"/>
+      <c r="CZ79" s="6"/>
+      <c r="DA79" s="6"/>
+      <c r="DB79" s="6"/>
+      <c r="DC79" s="6"/>
+      <c r="DD79" s="6"/>
+      <c r="DE79" s="6"/>
+      <c r="DF79" s="6"/>
+      <c r="DG79" s="6"/>
+      <c r="DH79" s="6"/>
+      <c r="DI79" s="6"/>
+      <c r="DJ79" s="6"/>
+      <c r="DK79" s="6"/>
+      <c r="DL79" s="6"/>
+      <c r="DM79" s="6"/>
+      <c r="DN79" s="6"/>
+      <c r="DO79" s="6"/>
+      <c r="DP79" s="6"/>
+      <c r="DQ79" s="6"/>
+      <c r="DR79" s="6"/>
+      <c r="DS79" s="6"/>
+      <c r="DT79" s="6"/>
+      <c r="DU79" s="6"/>
+      <c r="DV79" s="6"/>
+      <c r="DW79" s="6"/>
+      <c r="DX79" s="6"/>
+      <c r="DY79" s="6"/>
+      <c r="DZ79" s="6"/>
+      <c r="EA79" s="6"/>
+      <c r="EB79" s="6"/>
+      <c r="EC79" s="6"/>
+      <c r="ED79" s="6"/>
+      <c r="EE79" s="6"/>
+      <c r="EF79" s="6"/>
+      <c r="EG79" s="6"/>
+      <c r="EH79" s="6"/>
+      <c r="EI79" s="6"/>
+      <c r="EJ79" s="6"/>
+      <c r="EK79" s="6"/>
+      <c r="EL79" s="6"/>
+      <c r="EM79" s="6"/>
+      <c r="EN79" s="6"/>
+      <c r="EO79" s="6"/>
+      <c r="EP79" s="6"/>
+      <c r="EQ79" s="6"/>
+      <c r="ER79" s="6"/>
+      <c r="ES79" s="6"/>
+      <c r="ET79" s="6"/>
+      <c r="EU79" s="6"/>
+      <c r="EV79" s="6"/>
+      <c r="EW79" s="6"/>
+      <c r="EX79" s="6"/>
+      <c r="EY79" s="6"/>
+      <c r="EZ79" s="6"/>
+      <c r="FA79" s="6"/>
+      <c r="FB79" s="6"/>
+      <c r="FC79" s="6"/>
+      <c r="FD79" s="6"/>
+      <c r="FE79" s="6"/>
+      <c r="FF79" s="6"/>
+      <c r="FG79" s="6"/>
+      <c r="FH79" s="6"/>
+      <c r="FI79" s="6"/>
+      <c r="FJ79" s="6"/>
+      <c r="FK79" s="6"/>
+      <c r="FL79" s="6"/>
+      <c r="FM79" s="6"/>
+      <c r="FN79" s="6"/>
+      <c r="FO79" s="6"/>
+      <c r="FP79" s="6"/>
+      <c r="FQ79" s="6"/>
+      <c r="FR79" s="6"/>
+      <c r="FS79" s="6"/>
+      <c r="FT79" s="6"/>
+      <c r="FU79" s="6"/>
+      <c r="FV79" s="6"/>
+      <c r="FW79" s="6"/>
+      <c r="FX79" s="6"/>
+      <c r="FY79" s="6"/>
+      <c r="FZ79" s="6"/>
+      <c r="GA79" s="6"/>
+      <c r="GB79" s="6"/>
+      <c r="GC79" s="6"/>
+      <c r="GD79" s="6"/>
+      <c r="GE79" s="6"/>
+      <c r="GF79" s="6"/>
+      <c r="GG79" s="6"/>
+      <c r="GH79" s="6"/>
+      <c r="GI79" s="6"/>
+      <c r="GJ79" s="6"/>
+      <c r="GK79" s="6"/>
+      <c r="GL79" s="6"/>
+      <c r="GM79" s="6"/>
+      <c r="GN79" s="6"/>
+      <c r="GO79" s="6"/>
+      <c r="GP79" s="6"/>
+      <c r="GQ79" s="6"/>
+      <c r="GR79" s="6"/>
+      <c r="GS79" s="6"/>
+      <c r="GT79" s="6"/>
+      <c r="GU79" s="6"/>
+      <c r="GV79" s="6"/>
+      <c r="GW79" s="6"/>
+      <c r="GX79" s="6"/>
+      <c r="GY79" s="6"/>
+      <c r="GZ79" s="6"/>
+      <c r="HA79" s="6"/>
+      <c r="HB79" s="6"/>
+      <c r="HC79" s="6"/>
+      <c r="HD79" s="6"/>
+      <c r="HE79" s="6"/>
+      <c r="HF79" s="6"/>
+      <c r="HG79" s="6"/>
+      <c r="HH79" s="6"/>
+      <c r="HI79" s="6"/>
+      <c r="HJ79" s="6"/>
+      <c r="HK79" s="6"/>
+      <c r="HL79" s="6"/>
+      <c r="HM79" s="6"/>
+      <c r="HN79" s="6"/>
+      <c r="HO79" s="6"/>
+      <c r="HP79" s="6"/>
+      <c r="HQ79" s="6"/>
+      <c r="HR79" s="6"/>
+      <c r="HS79" s="6"/>
+      <c r="HT79" s="6"/>
+      <c r="HU79" s="6"/>
+      <c r="HV79" s="6"/>
+      <c r="HW79" s="6"/>
+      <c r="HX79" s="6"/>
+      <c r="HY79" s="6"/>
+      <c r="HZ79" s="6"/>
+      <c r="IA79" s="6"/>
+      <c r="IB79" s="6"/>
+      <c r="IC79" s="6"/>
+      <c r="ID79" s="6"/>
+      <c r="IE79" s="6"/>
+      <c r="IF79" s="6"/>
+      <c r="IG79" s="6"/>
+      <c r="IH79" s="6"/>
+      <c r="II79" s="6"/>
+      <c r="IJ79" s="6"/>
+      <c r="IK79" s="6"/>
+      <c r="IL79" s="6"/>
+      <c r="IM79" s="6"/>
+      <c r="IN79" s="6"/>
+      <c r="IO79" s="6"/>
+      <c r="IP79" s="6"/>
+      <c r="IQ79" s="6"/>
+      <c r="IR79" s="6"/>
+      <c r="IS79" s="6"/>
+      <c r="IT79" s="6"/>
+      <c r="IU79" s="6"/>
+      <c r="IV79" s="6"/>
     </row>
     <row r="80" spans="1:256">
       <c r="A80" s="12"/>
       <c r="B80" s="48" t="str">
-        <f>ReactionList!A36</f>
-        <v>eIF4E_[A001]_ppi+_EIF4EBP1_[A001]</v>
-      </c>
-      <c r="C80" s="45" t="s">
+        <f>ReactionList!A46</f>
+        <v>eIF4E_[A001]_ppi_eIF4G_[A002]</v>
+      </c>
+      <c r="C80" s="54" t="s">
         <v>87</v>
       </c>
       <c r="D80" s="29" t="s">
@@ -5803,14 +6311,14 @@
     <row r="81" spans="1:256">
       <c r="A81" s="12"/>
       <c r="B81" s="48" t="str">
-        <f>ReactionList!A36</f>
-        <v>eIF4E_[A001]_ppi+_EIF4EBP1_[A001]</v>
+        <f>ReactionList!A46</f>
+        <v>eIF4E_[A001]_ppi_eIF4G_[A002]</v>
       </c>
       <c r="C81" s="45" t="s">
         <v>87</v>
       </c>
       <c r="D81" s="29" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
@@ -6071,554 +6579,30 @@
         <f>ReactionList!A46</f>
         <v>eIF4E_[A001]_ppi_eIF4G_[A002]</v>
       </c>
-      <c r="C82" s="54" t="s">
-        <v>87</v>
+      <c r="C82" s="48" t="s">
+        <v>110</v>
       </c>
       <c r="D82" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
-      <c r="L82" s="6"/>
-      <c r="M82" s="6"/>
-      <c r="N82" s="6"/>
-      <c r="O82" s="6"/>
-      <c r="P82" s="6"/>
-      <c r="Q82" s="6"/>
-      <c r="R82" s="6"/>
-      <c r="S82" s="6"/>
-      <c r="T82" s="6"/>
-      <c r="U82" s="6"/>
-      <c r="V82" s="6"/>
-      <c r="W82" s="6"/>
-      <c r="X82" s="6"/>
-      <c r="Y82" s="6"/>
-      <c r="Z82" s="6"/>
-      <c r="AA82" s="6"/>
-      <c r="AB82" s="6"/>
-      <c r="AC82" s="6"/>
-      <c r="AD82" s="6"/>
-      <c r="AE82" s="6"/>
-      <c r="AF82" s="6"/>
-      <c r="AG82" s="6"/>
-      <c r="AH82" s="6"/>
-      <c r="AI82" s="6"/>
-      <c r="AJ82" s="6"/>
-      <c r="AK82" s="6"/>
-      <c r="AL82" s="6"/>
-      <c r="AM82" s="6"/>
-      <c r="AN82" s="6"/>
-      <c r="AO82" s="6"/>
-      <c r="AP82" s="6"/>
-      <c r="AQ82" s="6"/>
-      <c r="AR82" s="6"/>
-      <c r="AS82" s="6"/>
-      <c r="AT82" s="6"/>
-      <c r="AU82" s="6"/>
-      <c r="AV82" s="6"/>
-      <c r="AW82" s="6"/>
-      <c r="AX82" s="6"/>
-      <c r="AY82" s="6"/>
-      <c r="AZ82" s="6"/>
-      <c r="BA82" s="6"/>
-      <c r="BB82" s="6"/>
-      <c r="BC82" s="6"/>
-      <c r="BD82" s="6"/>
-      <c r="BE82" s="6"/>
-      <c r="BF82" s="6"/>
-      <c r="BG82" s="6"/>
-      <c r="BH82" s="6"/>
-      <c r="BI82" s="6"/>
-      <c r="BJ82" s="6"/>
-      <c r="BK82" s="6"/>
-      <c r="BL82" s="6"/>
-      <c r="BM82" s="6"/>
-      <c r="BN82" s="6"/>
-      <c r="BO82" s="6"/>
-      <c r="BP82" s="6"/>
-      <c r="BQ82" s="6"/>
-      <c r="BR82" s="6"/>
-      <c r="BS82" s="6"/>
-      <c r="BT82" s="6"/>
-      <c r="BU82" s="6"/>
-      <c r="BV82" s="6"/>
-      <c r="BW82" s="6"/>
-      <c r="BX82" s="6"/>
-      <c r="BY82" s="6"/>
-      <c r="BZ82" s="6"/>
-      <c r="CA82" s="6"/>
-      <c r="CB82" s="6"/>
-      <c r="CC82" s="6"/>
-      <c r="CD82" s="6"/>
-      <c r="CE82" s="6"/>
-      <c r="CF82" s="6"/>
-      <c r="CG82" s="6"/>
-      <c r="CH82" s="6"/>
-      <c r="CI82" s="6"/>
-      <c r="CJ82" s="6"/>
-      <c r="CK82" s="6"/>
-      <c r="CL82" s="6"/>
-      <c r="CM82" s="6"/>
-      <c r="CN82" s="6"/>
-      <c r="CO82" s="6"/>
-      <c r="CP82" s="6"/>
-      <c r="CQ82" s="6"/>
-      <c r="CR82" s="6"/>
-      <c r="CS82" s="6"/>
-      <c r="CT82" s="6"/>
-      <c r="CU82" s="6"/>
-      <c r="CV82" s="6"/>
-      <c r="CW82" s="6"/>
-      <c r="CX82" s="6"/>
-      <c r="CY82" s="6"/>
-      <c r="CZ82" s="6"/>
-      <c r="DA82" s="6"/>
-      <c r="DB82" s="6"/>
-      <c r="DC82" s="6"/>
-      <c r="DD82" s="6"/>
-      <c r="DE82" s="6"/>
-      <c r="DF82" s="6"/>
-      <c r="DG82" s="6"/>
-      <c r="DH82" s="6"/>
-      <c r="DI82" s="6"/>
-      <c r="DJ82" s="6"/>
-      <c r="DK82" s="6"/>
-      <c r="DL82" s="6"/>
-      <c r="DM82" s="6"/>
-      <c r="DN82" s="6"/>
-      <c r="DO82" s="6"/>
-      <c r="DP82" s="6"/>
-      <c r="DQ82" s="6"/>
-      <c r="DR82" s="6"/>
-      <c r="DS82" s="6"/>
-      <c r="DT82" s="6"/>
-      <c r="DU82" s="6"/>
-      <c r="DV82" s="6"/>
-      <c r="DW82" s="6"/>
-      <c r="DX82" s="6"/>
-      <c r="DY82" s="6"/>
-      <c r="DZ82" s="6"/>
-      <c r="EA82" s="6"/>
-      <c r="EB82" s="6"/>
-      <c r="EC82" s="6"/>
-      <c r="ED82" s="6"/>
-      <c r="EE82" s="6"/>
-      <c r="EF82" s="6"/>
-      <c r="EG82" s="6"/>
-      <c r="EH82" s="6"/>
-      <c r="EI82" s="6"/>
-      <c r="EJ82" s="6"/>
-      <c r="EK82" s="6"/>
-      <c r="EL82" s="6"/>
-      <c r="EM82" s="6"/>
-      <c r="EN82" s="6"/>
-      <c r="EO82" s="6"/>
-      <c r="EP82" s="6"/>
-      <c r="EQ82" s="6"/>
-      <c r="ER82" s="6"/>
-      <c r="ES82" s="6"/>
-      <c r="ET82" s="6"/>
-      <c r="EU82" s="6"/>
-      <c r="EV82" s="6"/>
-      <c r="EW82" s="6"/>
-      <c r="EX82" s="6"/>
-      <c r="EY82" s="6"/>
-      <c r="EZ82" s="6"/>
-      <c r="FA82" s="6"/>
-      <c r="FB82" s="6"/>
-      <c r="FC82" s="6"/>
-      <c r="FD82" s="6"/>
-      <c r="FE82" s="6"/>
-      <c r="FF82" s="6"/>
-      <c r="FG82" s="6"/>
-      <c r="FH82" s="6"/>
-      <c r="FI82" s="6"/>
-      <c r="FJ82" s="6"/>
-      <c r="FK82" s="6"/>
-      <c r="FL82" s="6"/>
-      <c r="FM82" s="6"/>
-      <c r="FN82" s="6"/>
-      <c r="FO82" s="6"/>
-      <c r="FP82" s="6"/>
-      <c r="FQ82" s="6"/>
-      <c r="FR82" s="6"/>
-      <c r="FS82" s="6"/>
-      <c r="FT82" s="6"/>
-      <c r="FU82" s="6"/>
-      <c r="FV82" s="6"/>
-      <c r="FW82" s="6"/>
-      <c r="FX82" s="6"/>
-      <c r="FY82" s="6"/>
-      <c r="FZ82" s="6"/>
-      <c r="GA82" s="6"/>
-      <c r="GB82" s="6"/>
-      <c r="GC82" s="6"/>
-      <c r="GD82" s="6"/>
-      <c r="GE82" s="6"/>
-      <c r="GF82" s="6"/>
-      <c r="GG82" s="6"/>
-      <c r="GH82" s="6"/>
-      <c r="GI82" s="6"/>
-      <c r="GJ82" s="6"/>
-      <c r="GK82" s="6"/>
-      <c r="GL82" s="6"/>
-      <c r="GM82" s="6"/>
-      <c r="GN82" s="6"/>
-      <c r="GO82" s="6"/>
-      <c r="GP82" s="6"/>
-      <c r="GQ82" s="6"/>
-      <c r="GR82" s="6"/>
-      <c r="GS82" s="6"/>
-      <c r="GT82" s="6"/>
-      <c r="GU82" s="6"/>
-      <c r="GV82" s="6"/>
-      <c r="GW82" s="6"/>
-      <c r="GX82" s="6"/>
-      <c r="GY82" s="6"/>
-      <c r="GZ82" s="6"/>
-      <c r="HA82" s="6"/>
-      <c r="HB82" s="6"/>
-      <c r="HC82" s="6"/>
-      <c r="HD82" s="6"/>
-      <c r="HE82" s="6"/>
-      <c r="HF82" s="6"/>
-      <c r="HG82" s="6"/>
-      <c r="HH82" s="6"/>
-      <c r="HI82" s="6"/>
-      <c r="HJ82" s="6"/>
-      <c r="HK82" s="6"/>
-      <c r="HL82" s="6"/>
-      <c r="HM82" s="6"/>
-      <c r="HN82" s="6"/>
-      <c r="HO82" s="6"/>
-      <c r="HP82" s="6"/>
-      <c r="HQ82" s="6"/>
-      <c r="HR82" s="6"/>
-      <c r="HS82" s="6"/>
-      <c r="HT82" s="6"/>
-      <c r="HU82" s="6"/>
-      <c r="HV82" s="6"/>
-      <c r="HW82" s="6"/>
-      <c r="HX82" s="6"/>
-      <c r="HY82" s="6"/>
-      <c r="HZ82" s="6"/>
-      <c r="IA82" s="6"/>
-      <c r="IB82" s="6"/>
-      <c r="IC82" s="6"/>
-      <c r="ID82" s="6"/>
-      <c r="IE82" s="6"/>
-      <c r="IF82" s="6"/>
-      <c r="IG82" s="6"/>
-      <c r="IH82" s="6"/>
-      <c r="II82" s="6"/>
-      <c r="IJ82" s="6"/>
-      <c r="IK82" s="6"/>
-      <c r="IL82" s="6"/>
-      <c r="IM82" s="6"/>
-      <c r="IN82" s="6"/>
-      <c r="IO82" s="6"/>
-      <c r="IP82" s="6"/>
-      <c r="IQ82" s="6"/>
-      <c r="IR82" s="6"/>
-      <c r="IS82" s="6"/>
-      <c r="IT82" s="6"/>
-      <c r="IU82" s="6"/>
-      <c r="IV82" s="6"/>
+        <v>142</v>
+      </c>
     </row>
     <row r="83" spans="1:256">
       <c r="A83" s="12"/>
-      <c r="B83" s="48" t="str">
-        <f>ReactionList!A46</f>
-        <v>eIF4E_[A001]_ppi_eIF4G_[A002]</v>
-      </c>
-      <c r="C83" s="45" t="s">
+      <c r="B83" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="C83" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="D83" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
-      <c r="L83" s="6"/>
-      <c r="M83" s="6"/>
-      <c r="N83" s="6"/>
-      <c r="O83" s="6"/>
-      <c r="P83" s="6"/>
-      <c r="Q83" s="6"/>
-      <c r="R83" s="6"/>
-      <c r="S83" s="6"/>
-      <c r="T83" s="6"/>
-      <c r="U83" s="6"/>
-      <c r="V83" s="6"/>
-      <c r="W83" s="6"/>
-      <c r="X83" s="6"/>
-      <c r="Y83" s="6"/>
-      <c r="Z83" s="6"/>
-      <c r="AA83" s="6"/>
-      <c r="AB83" s="6"/>
-      <c r="AC83" s="6"/>
-      <c r="AD83" s="6"/>
-      <c r="AE83" s="6"/>
-      <c r="AF83" s="6"/>
-      <c r="AG83" s="6"/>
-      <c r="AH83" s="6"/>
-      <c r="AI83" s="6"/>
-      <c r="AJ83" s="6"/>
-      <c r="AK83" s="6"/>
-      <c r="AL83" s="6"/>
-      <c r="AM83" s="6"/>
-      <c r="AN83" s="6"/>
-      <c r="AO83" s="6"/>
-      <c r="AP83" s="6"/>
-      <c r="AQ83" s="6"/>
-      <c r="AR83" s="6"/>
-      <c r="AS83" s="6"/>
-      <c r="AT83" s="6"/>
-      <c r="AU83" s="6"/>
-      <c r="AV83" s="6"/>
-      <c r="AW83" s="6"/>
-      <c r="AX83" s="6"/>
-      <c r="AY83" s="6"/>
-      <c r="AZ83" s="6"/>
-      <c r="BA83" s="6"/>
-      <c r="BB83" s="6"/>
-      <c r="BC83" s="6"/>
-      <c r="BD83" s="6"/>
-      <c r="BE83" s="6"/>
-      <c r="BF83" s="6"/>
-      <c r="BG83" s="6"/>
-      <c r="BH83" s="6"/>
-      <c r="BI83" s="6"/>
-      <c r="BJ83" s="6"/>
-      <c r="BK83" s="6"/>
-      <c r="BL83" s="6"/>
-      <c r="BM83" s="6"/>
-      <c r="BN83" s="6"/>
-      <c r="BO83" s="6"/>
-      <c r="BP83" s="6"/>
-      <c r="BQ83" s="6"/>
-      <c r="BR83" s="6"/>
-      <c r="BS83" s="6"/>
-      <c r="BT83" s="6"/>
-      <c r="BU83" s="6"/>
-      <c r="BV83" s="6"/>
-      <c r="BW83" s="6"/>
-      <c r="BX83" s="6"/>
-      <c r="BY83" s="6"/>
-      <c r="BZ83" s="6"/>
-      <c r="CA83" s="6"/>
-      <c r="CB83" s="6"/>
-      <c r="CC83" s="6"/>
-      <c r="CD83" s="6"/>
-      <c r="CE83" s="6"/>
-      <c r="CF83" s="6"/>
-      <c r="CG83" s="6"/>
-      <c r="CH83" s="6"/>
-      <c r="CI83" s="6"/>
-      <c r="CJ83" s="6"/>
-      <c r="CK83" s="6"/>
-      <c r="CL83" s="6"/>
-      <c r="CM83" s="6"/>
-      <c r="CN83" s="6"/>
-      <c r="CO83" s="6"/>
-      <c r="CP83" s="6"/>
-      <c r="CQ83" s="6"/>
-      <c r="CR83" s="6"/>
-      <c r="CS83" s="6"/>
-      <c r="CT83" s="6"/>
-      <c r="CU83" s="6"/>
-      <c r="CV83" s="6"/>
-      <c r="CW83" s="6"/>
-      <c r="CX83" s="6"/>
-      <c r="CY83" s="6"/>
-      <c r="CZ83" s="6"/>
-      <c r="DA83" s="6"/>
-      <c r="DB83" s="6"/>
-      <c r="DC83" s="6"/>
-      <c r="DD83" s="6"/>
-      <c r="DE83" s="6"/>
-      <c r="DF83" s="6"/>
-      <c r="DG83" s="6"/>
-      <c r="DH83" s="6"/>
-      <c r="DI83" s="6"/>
-      <c r="DJ83" s="6"/>
-      <c r="DK83" s="6"/>
-      <c r="DL83" s="6"/>
-      <c r="DM83" s="6"/>
-      <c r="DN83" s="6"/>
-      <c r="DO83" s="6"/>
-      <c r="DP83" s="6"/>
-      <c r="DQ83" s="6"/>
-      <c r="DR83" s="6"/>
-      <c r="DS83" s="6"/>
-      <c r="DT83" s="6"/>
-      <c r="DU83" s="6"/>
-      <c r="DV83" s="6"/>
-      <c r="DW83" s="6"/>
-      <c r="DX83" s="6"/>
-      <c r="DY83" s="6"/>
-      <c r="DZ83" s="6"/>
-      <c r="EA83" s="6"/>
-      <c r="EB83" s="6"/>
-      <c r="EC83" s="6"/>
-      <c r="ED83" s="6"/>
-      <c r="EE83" s="6"/>
-      <c r="EF83" s="6"/>
-      <c r="EG83" s="6"/>
-      <c r="EH83" s="6"/>
-      <c r="EI83" s="6"/>
-      <c r="EJ83" s="6"/>
-      <c r="EK83" s="6"/>
-      <c r="EL83" s="6"/>
-      <c r="EM83" s="6"/>
-      <c r="EN83" s="6"/>
-      <c r="EO83" s="6"/>
-      <c r="EP83" s="6"/>
-      <c r="EQ83" s="6"/>
-      <c r="ER83" s="6"/>
-      <c r="ES83" s="6"/>
-      <c r="ET83" s="6"/>
-      <c r="EU83" s="6"/>
-      <c r="EV83" s="6"/>
-      <c r="EW83" s="6"/>
-      <c r="EX83" s="6"/>
-      <c r="EY83" s="6"/>
-      <c r="EZ83" s="6"/>
-      <c r="FA83" s="6"/>
-      <c r="FB83" s="6"/>
-      <c r="FC83" s="6"/>
-      <c r="FD83" s="6"/>
-      <c r="FE83" s="6"/>
-      <c r="FF83" s="6"/>
-      <c r="FG83" s="6"/>
-      <c r="FH83" s="6"/>
-      <c r="FI83" s="6"/>
-      <c r="FJ83" s="6"/>
-      <c r="FK83" s="6"/>
-      <c r="FL83" s="6"/>
-      <c r="FM83" s="6"/>
-      <c r="FN83" s="6"/>
-      <c r="FO83" s="6"/>
-      <c r="FP83" s="6"/>
-      <c r="FQ83" s="6"/>
-      <c r="FR83" s="6"/>
-      <c r="FS83" s="6"/>
-      <c r="FT83" s="6"/>
-      <c r="FU83" s="6"/>
-      <c r="FV83" s="6"/>
-      <c r="FW83" s="6"/>
-      <c r="FX83" s="6"/>
-      <c r="FY83" s="6"/>
-      <c r="FZ83" s="6"/>
-      <c r="GA83" s="6"/>
-      <c r="GB83" s="6"/>
-      <c r="GC83" s="6"/>
-      <c r="GD83" s="6"/>
-      <c r="GE83" s="6"/>
-      <c r="GF83" s="6"/>
-      <c r="GG83" s="6"/>
-      <c r="GH83" s="6"/>
-      <c r="GI83" s="6"/>
-      <c r="GJ83" s="6"/>
-      <c r="GK83" s="6"/>
-      <c r="GL83" s="6"/>
-      <c r="GM83" s="6"/>
-      <c r="GN83" s="6"/>
-      <c r="GO83" s="6"/>
-      <c r="GP83" s="6"/>
-      <c r="GQ83" s="6"/>
-      <c r="GR83" s="6"/>
-      <c r="GS83" s="6"/>
-      <c r="GT83" s="6"/>
-      <c r="GU83" s="6"/>
-      <c r="GV83" s="6"/>
-      <c r="GW83" s="6"/>
-      <c r="GX83" s="6"/>
-      <c r="GY83" s="6"/>
-      <c r="GZ83" s="6"/>
-      <c r="HA83" s="6"/>
-      <c r="HB83" s="6"/>
-      <c r="HC83" s="6"/>
-      <c r="HD83" s="6"/>
-      <c r="HE83" s="6"/>
-      <c r="HF83" s="6"/>
-      <c r="HG83" s="6"/>
-      <c r="HH83" s="6"/>
-      <c r="HI83" s="6"/>
-      <c r="HJ83" s="6"/>
-      <c r="HK83" s="6"/>
-      <c r="HL83" s="6"/>
-      <c r="HM83" s="6"/>
-      <c r="HN83" s="6"/>
-      <c r="HO83" s="6"/>
-      <c r="HP83" s="6"/>
-      <c r="HQ83" s="6"/>
-      <c r="HR83" s="6"/>
-      <c r="HS83" s="6"/>
-      <c r="HT83" s="6"/>
-      <c r="HU83" s="6"/>
-      <c r="HV83" s="6"/>
-      <c r="HW83" s="6"/>
-      <c r="HX83" s="6"/>
-      <c r="HY83" s="6"/>
-      <c r="HZ83" s="6"/>
-      <c r="IA83" s="6"/>
-      <c r="IB83" s="6"/>
-      <c r="IC83" s="6"/>
-      <c r="ID83" s="6"/>
-      <c r="IE83" s="6"/>
-      <c r="IF83" s="6"/>
-      <c r="IG83" s="6"/>
-      <c r="IH83" s="6"/>
-      <c r="II83" s="6"/>
-      <c r="IJ83" s="6"/>
-      <c r="IK83" s="6"/>
-      <c r="IL83" s="6"/>
-      <c r="IM83" s="6"/>
-      <c r="IN83" s="6"/>
-      <c r="IO83" s="6"/>
-      <c r="IP83" s="6"/>
-      <c r="IQ83" s="6"/>
-      <c r="IR83" s="6"/>
-      <c r="IS83" s="6"/>
-      <c r="IT83" s="6"/>
-      <c r="IU83" s="6"/>
-      <c r="IV83" s="6"/>
+      <c r="D83" s="47" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="84" spans="1:256">
       <c r="A84" s="12"/>
-      <c r="B84" s="48" t="str">
-        <f>ReactionList!A46</f>
-        <v>eIF4E_[A001]_ppi_eIF4G_[A002]</v>
-      </c>
-      <c r="C84" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="D84" s="29" t="s">
-        <v>142</v>
-      </c>
     </row>
     <row r="85" spans="1:256">
       <c r="A85" s="12"/>
-      <c r="B85" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="C85" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="D85" s="47" t="s">
-        <v>144</v>
-      </c>
     </row>
     <row r="86" spans="1:256">
       <c r="A86" s="12"/>
@@ -6812,32 +6796,26 @@
     <row r="149" spans="1:1">
       <c r="A149" s="12"/>
     </row>
-    <row r="150" spans="1:1">
-      <c r="A150" s="12"/>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" s="12"/>
-    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <conditionalFormatting sqref="D51 B33:B41">
+  <conditionalFormatting sqref="D49 B31:B39">
     <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("Error",B33)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Error",B31)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H64854:H64864 H2:H26 E74:H85 C74:C85 C69 B86:H151 A152:H64853 H29:H73">
+  <conditionalFormatting sqref="H64852:H64862 E72:H83 C72:C83 C67 B84:H149 A150:H64851 H27:H71 H2:H24">
     <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
       <formula>ISERROR(A2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27:H28">
+  <conditionalFormatting sqref="H25:H26">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>ISERROR(H27)</formula>
+      <formula>ISERROR(H25)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
+  <conditionalFormatting sqref="E59">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("Error",E61)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Error",E59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>

--- a/mtor/mTOR56.xlsx
+++ b/mtor/mTOR56.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yassenroussev/Desktop/mTOR/mtor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318AEDF8-E2C9-F14A-B839-F39E5C447BEB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2FE645-9F08-114B-88CF-E9FA955EEE8D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="256">
   <si>
     <t>!!SBtab TableType='rxnconReactionList' TableName='ReactionList'</t>
   </si>
@@ -843,7 +843,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -973,6 +973,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1114,7 +1120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1234,6 +1240,8 @@
     <xf numFmtId="0" fontId="4" fillId="21" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4170,10 +4178,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV149"/>
+  <dimension ref="A1:IV148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" zoomScaleSheetLayoutView="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -4419,14 +4427,14 @@
       <c r="A14" s="12">
         <v>7</v>
       </c>
-      <c r="B14" s="41" t="str">
+      <c r="B14" s="71" t="str">
         <f>ReactionList!A11</f>
         <v>PI3K_p+_PI_[(3)]</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="71" t="s">
         <v>96</v>
       </c>
       <c r="E14" s="37" t="s">
@@ -4439,14 +4447,14 @@
       <c r="A15" s="12">
         <v>10</v>
       </c>
-      <c r="B15" s="41" t="str">
+      <c r="B15" s="71" t="str">
         <f>ReactionList!A13</f>
         <v>AKT2_[PI]_i_PI_[PH]</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="72" t="s">
         <v>100</v>
       </c>
       <c r="E15" s="37"/>
@@ -4457,14 +4465,14 @@
       <c r="A16" s="12">
         <v>11</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="41" t="s">
-        <v>99</v>
+      <c r="D16" s="72" t="s">
+        <v>255</v>
       </c>
       <c r="E16" s="37"/>
       <c r="F16" s="37"/>
@@ -4472,16 +4480,16 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="12">
-        <v>12</v>
-      </c>
-      <c r="B17" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="41" t="s">
-        <v>98</v>
+      <c r="D17" s="71" t="s">
+        <v>102</v>
       </c>
       <c r="E17" s="37"/>
       <c r="F17" s="37"/>
@@ -4489,16 +4497,17 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="12">
-        <v>13</v>
-      </c>
-      <c r="B18" s="41" t="s">
-        <v>100</v>
+        <v>14</v>
+      </c>
+      <c r="B18" s="41" t="str">
+        <f>ReactionList!A14</f>
+        <v>PDK1_p+_AKT2_[(T309)]</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" s="41" t="s">
-        <v>102</v>
+        <v>87</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>103</v>
       </c>
       <c r="E18" s="37"/>
       <c r="F18" s="37"/>
@@ -4506,11 +4515,11 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B19" s="41" t="str">
-        <f>ReactionList!A14</f>
-        <v>PDK1_p+_AKT2_[(T309)]</v>
+        <f>ReactionList!A15</f>
+        <v>mTORC2_p+_AKT2_[(S474)]</v>
       </c>
       <c r="C19" s="41" t="s">
         <v>87</v>
@@ -4524,17 +4533,17 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="12">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B20" s="41" t="str">
-        <f>ReactionList!A15</f>
-        <v>mTORC2_p+_AKT2_[(S474)]</v>
+        <f>ReactionList!A18</f>
+        <v>AKT2_p+_TSC2_[(Ser939)]</v>
       </c>
       <c r="C20" s="41" t="s">
         <v>87</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E20" s="37"/>
       <c r="F20" s="37"/>
@@ -4542,11 +4551,11 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="12">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B21" s="41" t="str">
-        <f>ReactionList!A18</f>
-        <v>AKT2_p+_TSC2_[(Ser939)]</v>
+        <f>ReactionList!A19</f>
+        <v>AKT2_p+_TSC2_[(Thr1462)]</v>
       </c>
       <c r="C21" s="41" t="s">
         <v>87</v>
@@ -4560,11 +4569,11 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B22" s="41" t="str">
-        <f>ReactionList!A19</f>
-        <v>AKT2_p+_TSC2_[(Thr1462)]</v>
+        <f>ReactionList!A20</f>
+        <v>AKT2_p+_TSC2_[(Ser981)]</v>
       </c>
       <c r="C22" s="41" t="s">
         <v>87</v>
@@ -4578,11 +4587,11 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="12">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B23" s="41" t="str">
-        <f>ReactionList!A20</f>
-        <v>AKT2_p+_TSC2_[(Ser981)]</v>
+        <f>ReactionList!A21</f>
+        <v>AKT2_p+_TSC2_[(Ser1130)]</v>
       </c>
       <c r="C23" s="41" t="s">
         <v>87</v>
@@ -4595,31 +4604,29 @@
       <c r="G23" s="33"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="12">
-        <v>19</v>
-      </c>
-      <c r="B24" s="41" t="str">
-        <f>ReactionList!A21</f>
-        <v>AKT2_p+_TSC2_[(Ser1130)]</v>
-      </c>
-      <c r="C24" s="41" t="s">
+      <c r="A24" s="12"/>
+      <c r="B24" s="61" t="str">
+        <f>ReactionList!A22</f>
+        <v>AKT2_p+_PPM1G_[(AKT2)]</v>
+      </c>
+      <c r="C24" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="53" t="s">
+      <c r="D24" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="33"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="36"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="12"/>
       <c r="B25" s="61" t="str">
-        <f>ReactionList!A22</f>
-        <v>AKT2_p+_PPM1G_[(AKT2)]</v>
+        <f>ReactionList!A23</f>
+        <v>un_p-_PPM1G_[(AKT2)]</v>
       </c>
       <c r="C25" s="61" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="D25" s="63" t="s">
         <v>104</v>
@@ -4629,24 +4636,25 @@
       <c r="G25" s="36"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="12"/>
-      <c r="B26" s="61" t="str">
-        <f>ReactionList!A23</f>
-        <v>un_p-_PPM1G_[(AKT2)]</v>
-      </c>
-      <c r="C26" s="61" t="s">
-        <v>110</v>
-      </c>
-      <c r="D26" s="63" t="s">
+      <c r="A26" s="12">
+        <v>20</v>
+      </c>
+      <c r="B26" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="36"/>
+      <c r="C26" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="33"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B27" s="53" t="s">
         <v>104</v>
@@ -4655,7 +4663,7 @@
         <v>101</v>
       </c>
       <c r="D27" s="53" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E27" s="37"/>
       <c r="F27" s="37"/>
@@ -4663,16 +4671,17 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="12">
-        <v>21</v>
-      </c>
-      <c r="B28" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="D28" s="53" t="s">
-        <v>106</v>
+        <v>23</v>
+      </c>
+      <c r="B28" s="42" t="str">
+        <f>ReactionList!A32</f>
+        <v>RHEB_[switch1]_ppi_mTOR_[Mheatmα2mα3mα4]</v>
+      </c>
+      <c r="C28" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>107</v>
       </c>
       <c r="E28" s="37"/>
       <c r="F28" s="37"/>
@@ -4680,11 +4689,11 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="12">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B29" s="42" t="str">
-        <f>ReactionList!A32</f>
-        <v>RHEB_[switch1]_ppi_mTOR_[Mheatmα2mα3mα4]</v>
+        <f>ReactionList!A33</f>
+        <v>RHEB_[switch2GQDEYSIFPQTYSIDIN]_ppi_mTOR_[Nheatnα3tonα7]</v>
       </c>
       <c r="C29" s="55" t="s">
         <v>87</v>
@@ -4698,11 +4707,11 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="12">
-        <v>24</v>
-      </c>
-      <c r="B30" s="42" t="str">
-        <f>ReactionList!A33</f>
-        <v>RHEB_[switch2GQDEYSIFPQTYSIDIN]_ppi_mTOR_[Nheatnα3tonα7]</v>
+        <v>25</v>
+      </c>
+      <c r="B30" s="44" t="str">
+        <f>ReactionList!A34</f>
+        <v>RHEB_[switch1DSYDPTIEN]_ppi_mTOR_[FATfα2fα3]</v>
       </c>
       <c r="C30" s="55" t="s">
         <v>87</v>
@@ -4716,17 +4725,16 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="12">
-        <v>25</v>
-      </c>
-      <c r="B31" s="44" t="str">
-        <f>ReactionList!A34</f>
-        <v>RHEB_[switch1DSYDPTIEN]_ppi_mTOR_[FATfα2fα3]</v>
+        <v>26</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>108</v>
       </c>
       <c r="C31" s="55" t="s">
         <v>87</v>
       </c>
       <c r="D31" s="42" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E31" s="37"/>
       <c r="F31" s="37"/>
@@ -4734,50 +4742,51 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="12">
-        <v>26</v>
-      </c>
-      <c r="B32" s="44" t="s">
-        <v>108</v>
+        <v>27</v>
+      </c>
+      <c r="B32" s="44" t="str">
+        <f>ReactionList!A28</f>
+        <v>TSC1_[Cterminus]_ppi+_TSC2_[Nterminus]</v>
       </c>
       <c r="C32" s="55" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="D32" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="E32" s="37"/>
+        <v>111</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>112</v>
+      </c>
       <c r="F32" s="37"/>
-      <c r="G32" s="33"/>
+      <c r="G32" s="33" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="12">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B33" s="44" t="str">
-        <f>ReactionList!A28</f>
-        <v>TSC1_[Cterminus]_ppi+_TSC2_[Nterminus]</v>
+        <f>ReactionList!A29</f>
+        <v>TSC1_[Cterminus]_ppi-_TSC2_[Nterminus]</v>
       </c>
       <c r="C33" s="55" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="D33" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="E33" s="37" t="s">
-        <v>112</v>
-      </c>
+      <c r="E33" s="37"/>
       <c r="F33" s="37"/>
-      <c r="G33" s="33" t="s">
-        <v>113</v>
-      </c>
+      <c r="G33" s="33"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B34" s="44" t="str">
-        <f>ReactionList!A29</f>
-        <v>TSC1_[Cterminus]_ppi-_TSC2_[Nterminus]</v>
+        <f>ReactionList!A30</f>
+        <v>GTP_gef_RHEB_[(G)]</v>
       </c>
       <c r="C34" s="55" t="s">
         <v>87</v>
@@ -4791,17 +4800,16 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="12">
-        <v>29</v>
-      </c>
-      <c r="B35" s="44" t="str">
-        <f>ReactionList!A30</f>
-        <v>GTP_gef_RHEB_[(G)]</v>
+        <v>30</v>
+      </c>
+      <c r="B35" s="44" t="s">
+        <v>114</v>
       </c>
       <c r="C35" s="55" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D35" s="42" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E35" s="37"/>
       <c r="F35" s="37"/>
@@ -4809,7 +4817,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="12">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B36" s="44" t="s">
         <v>114</v>
@@ -4818,7 +4826,7 @@
         <v>101</v>
       </c>
       <c r="D36" s="42" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E36" s="37"/>
       <c r="F36" s="37"/>
@@ -4826,7 +4834,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B37" s="44" t="s">
         <v>114</v>
@@ -4835,7 +4843,7 @@
         <v>101</v>
       </c>
       <c r="D37" s="42" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E37" s="37"/>
       <c r="F37" s="37"/>
@@ -4843,7 +4851,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="12">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B38" s="44" t="s">
         <v>114</v>
@@ -4852,7 +4860,7 @@
         <v>101</v>
       </c>
       <c r="D38" s="42" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E38" s="37"/>
       <c r="F38" s="37"/>
@@ -4860,24 +4868,29 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="12">
-        <v>33</v>
-      </c>
-      <c r="B39" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="C39" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="D39" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="E39" s="37"/>
+        <v>34</v>
+      </c>
+      <c r="B39" s="38" t="str">
+        <f>ReactionList!A35</f>
+        <v>mTOR_ppi+_Raptor</v>
+      </c>
+      <c r="C39" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>120</v>
+      </c>
       <c r="F39" s="37"/>
-      <c r="G39" s="33"/>
+      <c r="G39" s="33" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="12">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B40" s="38" t="str">
         <f>ReactionList!A35</f>
@@ -4887,43 +4900,39 @@
         <v>87</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E40" s="37" t="s">
         <v>120</v>
       </c>
       <c r="F40" s="37"/>
-      <c r="G40" s="33" t="s">
-        <v>121</v>
-      </c>
+      <c r="G40" s="33"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="12">
-        <v>35</v>
-      </c>
-      <c r="B41" s="38" t="str">
-        <f>ReactionList!A35</f>
-        <v>mTOR_ppi+_Raptor</v>
-      </c>
-      <c r="C41" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="57" t="str">
+        <f>ReactionList!A38</f>
+        <v>mTORC1_p+_EIF4EBP1_[(Thr37)]</v>
+      </c>
+      <c r="C41" s="57" t="s">
         <v>87</v>
       </c>
       <c r="D41" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="E41" s="37" t="s">
-        <v>120</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="E41" s="37"/>
       <c r="F41" s="37"/>
       <c r="G41" s="33"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="12">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B42" s="57" t="str">
-        <f>ReactionList!A38</f>
-        <v>mTORC1_p+_EIF4EBP1_[(Thr37)]</v>
+        <f>ReactionList!A39</f>
+        <v>mTORC1_p+_EIF4EBP1_[(Thr46)]</v>
       </c>
       <c r="C42" s="57" t="s">
         <v>87</v>
@@ -4936,12 +4945,10 @@
       <c r="G42" s="33"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="12">
-        <v>40</v>
-      </c>
+      <c r="A43" s="12"/>
       <c r="B43" s="57" t="str">
-        <f>ReactionList!A39</f>
-        <v>mTORC1_p+_EIF4EBP1_[(Thr46)]</v>
+        <f>ReactionList!A40</f>
+        <v>mTORC1_p+_EIF4EBP1_[(Ser65)]</v>
       </c>
       <c r="C43" s="57" t="s">
         <v>87</v>
@@ -4956,8 +4963,8 @@
     <row r="44" spans="1:7">
       <c r="A44" s="12"/>
       <c r="B44" s="57" t="str">
-        <f>ReactionList!A40</f>
-        <v>mTORC1_p+_EIF4EBP1_[(Ser65)]</v>
+        <f>ReactionList!A41</f>
+        <v>mTORC1_p+_EIF4EBP1_[(Thr70)]</v>
       </c>
       <c r="C44" s="57" t="s">
         <v>87</v>
@@ -4971,15 +4978,14 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="12"/>
-      <c r="B45" s="57" t="str">
-        <f>ReactionList!A41</f>
-        <v>mTORC1_p+_EIF4EBP1_[(Thr70)]</v>
+      <c r="B45" s="32" t="s">
+        <v>123</v>
       </c>
       <c r="C45" s="57" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E45" s="37"/>
       <c r="F45" s="37"/>
@@ -4993,8 +4999,8 @@
       <c r="C46" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="D46" s="32" t="s">
-        <v>124</v>
+      <c r="D46" s="46" t="s">
+        <v>125</v>
       </c>
       <c r="E46" s="37"/>
       <c r="F46" s="37"/>
@@ -5009,7 +5015,7 @@
         <v>101</v>
       </c>
       <c r="D47" s="46" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E47" s="37"/>
       <c r="F47" s="37"/>
@@ -5023,31 +5029,40 @@
       <c r="C48" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="D48" s="46" t="s">
-        <v>126</v>
+      <c r="D48" s="43" t="s">
+        <v>127</v>
       </c>
       <c r="E48" s="37"/>
       <c r="F48" s="37"/>
       <c r="G48" s="33"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="12"/>
-      <c r="B49" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="C49" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="D49" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="33"/>
+      <c r="A49" s="12">
+        <v>41</v>
+      </c>
+      <c r="B49" s="35" t="str">
+        <f>ReactionList!A41</f>
+        <v>mTORC1_p+_EIF4EBP1_[(Thr70)]</v>
+      </c>
+      <c r="C49" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="E49" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="F49" s="51"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="1" t="str">
+        <f>""</f>
+        <v/>
+      </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="12">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B50" s="35" t="str">
         <f>ReactionList!A41</f>
@@ -5057,31 +5072,27 @@
         <v>87</v>
       </c>
       <c r="D50" s="40" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E50" s="34" t="s">
         <v>129</v>
       </c>
       <c r="F50" s="51"/>
       <c r="G50" s="36"/>
-      <c r="H50" s="1" t="str">
-        <f>""</f>
-        <v/>
-      </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="12">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B51" s="35" t="str">
-        <f>ReactionList!A41</f>
-        <v>mTORC1_p+_EIF4EBP1_[(Thr70)]</v>
+        <f>ReactionList!A40</f>
+        <v>mTORC1_p+_EIF4EBP1_[(Ser65)]</v>
       </c>
       <c r="C51" s="35" t="s">
         <v>87</v>
       </c>
       <c r="D51" s="40" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E51" s="34" t="s">
         <v>129</v>
@@ -5091,7 +5102,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="12">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B52" s="35" t="str">
         <f>ReactionList!A40</f>
@@ -5101,7 +5112,7 @@
         <v>87</v>
       </c>
       <c r="D52" s="40" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E52" s="34" t="s">
         <v>129</v>
@@ -5111,7 +5122,7 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="12">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B53" s="35" t="str">
         <f>ReactionList!A40</f>
@@ -5121,7 +5132,7 @@
         <v>87</v>
       </c>
       <c r="D53" s="40" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E53" s="34" t="s">
         <v>129</v>
@@ -5131,31 +5142,29 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="12">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B54" s="35" t="str">
-        <f>ReactionList!A40</f>
-        <v>mTORC1_p+_EIF4EBP1_[(Ser65)]</v>
+        <f>ReactionList!A38</f>
+        <v>mTORC1_p+_EIF4EBP1_[(Thr37)]</v>
       </c>
       <c r="C54" s="35" t="s">
         <v>87</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="E54" s="34" t="s">
-        <v>129</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="E54" s="34"/>
       <c r="F54" s="51"/>
       <c r="G54" s="36"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="12">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B55" s="35" t="str">
-        <f>ReactionList!A38</f>
-        <v>mTORC1_p+_EIF4EBP1_[(Thr37)]</v>
+        <f>ReactionList!A39</f>
+        <v>mTORC1_p+_EIF4EBP1_[(Thr46)]</v>
       </c>
       <c r="C55" s="35" t="s">
         <v>87</v>
@@ -5169,11 +5178,11 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="12">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B56" s="35" t="str">
-        <f>ReactionList!A39</f>
-        <v>mTORC1_p+_EIF4EBP1_[(Thr46)]</v>
+        <f>ReactionList!A41</f>
+        <v>mTORC1_p+_EIF4EBP1_[(Thr70)]</v>
       </c>
       <c r="C56" s="35" t="s">
         <v>87</v>
@@ -5187,11 +5196,11 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="12">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B57" s="35" t="str">
-        <f>ReactionList!A41</f>
-        <v>mTORC1_p+_EIF4EBP1_[(Thr70)]</v>
+        <f>ReactionList!A40</f>
+        <v>mTORC1_p+_EIF4EBP1_[(Ser65)]</v>
       </c>
       <c r="C57" s="35" t="s">
         <v>87</v>
@@ -5204,28 +5213,28 @@
       <c r="G57" s="36"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="12">
-        <v>49</v>
-      </c>
-      <c r="B58" s="35" t="str">
-        <f>ReactionList!A40</f>
-        <v>mTORC1_p+_EIF4EBP1_[(Ser65)]</v>
-      </c>
-      <c r="C58" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="D58" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="E58" s="34"/>
+      <c r="A58" s="12"/>
+      <c r="B58" s="61" t="str">
+        <f>ReactionList!A42</f>
+        <v>PPM1G_p-_EIF4EBP1_[(Thr37)]</v>
+      </c>
+      <c r="C58" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="D58" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>244</v>
+      </c>
       <c r="F58" s="51"/>
       <c r="G58" s="36"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="12"/>
       <c r="B59" s="61" t="str">
-        <f>ReactionList!A42</f>
-        <v>PPM1G_p-_EIF4EBP1_[(Thr37)]</v>
+        <f>ReactionList!A43</f>
+        <v>PPM1G_p-_EIF4EBP1_[(Thr46)]</v>
       </c>
       <c r="C59" s="61" t="s">
         <v>110</v>
@@ -5233,7 +5242,7 @@
       <c r="D59" s="62" t="s">
         <v>242</v>
       </c>
-      <c r="E59" s="13" t="s">
+      <c r="E59" s="3" t="s">
         <v>244</v>
       </c>
       <c r="F59" s="51"/>
@@ -5242,8 +5251,8 @@
     <row r="60" spans="1:8">
       <c r="A60" s="12"/>
       <c r="B60" s="61" t="str">
-        <f>ReactionList!A43</f>
-        <v>PPM1G_p-_EIF4EBP1_[(Thr46)]</v>
+        <f>ReactionList!A44</f>
+        <v>PPM1G_p-_EIF4EBP1_[(Ser65)]</v>
       </c>
       <c r="C60" s="61" t="s">
         <v>110</v>
@@ -5260,8 +5269,8 @@
     <row r="61" spans="1:8">
       <c r="A61" s="12"/>
       <c r="B61" s="61" t="str">
-        <f>ReactionList!A44</f>
-        <v>PPM1G_p-_EIF4EBP1_[(Ser65)]</v>
+        <f>ReactionList!A45</f>
+        <v>PPM1G_p-_EIF4EBP1_[(Thr70)]</v>
       </c>
       <c r="C61" s="61" t="s">
         <v>110</v>
@@ -5276,36 +5285,33 @@
       <c r="G61" s="36"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="12"/>
-      <c r="B62" s="61" t="str">
-        <f>ReactionList!A45</f>
-        <v>PPM1G_p-_EIF4EBP1_[(Thr70)]</v>
-      </c>
-      <c r="C62" s="61" t="s">
-        <v>110</v>
-      </c>
-      <c r="D62" s="62" t="s">
-        <v>242</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>244</v>
-      </c>
+      <c r="A62" s="12">
+        <v>54</v>
+      </c>
+      <c r="B62" s="30" t="str">
+        <f>ReactionList!A37</f>
+        <v>eIF4E_[A001]_ppi-_EIF4EBP1_[A001]</v>
+      </c>
+      <c r="C62" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D62" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="E62" s="34"/>
       <c r="F62" s="51"/>
       <c r="G62" s="36"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="12">
-        <v>54</v>
-      </c>
-      <c r="B63" s="30" t="str">
-        <f>ReactionList!A37</f>
-        <v>eIF4E_[A001]_ppi-_EIF4EBP1_[A001]</v>
-      </c>
-      <c r="C63" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="D63" s="47" t="s">
-        <v>133</v>
+      <c r="A63" s="12"/>
+      <c r="B63" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="D63" s="31" t="s">
+        <v>135</v>
       </c>
       <c r="E63" s="34"/>
       <c r="F63" s="51"/>
@@ -5313,14 +5319,14 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="12"/>
-      <c r="B64" s="56" t="s">
+      <c r="B64" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="C64" s="56" t="s">
+      <c r="C64" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="D64" s="31" t="s">
-        <v>135</v>
+      <c r="D64" s="29" t="s">
+        <v>136</v>
       </c>
       <c r="E64" s="34"/>
       <c r="F64" s="51"/>
@@ -5335,7 +5341,7 @@
         <v>101</v>
       </c>
       <c r="D65" s="29" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E65" s="34"/>
       <c r="F65" s="51"/>
@@ -5350,7 +5356,7 @@
         <v>101</v>
       </c>
       <c r="D66" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E66" s="34"/>
       <c r="F66" s="51"/>
@@ -5358,30 +5364,32 @@
     </row>
     <row r="67" spans="1:256">
       <c r="A67" s="12"/>
-      <c r="B67" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="C67" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="D67" s="29" t="s">
-        <v>138</v>
+      <c r="B67" s="30" t="str">
+        <f>ReactionList!A46</f>
+        <v>eIF4E_[A001]_ppi_eIF4G_[A002]</v>
+      </c>
+      <c r="C67" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D67" s="47" t="s">
+        <v>133</v>
       </c>
       <c r="E67" s="34"/>
       <c r="F67" s="51"/>
       <c r="G67" s="36"/>
     </row>
     <row r="68" spans="1:256">
-      <c r="A68" s="12"/>
-      <c r="B68" s="30" t="str">
-        <f>ReactionList!A46</f>
-        <v>eIF4E_[A001]_ppi_eIF4G_[A002]</v>
-      </c>
-      <c r="C68" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="D68" s="47" t="s">
-        <v>133</v>
+      <c r="A68" s="12">
+        <v>55</v>
+      </c>
+      <c r="B68" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C68" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="D68" s="31" t="s">
+        <v>135</v>
       </c>
       <c r="E68" s="34"/>
       <c r="F68" s="51"/>
@@ -5389,16 +5397,16 @@
     </row>
     <row r="69" spans="1:256">
       <c r="A69" s="12">
-        <v>55</v>
-      </c>
-      <c r="B69" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B69" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="C69" s="56" t="s">
+      <c r="C69" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="D69" s="31" t="s">
-        <v>135</v>
+      <c r="D69" s="29" t="s">
+        <v>136</v>
       </c>
       <c r="E69" s="34"/>
       <c r="F69" s="51"/>
@@ -5406,7 +5414,7 @@
     </row>
     <row r="70" spans="1:256">
       <c r="A70" s="12">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B70" s="48" t="s">
         <v>134</v>
@@ -5415,7 +5423,7 @@
         <v>101</v>
       </c>
       <c r="D70" s="29" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E70" s="34"/>
       <c r="F70" s="51"/>
@@ -5423,7 +5431,7 @@
     </row>
     <row r="71" spans="1:256">
       <c r="A71" s="12">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B71" s="48" t="s">
         <v>134</v>
@@ -5432,61 +5440,56 @@
         <v>101</v>
       </c>
       <c r="D71" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="E71" s="34"/>
-      <c r="F71" s="51"/>
-      <c r="G71" s="36"/>
+        <v>138</v>
+      </c>
     </row>
     <row r="72" spans="1:256">
-      <c r="A72" s="12">
-        <v>58</v>
-      </c>
-      <c r="B72" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="C72" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="D72" s="29" t="s">
-        <v>138</v>
+      <c r="A72" s="12"/>
+      <c r="B72" s="52" t="str">
+        <f>ReactionList!A36</f>
+        <v>eIF4E_[A001]_ppi+_EIF4EBP1_[A001]</v>
+      </c>
+      <c r="C72" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="D72" s="47" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="73" spans="1:256">
       <c r="A73" s="12"/>
-      <c r="B73" s="52" t="str">
-        <f>ReactionList!A36</f>
-        <v>eIF4E_[A001]_ppi+_EIF4EBP1_[A001]</v>
+      <c r="B73" s="50" t="s">
+        <v>134</v>
       </c>
       <c r="C73" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="D73" s="47" t="s">
-        <v>133</v>
+        <v>101</v>
+      </c>
+      <c r="D73" s="31" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="74" spans="1:256">
       <c r="A74" s="12"/>
-      <c r="B74" s="50" t="s">
+      <c r="B74" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="C74" s="49" t="s">
+      <c r="C74" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="D74" s="31" t="s">
-        <v>135</v>
+      <c r="D74" s="29" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="1:256">
       <c r="A75" s="12"/>
-      <c r="B75" s="56" t="s">
+      <c r="B75" s="48" t="s">
         <v>134</v>
       </c>
       <c r="C75" s="48" t="s">
         <v>101</v>
       </c>
       <c r="D75" s="29" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76" spans="1:256">
@@ -5498,20 +5501,273 @@
         <v>101</v>
       </c>
       <c r="D76" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77" spans="1:256">
       <c r="A77" s="12"/>
-      <c r="B77" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="C77" s="48" t="s">
-        <v>101</v>
+      <c r="B77" s="48" t="str">
+        <f>ReactionList!A36</f>
+        <v>eIF4E_[A001]_ppi+_EIF4EBP1_[A001]</v>
+      </c>
+      <c r="C77" s="45" t="s">
+        <v>87</v>
       </c>
       <c r="D77" s="29" t="s">
-        <v>138</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="6"/>
+      <c r="R77" s="6"/>
+      <c r="S77" s="6"/>
+      <c r="T77" s="6"/>
+      <c r="U77" s="6"/>
+      <c r="V77" s="6"/>
+      <c r="W77" s="6"/>
+      <c r="X77" s="6"/>
+      <c r="Y77" s="6"/>
+      <c r="Z77" s="6"/>
+      <c r="AA77" s="6"/>
+      <c r="AB77" s="6"/>
+      <c r="AC77" s="6"/>
+      <c r="AD77" s="6"/>
+      <c r="AE77" s="6"/>
+      <c r="AF77" s="6"/>
+      <c r="AG77" s="6"/>
+      <c r="AH77" s="6"/>
+      <c r="AI77" s="6"/>
+      <c r="AJ77" s="6"/>
+      <c r="AK77" s="6"/>
+      <c r="AL77" s="6"/>
+      <c r="AM77" s="6"/>
+      <c r="AN77" s="6"/>
+      <c r="AO77" s="6"/>
+      <c r="AP77" s="6"/>
+      <c r="AQ77" s="6"/>
+      <c r="AR77" s="6"/>
+      <c r="AS77" s="6"/>
+      <c r="AT77" s="6"/>
+      <c r="AU77" s="6"/>
+      <c r="AV77" s="6"/>
+      <c r="AW77" s="6"/>
+      <c r="AX77" s="6"/>
+      <c r="AY77" s="6"/>
+      <c r="AZ77" s="6"/>
+      <c r="BA77" s="6"/>
+      <c r="BB77" s="6"/>
+      <c r="BC77" s="6"/>
+      <c r="BD77" s="6"/>
+      <c r="BE77" s="6"/>
+      <c r="BF77" s="6"/>
+      <c r="BG77" s="6"/>
+      <c r="BH77" s="6"/>
+      <c r="BI77" s="6"/>
+      <c r="BJ77" s="6"/>
+      <c r="BK77" s="6"/>
+      <c r="BL77" s="6"/>
+      <c r="BM77" s="6"/>
+      <c r="BN77" s="6"/>
+      <c r="BO77" s="6"/>
+      <c r="BP77" s="6"/>
+      <c r="BQ77" s="6"/>
+      <c r="BR77" s="6"/>
+      <c r="BS77" s="6"/>
+      <c r="BT77" s="6"/>
+      <c r="BU77" s="6"/>
+      <c r="BV77" s="6"/>
+      <c r="BW77" s="6"/>
+      <c r="BX77" s="6"/>
+      <c r="BY77" s="6"/>
+      <c r="BZ77" s="6"/>
+      <c r="CA77" s="6"/>
+      <c r="CB77" s="6"/>
+      <c r="CC77" s="6"/>
+      <c r="CD77" s="6"/>
+      <c r="CE77" s="6"/>
+      <c r="CF77" s="6"/>
+      <c r="CG77" s="6"/>
+      <c r="CH77" s="6"/>
+      <c r="CI77" s="6"/>
+      <c r="CJ77" s="6"/>
+      <c r="CK77" s="6"/>
+      <c r="CL77" s="6"/>
+      <c r="CM77" s="6"/>
+      <c r="CN77" s="6"/>
+      <c r="CO77" s="6"/>
+      <c r="CP77" s="6"/>
+      <c r="CQ77" s="6"/>
+      <c r="CR77" s="6"/>
+      <c r="CS77" s="6"/>
+      <c r="CT77" s="6"/>
+      <c r="CU77" s="6"/>
+      <c r="CV77" s="6"/>
+      <c r="CW77" s="6"/>
+      <c r="CX77" s="6"/>
+      <c r="CY77" s="6"/>
+      <c r="CZ77" s="6"/>
+      <c r="DA77" s="6"/>
+      <c r="DB77" s="6"/>
+      <c r="DC77" s="6"/>
+      <c r="DD77" s="6"/>
+      <c r="DE77" s="6"/>
+      <c r="DF77" s="6"/>
+      <c r="DG77" s="6"/>
+      <c r="DH77" s="6"/>
+      <c r="DI77" s="6"/>
+      <c r="DJ77" s="6"/>
+      <c r="DK77" s="6"/>
+      <c r="DL77" s="6"/>
+      <c r="DM77" s="6"/>
+      <c r="DN77" s="6"/>
+      <c r="DO77" s="6"/>
+      <c r="DP77" s="6"/>
+      <c r="DQ77" s="6"/>
+      <c r="DR77" s="6"/>
+      <c r="DS77" s="6"/>
+      <c r="DT77" s="6"/>
+      <c r="DU77" s="6"/>
+      <c r="DV77" s="6"/>
+      <c r="DW77" s="6"/>
+      <c r="DX77" s="6"/>
+      <c r="DY77" s="6"/>
+      <c r="DZ77" s="6"/>
+      <c r="EA77" s="6"/>
+      <c r="EB77" s="6"/>
+      <c r="EC77" s="6"/>
+      <c r="ED77" s="6"/>
+      <c r="EE77" s="6"/>
+      <c r="EF77" s="6"/>
+      <c r="EG77" s="6"/>
+      <c r="EH77" s="6"/>
+      <c r="EI77" s="6"/>
+      <c r="EJ77" s="6"/>
+      <c r="EK77" s="6"/>
+      <c r="EL77" s="6"/>
+      <c r="EM77" s="6"/>
+      <c r="EN77" s="6"/>
+      <c r="EO77" s="6"/>
+      <c r="EP77" s="6"/>
+      <c r="EQ77" s="6"/>
+      <c r="ER77" s="6"/>
+      <c r="ES77" s="6"/>
+      <c r="ET77" s="6"/>
+      <c r="EU77" s="6"/>
+      <c r="EV77" s="6"/>
+      <c r="EW77" s="6"/>
+      <c r="EX77" s="6"/>
+      <c r="EY77" s="6"/>
+      <c r="EZ77" s="6"/>
+      <c r="FA77" s="6"/>
+      <c r="FB77" s="6"/>
+      <c r="FC77" s="6"/>
+      <c r="FD77" s="6"/>
+      <c r="FE77" s="6"/>
+      <c r="FF77" s="6"/>
+      <c r="FG77" s="6"/>
+      <c r="FH77" s="6"/>
+      <c r="FI77" s="6"/>
+      <c r="FJ77" s="6"/>
+      <c r="FK77" s="6"/>
+      <c r="FL77" s="6"/>
+      <c r="FM77" s="6"/>
+      <c r="FN77" s="6"/>
+      <c r="FO77" s="6"/>
+      <c r="FP77" s="6"/>
+      <c r="FQ77" s="6"/>
+      <c r="FR77" s="6"/>
+      <c r="FS77" s="6"/>
+      <c r="FT77" s="6"/>
+      <c r="FU77" s="6"/>
+      <c r="FV77" s="6"/>
+      <c r="FW77" s="6"/>
+      <c r="FX77" s="6"/>
+      <c r="FY77" s="6"/>
+      <c r="FZ77" s="6"/>
+      <c r="GA77" s="6"/>
+      <c r="GB77" s="6"/>
+      <c r="GC77" s="6"/>
+      <c r="GD77" s="6"/>
+      <c r="GE77" s="6"/>
+      <c r="GF77" s="6"/>
+      <c r="GG77" s="6"/>
+      <c r="GH77" s="6"/>
+      <c r="GI77" s="6"/>
+      <c r="GJ77" s="6"/>
+      <c r="GK77" s="6"/>
+      <c r="GL77" s="6"/>
+      <c r="GM77" s="6"/>
+      <c r="GN77" s="6"/>
+      <c r="GO77" s="6"/>
+      <c r="GP77" s="6"/>
+      <c r="GQ77" s="6"/>
+      <c r="GR77" s="6"/>
+      <c r="GS77" s="6"/>
+      <c r="GT77" s="6"/>
+      <c r="GU77" s="6"/>
+      <c r="GV77" s="6"/>
+      <c r="GW77" s="6"/>
+      <c r="GX77" s="6"/>
+      <c r="GY77" s="6"/>
+      <c r="GZ77" s="6"/>
+      <c r="HA77" s="6"/>
+      <c r="HB77" s="6"/>
+      <c r="HC77" s="6"/>
+      <c r="HD77" s="6"/>
+      <c r="HE77" s="6"/>
+      <c r="HF77" s="6"/>
+      <c r="HG77" s="6"/>
+      <c r="HH77" s="6"/>
+      <c r="HI77" s="6"/>
+      <c r="HJ77" s="6"/>
+      <c r="HK77" s="6"/>
+      <c r="HL77" s="6"/>
+      <c r="HM77" s="6"/>
+      <c r="HN77" s="6"/>
+      <c r="HO77" s="6"/>
+      <c r="HP77" s="6"/>
+      <c r="HQ77" s="6"/>
+      <c r="HR77" s="6"/>
+      <c r="HS77" s="6"/>
+      <c r="HT77" s="6"/>
+      <c r="HU77" s="6"/>
+      <c r="HV77" s="6"/>
+      <c r="HW77" s="6"/>
+      <c r="HX77" s="6"/>
+      <c r="HY77" s="6"/>
+      <c r="HZ77" s="6"/>
+      <c r="IA77" s="6"/>
+      <c r="IB77" s="6"/>
+      <c r="IC77" s="6"/>
+      <c r="ID77" s="6"/>
+      <c r="IE77" s="6"/>
+      <c r="IF77" s="6"/>
+      <c r="IG77" s="6"/>
+      <c r="IH77" s="6"/>
+      <c r="II77" s="6"/>
+      <c r="IJ77" s="6"/>
+      <c r="IK77" s="6"/>
+      <c r="IL77" s="6"/>
+      <c r="IM77" s="6"/>
+      <c r="IN77" s="6"/>
+      <c r="IO77" s="6"/>
+      <c r="IP77" s="6"/>
+      <c r="IQ77" s="6"/>
+      <c r="IR77" s="6"/>
+      <c r="IS77" s="6"/>
+      <c r="IT77" s="6"/>
+      <c r="IU77" s="6"/>
+      <c r="IV77" s="6"/>
     </row>
     <row r="78" spans="1:256">
       <c r="A78" s="12"/>
@@ -5523,7 +5779,7 @@
         <v>87</v>
       </c>
       <c r="D78" s="29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
@@ -5781,14 +6037,14 @@
     <row r="79" spans="1:256">
       <c r="A79" s="12"/>
       <c r="B79" s="48" t="str">
-        <f>ReactionList!A36</f>
-        <v>eIF4E_[A001]_ppi+_EIF4EBP1_[A001]</v>
-      </c>
-      <c r="C79" s="45" t="s">
+        <f>ReactionList!A46</f>
+        <v>eIF4E_[A001]_ppi_eIF4G_[A002]</v>
+      </c>
+      <c r="C79" s="54" t="s">
         <v>87</v>
       </c>
       <c r="D79" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
@@ -6049,11 +6305,11 @@
         <f>ReactionList!A46</f>
         <v>eIF4E_[A001]_ppi_eIF4G_[A002]</v>
       </c>
-      <c r="C80" s="54" t="s">
+      <c r="C80" s="45" t="s">
         <v>87</v>
       </c>
       <c r="D80" s="29" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
@@ -6308,333 +6564,71 @@
       <c r="IU80" s="6"/>
       <c r="IV80" s="6"/>
     </row>
-    <row r="81" spans="1:256">
+    <row r="81" spans="1:4">
       <c r="A81" s="12"/>
       <c r="B81" s="48" t="str">
         <f>ReactionList!A46</f>
         <v>eIF4E_[A001]_ppi_eIF4G_[A002]</v>
       </c>
-      <c r="C81" s="45" t="s">
+      <c r="C81" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="D81" s="29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="12"/>
+      <c r="B82" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="C82" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="D81" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
-      <c r="K81" s="6"/>
-      <c r="L81" s="6"/>
-      <c r="M81" s="6"/>
-      <c r="N81" s="6"/>
-      <c r="O81" s="6"/>
-      <c r="P81" s="6"/>
-      <c r="Q81" s="6"/>
-      <c r="R81" s="6"/>
-      <c r="S81" s="6"/>
-      <c r="T81" s="6"/>
-      <c r="U81" s="6"/>
-      <c r="V81" s="6"/>
-      <c r="W81" s="6"/>
-      <c r="X81" s="6"/>
-      <c r="Y81" s="6"/>
-      <c r="Z81" s="6"/>
-      <c r="AA81" s="6"/>
-      <c r="AB81" s="6"/>
-      <c r="AC81" s="6"/>
-      <c r="AD81" s="6"/>
-      <c r="AE81" s="6"/>
-      <c r="AF81" s="6"/>
-      <c r="AG81" s="6"/>
-      <c r="AH81" s="6"/>
-      <c r="AI81" s="6"/>
-      <c r="AJ81" s="6"/>
-      <c r="AK81" s="6"/>
-      <c r="AL81" s="6"/>
-      <c r="AM81" s="6"/>
-      <c r="AN81" s="6"/>
-      <c r="AO81" s="6"/>
-      <c r="AP81" s="6"/>
-      <c r="AQ81" s="6"/>
-      <c r="AR81" s="6"/>
-      <c r="AS81" s="6"/>
-      <c r="AT81" s="6"/>
-      <c r="AU81" s="6"/>
-      <c r="AV81" s="6"/>
-      <c r="AW81" s="6"/>
-      <c r="AX81" s="6"/>
-      <c r="AY81" s="6"/>
-      <c r="AZ81" s="6"/>
-      <c r="BA81" s="6"/>
-      <c r="BB81" s="6"/>
-      <c r="BC81" s="6"/>
-      <c r="BD81" s="6"/>
-      <c r="BE81" s="6"/>
-      <c r="BF81" s="6"/>
-      <c r="BG81" s="6"/>
-      <c r="BH81" s="6"/>
-      <c r="BI81" s="6"/>
-      <c r="BJ81" s="6"/>
-      <c r="BK81" s="6"/>
-      <c r="BL81" s="6"/>
-      <c r="BM81" s="6"/>
-      <c r="BN81" s="6"/>
-      <c r="BO81" s="6"/>
-      <c r="BP81" s="6"/>
-      <c r="BQ81" s="6"/>
-      <c r="BR81" s="6"/>
-      <c r="BS81" s="6"/>
-      <c r="BT81" s="6"/>
-      <c r="BU81" s="6"/>
-      <c r="BV81" s="6"/>
-      <c r="BW81" s="6"/>
-      <c r="BX81" s="6"/>
-      <c r="BY81" s="6"/>
-      <c r="BZ81" s="6"/>
-      <c r="CA81" s="6"/>
-      <c r="CB81" s="6"/>
-      <c r="CC81" s="6"/>
-      <c r="CD81" s="6"/>
-      <c r="CE81" s="6"/>
-      <c r="CF81" s="6"/>
-      <c r="CG81" s="6"/>
-      <c r="CH81" s="6"/>
-      <c r="CI81" s="6"/>
-      <c r="CJ81" s="6"/>
-      <c r="CK81" s="6"/>
-      <c r="CL81" s="6"/>
-      <c r="CM81" s="6"/>
-      <c r="CN81" s="6"/>
-      <c r="CO81" s="6"/>
-      <c r="CP81" s="6"/>
-      <c r="CQ81" s="6"/>
-      <c r="CR81" s="6"/>
-      <c r="CS81" s="6"/>
-      <c r="CT81" s="6"/>
-      <c r="CU81" s="6"/>
-      <c r="CV81" s="6"/>
-      <c r="CW81" s="6"/>
-      <c r="CX81" s="6"/>
-      <c r="CY81" s="6"/>
-      <c r="CZ81" s="6"/>
-      <c r="DA81" s="6"/>
-      <c r="DB81" s="6"/>
-      <c r="DC81" s="6"/>
-      <c r="DD81" s="6"/>
-      <c r="DE81" s="6"/>
-      <c r="DF81" s="6"/>
-      <c r="DG81" s="6"/>
-      <c r="DH81" s="6"/>
-      <c r="DI81" s="6"/>
-      <c r="DJ81" s="6"/>
-      <c r="DK81" s="6"/>
-      <c r="DL81" s="6"/>
-      <c r="DM81" s="6"/>
-      <c r="DN81" s="6"/>
-      <c r="DO81" s="6"/>
-      <c r="DP81" s="6"/>
-      <c r="DQ81" s="6"/>
-      <c r="DR81" s="6"/>
-      <c r="DS81" s="6"/>
-      <c r="DT81" s="6"/>
-      <c r="DU81" s="6"/>
-      <c r="DV81" s="6"/>
-      <c r="DW81" s="6"/>
-      <c r="DX81" s="6"/>
-      <c r="DY81" s="6"/>
-      <c r="DZ81" s="6"/>
-      <c r="EA81" s="6"/>
-      <c r="EB81" s="6"/>
-      <c r="EC81" s="6"/>
-      <c r="ED81" s="6"/>
-      <c r="EE81" s="6"/>
-      <c r="EF81" s="6"/>
-      <c r="EG81" s="6"/>
-      <c r="EH81" s="6"/>
-      <c r="EI81" s="6"/>
-      <c r="EJ81" s="6"/>
-      <c r="EK81" s="6"/>
-      <c r="EL81" s="6"/>
-      <c r="EM81" s="6"/>
-      <c r="EN81" s="6"/>
-      <c r="EO81" s="6"/>
-      <c r="EP81" s="6"/>
-      <c r="EQ81" s="6"/>
-      <c r="ER81" s="6"/>
-      <c r="ES81" s="6"/>
-      <c r="ET81" s="6"/>
-      <c r="EU81" s="6"/>
-      <c r="EV81" s="6"/>
-      <c r="EW81" s="6"/>
-      <c r="EX81" s="6"/>
-      <c r="EY81" s="6"/>
-      <c r="EZ81" s="6"/>
-      <c r="FA81" s="6"/>
-      <c r="FB81" s="6"/>
-      <c r="FC81" s="6"/>
-      <c r="FD81" s="6"/>
-      <c r="FE81" s="6"/>
-      <c r="FF81" s="6"/>
-      <c r="FG81" s="6"/>
-      <c r="FH81" s="6"/>
-      <c r="FI81" s="6"/>
-      <c r="FJ81" s="6"/>
-      <c r="FK81" s="6"/>
-      <c r="FL81" s="6"/>
-      <c r="FM81" s="6"/>
-      <c r="FN81" s="6"/>
-      <c r="FO81" s="6"/>
-      <c r="FP81" s="6"/>
-      <c r="FQ81" s="6"/>
-      <c r="FR81" s="6"/>
-      <c r="FS81" s="6"/>
-      <c r="FT81" s="6"/>
-      <c r="FU81" s="6"/>
-      <c r="FV81" s="6"/>
-      <c r="FW81" s="6"/>
-      <c r="FX81" s="6"/>
-      <c r="FY81" s="6"/>
-      <c r="FZ81" s="6"/>
-      <c r="GA81" s="6"/>
-      <c r="GB81" s="6"/>
-      <c r="GC81" s="6"/>
-      <c r="GD81" s="6"/>
-      <c r="GE81" s="6"/>
-      <c r="GF81" s="6"/>
-      <c r="GG81" s="6"/>
-      <c r="GH81" s="6"/>
-      <c r="GI81" s="6"/>
-      <c r="GJ81" s="6"/>
-      <c r="GK81" s="6"/>
-      <c r="GL81" s="6"/>
-      <c r="GM81" s="6"/>
-      <c r="GN81" s="6"/>
-      <c r="GO81" s="6"/>
-      <c r="GP81" s="6"/>
-      <c r="GQ81" s="6"/>
-      <c r="GR81" s="6"/>
-      <c r="GS81" s="6"/>
-      <c r="GT81" s="6"/>
-      <c r="GU81" s="6"/>
-      <c r="GV81" s="6"/>
-      <c r="GW81" s="6"/>
-      <c r="GX81" s="6"/>
-      <c r="GY81" s="6"/>
-      <c r="GZ81" s="6"/>
-      <c r="HA81" s="6"/>
-      <c r="HB81" s="6"/>
-      <c r="HC81" s="6"/>
-      <c r="HD81" s="6"/>
-      <c r="HE81" s="6"/>
-      <c r="HF81" s="6"/>
-      <c r="HG81" s="6"/>
-      <c r="HH81" s="6"/>
-      <c r="HI81" s="6"/>
-      <c r="HJ81" s="6"/>
-      <c r="HK81" s="6"/>
-      <c r="HL81" s="6"/>
-      <c r="HM81" s="6"/>
-      <c r="HN81" s="6"/>
-      <c r="HO81" s="6"/>
-      <c r="HP81" s="6"/>
-      <c r="HQ81" s="6"/>
-      <c r="HR81" s="6"/>
-      <c r="HS81" s="6"/>
-      <c r="HT81" s="6"/>
-      <c r="HU81" s="6"/>
-      <c r="HV81" s="6"/>
-      <c r="HW81" s="6"/>
-      <c r="HX81" s="6"/>
-      <c r="HY81" s="6"/>
-      <c r="HZ81" s="6"/>
-      <c r="IA81" s="6"/>
-      <c r="IB81" s="6"/>
-      <c r="IC81" s="6"/>
-      <c r="ID81" s="6"/>
-      <c r="IE81" s="6"/>
-      <c r="IF81" s="6"/>
-      <c r="IG81" s="6"/>
-      <c r="IH81" s="6"/>
-      <c r="II81" s="6"/>
-      <c r="IJ81" s="6"/>
-      <c r="IK81" s="6"/>
-      <c r="IL81" s="6"/>
-      <c r="IM81" s="6"/>
-      <c r="IN81" s="6"/>
-      <c r="IO81" s="6"/>
-      <c r="IP81" s="6"/>
-      <c r="IQ81" s="6"/>
-      <c r="IR81" s="6"/>
-      <c r="IS81" s="6"/>
-      <c r="IT81" s="6"/>
-      <c r="IU81" s="6"/>
-      <c r="IV81" s="6"/>
-    </row>
-    <row r="82" spans="1:256">
-      <c r="A82" s="12"/>
-      <c r="B82" s="48" t="str">
-        <f>ReactionList!A46</f>
-        <v>eIF4E_[A001]_ppi_eIF4G_[A002]</v>
-      </c>
-      <c r="C82" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="D82" s="29" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="83" spans="1:256">
+      <c r="D82" s="47" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="12"/>
-      <c r="B83" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="C83" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="D83" s="47" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="84" spans="1:256">
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="12"/>
     </row>
-    <row r="85" spans="1:256">
+    <row r="85" spans="1:4">
       <c r="A85" s="12"/>
     </row>
-    <row r="86" spans="1:256">
+    <row r="86" spans="1:4">
       <c r="A86" s="12"/>
     </row>
-    <row r="87" spans="1:256">
+    <row r="87" spans="1:4">
       <c r="A87" s="12"/>
     </row>
-    <row r="88" spans="1:256">
+    <row r="88" spans="1:4">
       <c r="A88" s="12"/>
     </row>
-    <row r="89" spans="1:256">
+    <row r="89" spans="1:4">
       <c r="A89" s="12"/>
     </row>
-    <row r="90" spans="1:256">
+    <row r="90" spans="1:4">
       <c r="A90" s="12"/>
     </row>
-    <row r="91" spans="1:256">
+    <row r="91" spans="1:4">
       <c r="A91" s="12"/>
     </row>
-    <row r="92" spans="1:256">
+    <row r="92" spans="1:4">
       <c r="A92" s="12"/>
     </row>
-    <row r="93" spans="1:256">
+    <row r="93" spans="1:4">
       <c r="A93" s="12"/>
     </row>
-    <row r="94" spans="1:256">
+    <row r="94" spans="1:4">
       <c r="A94" s="12"/>
     </row>
-    <row r="95" spans="1:256">
+    <row r="95" spans="1:4">
       <c r="A95" s="12"/>
     </row>
-    <row r="96" spans="1:256">
+    <row r="96" spans="1:4">
       <c r="A96" s="12"/>
     </row>
     <row r="97" spans="1:1">
@@ -6793,29 +6787,26 @@
     <row r="148" spans="1:1">
       <c r="A148" s="12"/>
     </row>
-    <row r="149" spans="1:1">
-      <c r="A149" s="12"/>
-    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <conditionalFormatting sqref="D49 B31:B39">
+  <conditionalFormatting sqref="D48 B30:B38">
     <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("Error",B31)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Error",B30)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H64852:H64862 E72:H83 C72:C83 C67 B84:H149 A150:H64851 H27:H71 H2:H24">
+  <conditionalFormatting sqref="H64851:H64861 E71:H82 C71:C82 C66 B83:H148 A149:H64850 H26:H70 H2:H23">
     <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
       <formula>ISERROR(A2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25:H26">
+  <conditionalFormatting sqref="H24:H25">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>ISERROR(H25)</formula>
+      <formula>ISERROR(H24)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
+  <conditionalFormatting sqref="E58">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("Error",E59)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Error",E58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>

--- a/mtor/mTOR56.xlsx
+++ b/mtor/mTOR56.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yassenroussev/Desktop/mTOR/mtor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EC05A3-18E3-7D46-9AD5-0F3295B39B4F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3752D0-D73B-F242-947F-E1A76C65989D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReactionList" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="263">
   <si>
     <t>!!SBtab TableType='rxnconReactionList' TableName='ReactionList'</t>
   </si>
@@ -156,9 +156,6 @@
     <t>mTORC2    to    phosphorylate    Akt    within    its hydrophobic motif (HM) at S474</t>
   </si>
   <si>
-    <t>nn</t>
-  </si>
-  <si>
     <t>TSC2</t>
   </si>
   <si>
@@ -177,9 +174,6 @@
     <t>Ser1130</t>
   </si>
   <si>
-    <t>nk</t>
-  </si>
-  <si>
     <t>TSC1</t>
   </si>
   <si>
@@ -771,9 +765,6 @@
     <t>PPM1G-{p}</t>
   </si>
   <si>
-    <t>un</t>
-  </si>
-  <si>
     <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5064830/ ; https://www.ncbi.nlm.nih.gov/pubmed/23814053</t>
   </si>
   <si>
@@ -814,6 +805,30 @@
   </si>
   <si>
     <t>INPP4B</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/ncb3440 ; https://www.sciencedirect.com/science/article/pii/S1044579X18301159</t>
+  </si>
+  <si>
+    <t>https://www.cell.com/cell/pdf/S0092-8674(17)30413-0.pdf</t>
+  </si>
+  <si>
+    <t>PHLPP1</t>
+  </si>
+  <si>
+    <t>PP2A</t>
+  </si>
+  <si>
+    <t>ARE THEY ON A SCAFFOLD PROTEIN IQGAP1; SHOULD I DEVELOP ?</t>
+  </si>
+  <si>
+    <t>PP5</t>
+  </si>
+  <si>
+    <t>unk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very insecure and shady about those; Russian research by the same lab </t>
   </si>
 </sst>
 </file>
@@ -849,7 +864,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="30">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1024,8 +1039,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1158,11 +1179,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1303,6 +1337,25 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1779,8 +1832,8 @@
   </sheetPr>
   <dimension ref="A1:IV50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="142" zoomScaleSheetLayoutView="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A10"/>
+    <sheetView tabSelected="1" zoomScale="142" zoomScaleSheetLayoutView="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -1953,7 +2006,7 @@
         <v>PI4K3alpha_p+_PI_[(4)]</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -1968,10 +2021,13 @@
         <v>4</v>
       </c>
       <c r="I7" s="12"/>
-      <c r="J7" s="26" t="s">
-        <v>253</v>
+      <c r="J7" s="89" t="s">
+        <v>250</v>
       </c>
       <c r="K7" s="2"/>
+      <c r="L7" s="90" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="14" t="str">
@@ -1979,7 +2035,7 @@
         <v>PIPK1alpha_p+_PI_[(5)]</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -1995,9 +2051,10 @@
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="26" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K8" s="65"/>
+      <c r="L8" s="91"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="14" t="str">
@@ -2005,7 +2062,7 @@
         <v>SAC1M1L_p-_PI_[(4)]</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -2021,11 +2078,12 @@
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="26" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K9" s="65" t="s">
-        <v>252</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="L9" s="91"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="14" t="str">
@@ -2033,7 +2091,7 @@
         <v>SYNJ2_p-_PI_[(5)]</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -2049,11 +2107,12 @@
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="26" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>250</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="L10" s="91"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="14" t="str">
@@ -2082,6 +2141,7 @@
       <c r="K11" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="L11" s="91"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="14" t="str">
@@ -2089,7 +2149,7 @@
         <v>PTEN_p-_PI_[(3)]</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -2106,6 +2166,7 @@
       <c r="I12" s="12"/>
       <c r="J12" s="26"/>
       <c r="K12" s="2"/>
+      <c r="L12" s="91"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="75" t="str">
@@ -2113,7 +2174,7 @@
         <v>PIPP_p-_PI_[(5)]</v>
       </c>
       <c r="B13" s="64" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -2130,6 +2191,7 @@
       <c r="I13" s="12"/>
       <c r="J13" s="26"/>
       <c r="K13" s="2"/>
+      <c r="L13" s="91"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="75" t="str">
@@ -2137,7 +2199,7 @@
         <v>INPP4B_p-_PI_[(4)]</v>
       </c>
       <c r="B14" s="64" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -2154,6 +2216,7 @@
       <c r="I14" s="12"/>
       <c r="J14" s="26"/>
       <c r="K14" s="2"/>
+      <c r="L14" s="91"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="24" t="str">
@@ -2244,10 +2307,10 @@
     <row r="18" spans="1:11">
       <c r="A18" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>nn_p-_AKT2_[(T309)]</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>38</v>
+        <v>PP2A_p-_AKT2_[(T309)]</v>
+      </c>
+      <c r="B18" s="88" t="s">
+        <v>258</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -2262,16 +2325,18 @@
         <v>33</v>
       </c>
       <c r="I18" s="12"/>
-      <c r="J18" s="26"/>
+      <c r="J18" s="26" t="s">
+        <v>256</v>
+      </c>
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>nn_p-_AKT2_[(S474)]</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>PHLPP1_p-_AKT2_[(S474)]</v>
+      </c>
+      <c r="B19" s="88" t="s">
+        <v>257</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -2286,7 +2351,9 @@
         <v>36</v>
       </c>
       <c r="I19" s="12"/>
-      <c r="J19" s="26"/>
+      <c r="J19" s="26" t="s">
+        <v>256</v>
+      </c>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
@@ -2303,16 +2370,16 @@
         <v>16</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I20" s="12"/>
       <c r="J20" s="26"/>
       <c r="K20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2329,11 +2396,11 @@
         <v>16</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I21" s="12"/>
       <c r="J21" s="26"/>
@@ -2353,11 +2420,11 @@
         <v>16</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I22" s="12"/>
       <c r="J22" s="26"/>
@@ -2377,11 +2444,11 @@
         <v>16</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I23" s="12"/>
       <c r="J23" s="26"/>
@@ -2401,7 +2468,7 @@
         <v>16</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5" t="s">
@@ -2414,10 +2481,10 @@
     <row r="25" spans="1:11">
       <c r="A25" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>un_p-_PPM1G_[(AKT2)]</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>243</v>
+        <v>unk_p-_PPM1G_[(AKT2)]</v>
+      </c>
+      <c r="B25" s="64" t="s">
+        <v>261</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -2425,7 +2492,7 @@
         <v>18</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5" t="s">
@@ -2433,15 +2500,17 @@
       </c>
       <c r="I25" s="12"/>
       <c r="J25" s="26"/>
-      <c r="K25" s="2"/>
+      <c r="K25" s="92" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>nk_p-_TSC2_[(Ser939)]</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>45</v>
+        <v>PP5_p-_TSC2_[(Ser939)]</v>
+      </c>
+      <c r="B26" s="64" t="s">
+        <v>260</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -2449,23 +2518,23 @@
         <v>18</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I26" s="12"/>
       <c r="J26" s="26"/>
-      <c r="K26" s="2"/>
+      <c r="K26" s="93"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>nk_p-_TSC2_[(Thr1462)]</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>45</v>
+        <v>PP5_p-_TSC2_[(Thr1462)]</v>
+      </c>
+      <c r="B27" s="64" t="s">
+        <v>260</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -2473,23 +2542,23 @@
         <v>18</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I27" s="12"/>
       <c r="J27" s="26"/>
-      <c r="K27" s="2"/>
+      <c r="K27" s="93"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>nk_p-_TSC2_[(Ser981)]</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>45</v>
+        <v>PP5_p-_TSC2_[(Ser981)]</v>
+      </c>
+      <c r="B28" s="64" t="s">
+        <v>260</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -2497,23 +2566,23 @@
         <v>18</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I28" s="12"/>
       <c r="J28" s="26"/>
-      <c r="K28" s="2"/>
+      <c r="K28" s="93"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>nk_p-_TSC2_[(Ser1130)]</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>45</v>
+        <v>PP5_p-_TSC2_[(Ser1130)]</v>
+      </c>
+      <c r="B29" s="64" t="s">
+        <v>260</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -2521,15 +2590,15 @@
         <v>18</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I29" s="12"/>
       <c r="J29" s="26"/>
-      <c r="K29" s="2"/>
+      <c r="K29" s="94"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="24" t="str">
@@ -2537,25 +2606,25 @@
         <v>TSC1_[Cterminus]_ppi+_TSC2_[Nterminus]</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="12"/>
       <c r="J30" s="26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K30" s="2"/>
     </row>
@@ -2565,20 +2634,20 @@
         <v>TSC1_[Cterminus]_ppi-_TSC2_[Nterminus]</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="12"/>
@@ -2591,24 +2660,24 @@
         <v>GTP_gef_RHEB_[(G)]</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I32" s="12"/>
       <c r="J32" s="26"/>
       <c r="K32" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:256">
@@ -2617,26 +2686,26 @@
         <v>TSC2_gap_RHEB_[(G)]</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I33" s="12"/>
       <c r="J33" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:256">
@@ -2645,28 +2714,28 @@
         <v>RHEB_[switch1]_ppi_mTOR_[Mheatmα2mα3mα4]</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="25" t="s">
         <v>13</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="12"/>
       <c r="J34" s="26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:256">
@@ -2675,28 +2744,28 @@
         <v>RHEB_[switch2GQDEYSIFPQTYSIDIN]_ppi_mTOR_[Nheatnα3tonα7]</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="25" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="12"/>
       <c r="J35" s="26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:256">
@@ -2705,28 +2774,28 @@
         <v>RHEB_[switch1DSYDPTIEN]_ppi_mTOR_[FATfα2fα3]</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="25" t="s">
         <v>13</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="12"/>
       <c r="J36" s="26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:256">
@@ -2735,15 +2804,15 @@
         <v>mTOR_ppi+_Raptor</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
@@ -2757,20 +2826,20 @@
         <v>eIF4E_[A001]_ppi+_EIF4EBP1_[A001]</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="12"/>
@@ -2783,20 +2852,20 @@
         <v>eIF4E_[A001]_ppi-_EIF4EBP1_[A001]</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="12"/>
@@ -2809,7 +2878,7 @@
         <v>mTORC1_p+_EIF4EBP1_[(Thr37)]</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="5"/>
@@ -2817,15 +2886,15 @@
         <v>16</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I40" s="11"/>
       <c r="J40" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K40" s="27"/>
       <c r="L40" s="3" t="str">
@@ -3086,7 +3155,7 @@
         <v>mTORC1_p+_EIF4EBP1_[(Thr46)]</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -3094,11 +3163,11 @@
         <v>16</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I41" s="11"/>
       <c r="J41" s="9"/>
@@ -3361,7 +3430,7 @@
         <v>mTORC1_p+_EIF4EBP1_[(Ser65)]</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -3369,11 +3438,11 @@
         <v>16</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I42" s="11"/>
       <c r="J42" s="9"/>
@@ -3632,7 +3701,7 @@
         <v>mTORC1_p+_EIF4EBP1_[(Thr70)]</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -3640,11 +3709,11 @@
         <v>16</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I43" s="11"/>
       <c r="J43" s="9"/>
@@ -3899,7 +3968,7 @@
         <v>PPM1G_p-_EIF4EBP1_[(Thr37)]</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -3907,15 +3976,15 @@
         <v>18</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I44" s="17"/>
       <c r="J44" s="13" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K44" s="23"/>
       <c r="M44" s="6"/>
@@ -4168,19 +4237,19 @@
         <v>PPM1G_p-_EIF4EBP1_[(Thr46)]</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E45" s="28" t="s">
         <v>18</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="46" spans="1:256">
@@ -4189,19 +4258,19 @@
         <v>PPM1G_p-_EIF4EBP1_[(Ser65)]</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E46" s="28" t="s">
         <v>18</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="47" spans="1:256">
@@ -4210,19 +4279,19 @@
         <v>PPM1G_p-_EIF4EBP1_[(Thr70)]</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E47" s="28" t="s">
         <v>18</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="48" spans="1:256">
@@ -4231,19 +4300,19 @@
         <v>eIF4E_[A001]_ppi_eIF4G_[A002]</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="2:2">
@@ -4254,7 +4323,11 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <conditionalFormatting sqref="H38:K39 G37:K37 F45:F47 F44:K44 D38:F39 C44:D44 C37:D37 B40:K43 B38:B39 H45:H47 B2:K36">
+  <mergeCells count="2">
+    <mergeCell ref="L7:L14"/>
+    <mergeCell ref="K25:K29"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H38:K39 G37:K37 F45:F47 F44:K44 D38:F39 C44:D44 C37:D37 B40:K43 B38:B39 H45:H47 B2:K17 B20:K25 C18:K19 B30:K36 B26:J29">
     <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("Error",B2)))</formula>
     </cfRule>
@@ -4289,7 +4362,7 @@
   </sheetPr>
   <dimension ref="A1:IV164"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" zoomScaleSheetLayoutView="1" workbookViewId="0">
+    <sheetView zoomScale="139" zoomScaleSheetLayoutView="1" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -4309,24 +4382,24 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="D2" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="E2" s="37" t="s">
         <v>84</v>
-      </c>
-      <c r="D2" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>86</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>9</v>
@@ -4348,10 +4421,10 @@
         <v>mitogen_ppi_EGFR</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="37"/>
@@ -4366,10 +4439,10 @@
         <v>mitogen_ppi_EGFR</v>
       </c>
       <c r="C4" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="52" t="s">
         <v>87</v>
-      </c>
-      <c r="D4" s="52" t="s">
-        <v>89</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="37"/>
@@ -4380,13 +4453,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E5" s="37" t="s">
         <v>25</v>
@@ -4403,13 +4476,13 @@
         <v>RTK_p+_IRS</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D6" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="37" t="s">
         <v>90</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>92</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="33"/>
@@ -4423,17 +4496,17 @@
         <v>IRS_[pY]_ppi_PI3K_[SH2]</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F7" s="37"/>
       <c r="G7" s="33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4441,13 +4514,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E8" s="37" t="s">
         <v>25</v>
@@ -4462,10 +4535,10 @@
         <v>PIPK1alpha_p+_PI_[(5)]</v>
       </c>
       <c r="C9" s="68" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D9" s="68" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E9" s="37"/>
       <c r="F9" s="37"/>
@@ -4474,13 +4547,13 @@
     <row r="10" spans="1:8">
       <c r="A10" s="12"/>
       <c r="B10" s="68" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C10" s="68" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D10" s="67" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="37"/>
@@ -4493,10 +4566,10 @@
         <v>PI3K_p+_PI_[(3)]</v>
       </c>
       <c r="C11" s="71" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D11" s="71" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E11" s="37"/>
       <c r="F11" s="37"/>
@@ -4505,13 +4578,13 @@
     <row r="12" spans="1:8">
       <c r="A12" s="12"/>
       <c r="B12" s="71" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C12" s="71" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D12" s="71" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E12" s="37"/>
       <c r="F12" s="37"/>
@@ -4520,13 +4593,13 @@
     <row r="13" spans="1:8">
       <c r="A13" s="12"/>
       <c r="B13" s="71" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C13" s="71" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D13" s="72" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="37"/>
@@ -4541,10 +4614,10 @@
         <v>PI3K_p+_PI_[(3)]</v>
       </c>
       <c r="C14" s="73" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D14" s="73" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E14" s="37" t="s">
         <v>25</v>
@@ -4561,10 +4634,10 @@
         <v>AKT2_[PI]_i_PI_[PH]</v>
       </c>
       <c r="C15" s="73" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D15" s="74" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E15" s="37"/>
       <c r="F15" s="37"/>
@@ -4575,13 +4648,13 @@
         <v>11</v>
       </c>
       <c r="B16" s="74" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C16" s="73" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D16" s="74" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E16" s="37"/>
       <c r="F16" s="37"/>
@@ -4592,13 +4665,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="73" t="s">
         <v>100</v>
-      </c>
-      <c r="C17" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="73" t="s">
-        <v>102</v>
       </c>
       <c r="E17" s="37"/>
       <c r="F17" s="37"/>
@@ -4611,10 +4684,10 @@
         <v>PTEN_p-_PI_[(3)]</v>
       </c>
       <c r="C18" s="79" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D18" s="80" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E18" s="37"/>
       <c r="F18" s="37"/>
@@ -4627,10 +4700,10 @@
         <v>PTEN_p-_PI_[(3)]</v>
       </c>
       <c r="C19" s="79" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D19" s="80" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E19" s="37"/>
       <c r="F19" s="37"/>
@@ -4670,10 +4743,10 @@
         <v>PIPP_p-_PI_[(5)]</v>
       </c>
       <c r="C23" s="81" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D23" s="82" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E23" s="37"/>
       <c r="F23" s="37"/>
@@ -4686,10 +4759,10 @@
         <v>PIPP_p-_PI_[(5)]</v>
       </c>
       <c r="C24" s="81" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D24" s="82" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E24" s="37"/>
       <c r="F24" s="37"/>
@@ -4711,10 +4784,10 @@
         <v>INPP4B_p-_PI_[(4)]</v>
       </c>
       <c r="C26" s="77" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D26" s="78" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E26" s="37"/>
       <c r="F26" s="37"/>
@@ -4772,10 +4845,10 @@
         <v>SYNJ2_p-_PI_[(5)]</v>
       </c>
       <c r="C32" s="69" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D32" s="69" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E32" s="85"/>
       <c r="F32" s="85"/>
@@ -4784,13 +4857,13 @@
     <row r="33" spans="1:7" s="87" customFormat="1" ht="16" thickBot="1">
       <c r="A33" s="70"/>
       <c r="B33" s="69" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C33" s="69" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D33" s="70" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E33" s="85"/>
       <c r="F33" s="85"/>
@@ -4805,10 +4878,10 @@
         <v>PDK1_p+_AKT2_[(T309)]</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D34" s="53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E34" s="37"/>
       <c r="F34" s="37"/>
@@ -4823,10 +4896,10 @@
         <v>mTORC2_p+_AKT2_[(S474)]</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D35" s="53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E35" s="37"/>
       <c r="F35" s="37"/>
@@ -4841,10 +4914,10 @@
         <v>AKT2_p+_TSC2_[(Ser939)]</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D36" s="53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E36" s="37"/>
       <c r="F36" s="37"/>
@@ -4859,10 +4932,10 @@
         <v>AKT2_p+_TSC2_[(Thr1462)]</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D37" s="53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E37" s="37"/>
       <c r="F37" s="37"/>
@@ -4877,10 +4950,10 @@
         <v>AKT2_p+_TSC2_[(Ser981)]</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D38" s="53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E38" s="37"/>
       <c r="F38" s="37"/>
@@ -4895,10 +4968,10 @@
         <v>AKT2_p+_TSC2_[(Ser1130)]</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D39" s="53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E39" s="37"/>
       <c r="F39" s="37"/>
@@ -4911,10 +4984,10 @@
         <v>AKT2_p+_PPM1G_[(AKT2)]</v>
       </c>
       <c r="C40" s="61" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D40" s="63" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E40" s="34"/>
       <c r="F40" s="51"/>
@@ -4924,13 +4997,13 @@
       <c r="A41" s="12"/>
       <c r="B41" s="61" t="str">
         <f>ReactionList!A25</f>
-        <v>un_p-_PPM1G_[(AKT2)]</v>
+        <v>unk_p-_PPM1G_[(AKT2)]</v>
       </c>
       <c r="C41" s="61" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D41" s="63" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E41" s="34"/>
       <c r="F41" s="51"/>
@@ -4941,13 +5014,13 @@
         <v>20</v>
       </c>
       <c r="B42" s="53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C42" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D42" s="53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E42" s="37"/>
       <c r="F42" s="37"/>
@@ -4958,13 +5031,13 @@
         <v>21</v>
       </c>
       <c r="B43" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" s="53" t="s">
         <v>104</v>
-      </c>
-      <c r="C43" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="D43" s="53" t="s">
-        <v>106</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="37"/>
@@ -4979,10 +5052,10 @@
         <v>RHEB_[switch1]_ppi_mTOR_[Mheatmα2mα3mα4]</v>
       </c>
       <c r="C44" s="55" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D44" s="42" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E44" s="37"/>
       <c r="F44" s="37"/>
@@ -4997,10 +5070,10 @@
         <v>RHEB_[switch2GQDEYSIFPQTYSIDIN]_ppi_mTOR_[Nheatnα3tonα7]</v>
       </c>
       <c r="C45" s="55" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D45" s="42" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E45" s="37"/>
       <c r="F45" s="37"/>
@@ -5015,10 +5088,10 @@
         <v>RHEB_[switch1DSYDPTIEN]_ppi_mTOR_[FATfα2fα3]</v>
       </c>
       <c r="C46" s="55" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D46" s="42" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E46" s="37"/>
       <c r="F46" s="37"/>
@@ -5029,13 +5102,13 @@
         <v>26</v>
       </c>
       <c r="B47" s="44" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C47" s="55" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D47" s="42" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E47" s="37"/>
       <c r="F47" s="37"/>
@@ -5050,17 +5123,17 @@
         <v>TSC1_[Cterminus]_ppi+_TSC2_[Nterminus]</v>
       </c>
       <c r="C48" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="E48" s="37" t="s">
         <v>110</v>
-      </c>
-      <c r="D48" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E48" s="37" t="s">
-        <v>112</v>
       </c>
       <c r="F48" s="37"/>
       <c r="G48" s="33" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -5072,10 +5145,10 @@
         <v>TSC1_[Cterminus]_ppi-_TSC2_[Nterminus]</v>
       </c>
       <c r="C49" s="55" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D49" s="42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E49" s="37"/>
       <c r="F49" s="37"/>
@@ -5090,10 +5163,10 @@
         <v>GTP_gef_RHEB_[(G)]</v>
       </c>
       <c r="C50" s="55" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D50" s="42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E50" s="37"/>
       <c r="F50" s="37"/>
@@ -5104,13 +5177,13 @@
         <v>30</v>
       </c>
       <c r="B51" s="44" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C51" s="55" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D51" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E51" s="37"/>
       <c r="F51" s="37"/>
@@ -5121,13 +5194,13 @@
         <v>31</v>
       </c>
       <c r="B52" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="D52" s="42" t="s">
         <v>114</v>
-      </c>
-      <c r="C52" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="D52" s="42" t="s">
-        <v>116</v>
       </c>
       <c r="E52" s="37"/>
       <c r="F52" s="37"/>
@@ -5138,13 +5211,13 @@
         <v>32</v>
       </c>
       <c r="B53" s="44" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C53" s="55" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D53" s="42" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E53" s="37"/>
       <c r="F53" s="37"/>
@@ -5155,13 +5228,13 @@
         <v>33</v>
       </c>
       <c r="B54" s="44" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C54" s="55" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D54" s="42" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E54" s="37"/>
       <c r="F54" s="37"/>
@@ -5176,17 +5249,17 @@
         <v>mTOR_ppi+_Raptor</v>
       </c>
       <c r="C55" s="38" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D55" s="32" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E55" s="37" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F55" s="37"/>
       <c r="G55" s="33" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -5198,13 +5271,13 @@
         <v>mTOR_ppi+_Raptor</v>
       </c>
       <c r="C56" s="38" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E56" s="37" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F56" s="37"/>
       <c r="G56" s="33"/>
@@ -5218,10 +5291,10 @@
         <v>mTORC1_p+_EIF4EBP1_[(Thr37)]</v>
       </c>
       <c r="C57" s="57" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D57" s="32" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E57" s="37"/>
       <c r="F57" s="37"/>
@@ -5236,10 +5309,10 @@
         <v>mTORC1_p+_EIF4EBP1_[(Thr46)]</v>
       </c>
       <c r="C58" s="57" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E58" s="37"/>
       <c r="F58" s="37"/>
@@ -5252,10 +5325,10 @@
         <v>mTORC1_p+_EIF4EBP1_[(Ser65)]</v>
       </c>
       <c r="C59" s="57" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D59" s="32" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E59" s="37"/>
       <c r="F59" s="37"/>
@@ -5268,10 +5341,10 @@
         <v>mTORC1_p+_EIF4EBP1_[(Thr70)]</v>
       </c>
       <c r="C60" s="57" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D60" s="32" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E60" s="37"/>
       <c r="F60" s="37"/>
@@ -5280,13 +5353,13 @@
     <row r="61" spans="1:7">
       <c r="A61" s="12"/>
       <c r="B61" s="32" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C61" s="57" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D61" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E61" s="37"/>
       <c r="F61" s="37"/>
@@ -5295,13 +5368,13 @@
     <row r="62" spans="1:7">
       <c r="A62" s="12"/>
       <c r="B62" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="D62" s="46" t="s">
         <v>123</v>
-      </c>
-      <c r="C62" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="D62" s="46" t="s">
-        <v>125</v>
       </c>
       <c r="E62" s="37"/>
       <c r="F62" s="37"/>
@@ -5310,13 +5383,13 @@
     <row r="63" spans="1:7">
       <c r="A63" s="12"/>
       <c r="B63" s="32" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C63" s="57" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D63" s="46" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E63" s="37"/>
       <c r="F63" s="37"/>
@@ -5325,13 +5398,13 @@
     <row r="64" spans="1:7">
       <c r="A64" s="12"/>
       <c r="B64" s="32" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C64" s="57" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D64" s="43" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E64" s="37"/>
       <c r="F64" s="37"/>
@@ -5346,13 +5419,13 @@
         <v>mTORC1_p+_EIF4EBP1_[(Thr70)]</v>
       </c>
       <c r="C65" s="35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D65" s="40" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E65" s="34" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F65" s="51"/>
       <c r="G65" s="36"/>
@@ -5370,13 +5443,13 @@
         <v>mTORC1_p+_EIF4EBP1_[(Thr70)]</v>
       </c>
       <c r="C66" s="35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D66" s="40" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E66" s="34" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F66" s="51"/>
       <c r="G66" s="36"/>
@@ -5390,13 +5463,13 @@
         <v>mTORC1_p+_EIF4EBP1_[(Ser65)]</v>
       </c>
       <c r="C67" s="35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D67" s="40" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E67" s="34" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F67" s="51"/>
       <c r="G67" s="36"/>
@@ -5410,13 +5483,13 @@
         <v>mTORC1_p+_EIF4EBP1_[(Ser65)]</v>
       </c>
       <c r="C68" s="35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D68" s="40" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E68" s="34" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F68" s="51"/>
       <c r="G68" s="36"/>
@@ -5430,13 +5503,13 @@
         <v>mTORC1_p+_EIF4EBP1_[(Ser65)]</v>
       </c>
       <c r="C69" s="35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D69" s="40" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E69" s="34" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F69" s="51"/>
       <c r="G69" s="36"/>
@@ -5450,10 +5523,10 @@
         <v>mTORC1_p+_EIF4EBP1_[(Thr37)]</v>
       </c>
       <c r="C70" s="35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D70" s="40" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E70" s="34"/>
       <c r="F70" s="51"/>
@@ -5468,10 +5541,10 @@
         <v>mTORC1_p+_EIF4EBP1_[(Thr46)]</v>
       </c>
       <c r="C71" s="35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D71" s="40" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E71" s="34"/>
       <c r="F71" s="51"/>
@@ -5486,10 +5559,10 @@
         <v>mTORC1_p+_EIF4EBP1_[(Thr70)]</v>
       </c>
       <c r="C72" s="35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D72" s="40" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E72" s="34"/>
       <c r="F72" s="51"/>
@@ -5504,10 +5577,10 @@
         <v>mTORC1_p+_EIF4EBP1_[(Ser65)]</v>
       </c>
       <c r="C73" s="35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D73" s="40" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E73" s="34"/>
       <c r="F73" s="51"/>
@@ -5520,13 +5593,13 @@
         <v>PPM1G_p-_EIF4EBP1_[(Thr37)]</v>
       </c>
       <c r="C74" s="61" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D74" s="62" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F74" s="51"/>
       <c r="G74" s="36"/>
@@ -5538,13 +5611,13 @@
         <v>PPM1G_p-_EIF4EBP1_[(Thr46)]</v>
       </c>
       <c r="C75" s="61" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D75" s="62" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F75" s="51"/>
       <c r="G75" s="36"/>
@@ -5556,13 +5629,13 @@
         <v>PPM1G_p-_EIF4EBP1_[(Ser65)]</v>
       </c>
       <c r="C76" s="61" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D76" s="62" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F76" s="51"/>
       <c r="G76" s="36"/>
@@ -5574,13 +5647,13 @@
         <v>PPM1G_p-_EIF4EBP1_[(Thr70)]</v>
       </c>
       <c r="C77" s="61" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D77" s="62" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F77" s="51"/>
       <c r="G77" s="36"/>
@@ -5594,10 +5667,10 @@
         <v>eIF4E_[A001]_ppi-_EIF4EBP1_[A001]</v>
       </c>
       <c r="C78" s="30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D78" s="47" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E78" s="34"/>
       <c r="F78" s="51"/>
@@ -5606,13 +5679,13 @@
     <row r="79" spans="1:8">
       <c r="A79" s="12"/>
       <c r="B79" s="56" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C79" s="56" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D79" s="31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E79" s="34"/>
       <c r="F79" s="51"/>
@@ -5621,13 +5694,13 @@
     <row r="80" spans="1:8">
       <c r="A80" s="12"/>
       <c r="B80" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="C80" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="D80" s="29" t="s">
         <v>134</v>
-      </c>
-      <c r="C80" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="D80" s="29" t="s">
-        <v>136</v>
       </c>
       <c r="E80" s="34"/>
       <c r="F80" s="51"/>
@@ -5636,13 +5709,13 @@
     <row r="81" spans="1:256">
       <c r="A81" s="12"/>
       <c r="B81" s="48" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C81" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D81" s="29" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E81" s="34"/>
       <c r="F81" s="51"/>
@@ -5651,13 +5724,13 @@
     <row r="82" spans="1:256">
       <c r="A82" s="12"/>
       <c r="B82" s="48" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C82" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D82" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E82" s="34"/>
       <c r="F82" s="51"/>
@@ -5670,10 +5743,10 @@
         <v>eIF4E_[A001]_ppi_eIF4G_[A002]</v>
       </c>
       <c r="C83" s="30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D83" s="47" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E83" s="34"/>
       <c r="F83" s="51"/>
@@ -5684,13 +5757,13 @@
         <v>55</v>
       </c>
       <c r="B84" s="56" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C84" s="56" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D84" s="31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E84" s="34"/>
       <c r="F84" s="51"/>
@@ -5701,13 +5774,13 @@
         <v>56</v>
       </c>
       <c r="B85" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="C85" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="D85" s="29" t="s">
         <v>134</v>
-      </c>
-      <c r="C85" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="D85" s="29" t="s">
-        <v>136</v>
       </c>
       <c r="E85" s="34"/>
       <c r="F85" s="51"/>
@@ -5718,13 +5791,13 @@
         <v>57</v>
       </c>
       <c r="B86" s="48" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C86" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D86" s="29" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E86" s="34"/>
       <c r="F86" s="51"/>
@@ -5735,13 +5808,13 @@
         <v>58</v>
       </c>
       <c r="B87" s="48" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C87" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D87" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="88" spans="1:256">
@@ -5751,58 +5824,58 @@
         <v>eIF4E_[A001]_ppi+_EIF4EBP1_[A001]</v>
       </c>
       <c r="C88" s="49" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D88" s="47" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="89" spans="1:256">
       <c r="A89" s="12"/>
       <c r="B89" s="50" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C89" s="49" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D89" s="31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90" spans="1:256">
       <c r="A90" s="12"/>
       <c r="B90" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="C90" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="D90" s="29" t="s">
         <v>134</v>
-      </c>
-      <c r="C90" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="D90" s="29" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="91" spans="1:256">
       <c r="A91" s="12"/>
       <c r="B91" s="48" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C91" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D91" s="29" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="92" spans="1:256">
       <c r="A92" s="12"/>
       <c r="B92" s="48" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C92" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D92" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="93" spans="1:256">
@@ -5812,10 +5885,10 @@
         <v>eIF4E_[A001]_ppi+_EIF4EBP1_[A001]</v>
       </c>
       <c r="C93" s="45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D93" s="29" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
@@ -6077,10 +6150,10 @@
         <v>eIF4E_[A001]_ppi+_EIF4EBP1_[A001]</v>
       </c>
       <c r="C94" s="45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D94" s="29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
@@ -6342,10 +6415,10 @@
         <v>eIF4E_[A001]_ppi_eIF4G_[A002]</v>
       </c>
       <c r="C95" s="54" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D95" s="29" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
@@ -6607,10 +6680,10 @@
         <v>eIF4E_[A001]_ppi_eIF4G_[A002]</v>
       </c>
       <c r="C96" s="45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D96" s="29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
@@ -6872,22 +6945,22 @@
         <v>eIF4E_[A001]_ppi_eIF4G_[A002]</v>
       </c>
       <c r="C97" s="48" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D97" s="29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="12"/>
       <c r="B98" s="39" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C98" s="30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D98" s="47" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -7142,7 +7215,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -7150,701 +7223,701 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="G14" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="G16" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="58" t="s">
+        <v>200</v>
+      </c>
+      <c r="B19" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="C19" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="F19" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="H19" s="60" t="s">
         <v>202</v>
-      </c>
-      <c r="B19" s="60" t="s">
-        <v>203</v>
-      </c>
-      <c r="C19" s="60" t="s">
-        <v>154</v>
-      </c>
-      <c r="D19" s="60" t="s">
-        <v>155</v>
-      </c>
-      <c r="E19" s="60" t="s">
-        <v>156</v>
-      </c>
-      <c r="F19" s="60" t="s">
-        <v>155</v>
-      </c>
-      <c r="G19" s="60" t="s">
-        <v>157</v>
-      </c>
-      <c r="H19" s="60" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="58" t="s">
+        <v>203</v>
+      </c>
+      <c r="B20" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="C20" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="F20" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="G20" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="H20" s="60" t="s">
         <v>205</v>
-      </c>
-      <c r="B20" s="60" t="s">
-        <v>206</v>
-      </c>
-      <c r="C20" s="60" t="s">
-        <v>154</v>
-      </c>
-      <c r="D20" s="60" t="s">
-        <v>155</v>
-      </c>
-      <c r="E20" s="60" t="s">
-        <v>156</v>
-      </c>
-      <c r="F20" s="60" t="s">
-        <v>155</v>
-      </c>
-      <c r="G20" s="60" t="s">
-        <v>157</v>
-      </c>
-      <c r="H20" s="60" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="59" t="s">
+        <v>215</v>
+      </c>
+      <c r="B24" s="59" t="s">
+        <v>216</v>
+      </c>
+      <c r="C24" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="D24" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="E24" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="F24" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="G24" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="H24" s="59" t="s">
         <v>217</v>
-      </c>
-      <c r="B24" s="59" t="s">
-        <v>218</v>
-      </c>
-      <c r="C24" s="59" t="s">
-        <v>154</v>
-      </c>
-      <c r="D24" s="59" t="s">
-        <v>155</v>
-      </c>
-      <c r="E24" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="F24" s="59" t="s">
-        <v>155</v>
-      </c>
-      <c r="G24" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="H24" s="59" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="B25" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="C25" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="E25" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="F25" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="G25" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="H25" s="59" t="s">
         <v>220</v>
-      </c>
-      <c r="B25" s="59" t="s">
-        <v>221</v>
-      </c>
-      <c r="C25" s="59" t="s">
-        <v>154</v>
-      </c>
-      <c r="D25" s="59" t="s">
-        <v>155</v>
-      </c>
-      <c r="E25" s="59" t="s">
-        <v>156</v>
-      </c>
-      <c r="F25" s="59" t="s">
-        <v>155</v>
-      </c>
-      <c r="G25" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="H25" s="59" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="59" t="s">
+        <v>221</v>
+      </c>
+      <c r="B26" s="59" t="s">
+        <v>222</v>
+      </c>
+      <c r="C26" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="E26" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="H26" s="59" t="s">
         <v>223</v>
-      </c>
-      <c r="B26" s="59" t="s">
-        <v>224</v>
-      </c>
-      <c r="C26" s="59" t="s">
-        <v>154</v>
-      </c>
-      <c r="D26" s="59" t="s">
-        <v>155</v>
-      </c>
-      <c r="E26" s="59" t="s">
-        <v>156</v>
-      </c>
-      <c r="F26" s="59" t="s">
-        <v>155</v>
-      </c>
-      <c r="G26" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="H26" s="59" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -7873,20 +7946,20 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
@@ -7894,34 +7967,34 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
